--- a/data/hotels_by_city/Dallas/Dallas_shard_212.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_212.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="806">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>vmom1209</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We were on a road trip with 5 kids and staying there was great.  No kid hassles!! The area was great too! Front desk made sure we had everything we needed.  Going on long trips with 5 kids is super hard as it is! More</t>
   </si>
   <si>
+    <t>R9103XHrobertw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r567608221-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>This is the worst hotel experience I've ever had. Filthy rooms, smell of marijuana throughout the hotel, broken sink and a fixture falling on my daughter made this a terrible stay. The lobby was filthy for our whole trip. The bathroom still had toothpaste stains on the sink, hair on floor and tub and the kitchen still had food and trash from the previous guest.More</t>
   </si>
   <si>
+    <t>tashasagan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r567367670-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>Construction, plumbing problems, booking occupied rooms,  oh my! Lovely staff but lots of problems. Wasn't worth the deal on Hotels.com. Difficult to get in and out, plumbing issues caused leak in the ceiling...not to mention the smell!More</t>
   </si>
   <si>
+    <t>B9161KLwilliamr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r553763421-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>Will not go again, nasty Tub, fire alarm woke me up 2 times, poor counter employee, Manager was not reacheble, refund was not available, bad smell, Worse experience ever.I was on room 218, break fast its a lie, only a nasty coffe and a granola bar, very poor managedMore</t>
   </si>
   <si>
+    <t>Allen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r553890429-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>This was a very inexpensive hotel that provides no routine cleaning of your room.  The items that supposedly come with the room, like a coffee pot, dishwater, etc. have to be requested from the from the front desk.  The wifi was 0.5mbps. The elevators didn't work and I was on the third floor.  The room smelled like curry all week.  The heater was very noisy and kept me up at night.  The tub and sink drains were extremely slow.More</t>
   </si>
   <si>
+    <t>858melissao</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r550427058-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>Very poor facilities, no wifi, beds not made up and when asked after a third time just handed sheets at 11pm to make the bed ourselves. Very disappointed. Especially difficult when travelling with children. Don’t goMore</t>
   </si>
   <si>
+    <t>olgasV3353QN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r550343711-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t>Very polite, knowledgeable, friendly and helpful people work there, make us feel like home. Hotel is next door to Six Flags, close to DFW International Airport, many attraction places to see in close range. Some rooms are have kitchen, which is great, if you're travel with kids. Thank you very much for everything!More</t>
   </si>
   <si>
+    <t>Wendy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r549420279-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -364,6 +388,9 @@
   </si>
   <si>
     <t>Husband and I gave each other the trip to Dallas to see the Cowboy's play on Christmas Eve as a Christmas Present to each other.  Hotel staff very nice and helpful, room are clean.  We took advantage of the shuttle to the game, made it nice to not have to fight the traffic.  I would highly recommend this hotel to anyone staying the area.More</t>
+  </si>
+  <si>
+    <t>sabeletc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r548115238-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -400,6 +427,9 @@
 We will not be staying at this Extended Stay...We stayed here because I had a promotion code to waive the pet fee.  Other motels in the area want anywhere from $50 - $80 for a pet fee, which I find exhorbitant.  As residence motels go, this one was disappointing, to be kind.  It needs updating, remodeling and a thorough cleaning and fumigating.  I am usually pretty forgiving about motels, but when I find a roach on the kitchen sink, I tend to get grossed out.  I am just hoping I didn’t bring any roaches home with me.  The bathroom sink did not have any hot water.  The kitchen was not supplied with anything, not even a dish towel.  Guests need to go down to the Front Desk to request any dishes, utensils, pots and pans, even dish soap and towels, and then carry them back to the room themselves.  At least they didn’t request a deposit.  Judging by the kitchen cabinets, the rooms have not been seriously updated since the early 1980’s.  The bathtub and surround looks like it was replaced sometime since 2000 and the shower head was a good one with plenty of pressure and hot water.  The heat in the room worked very well but we could smell the dust burning off when we first turned the heater on and the room smelled like dog urine/wet dog for the rest of the time we were there.  We will not be staying at this Extended Stay again, if we can help it.  Last summer, we stayed at the Townplace Suites, a little bit farther west and on the north side of Lamar Blvd, and were happy with the room, the service and the cleanliness of the hotel.  This time, since family was staying at the Fairfield Inn next door to the Extended Stay, we opted for it.  I don’t think we’ll do that again.More</t>
   </si>
   <si>
+    <t>Leticia Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r546790449-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -427,6 +457,9 @@
     <t>The hotel was clean. The front desk personnel were really friendly and helpful.  We went to the Dallas game so it was a nice that the hotel offered a shuttle service for 20.00 round trip. It was well worth it not to deal with your own parking and well you can have a few drinks without worrying about driving back. Only thing is don't expect a huge breakfast selection but I didn't choose the hotel for that so no biggie...  would stay there again!More</t>
   </si>
   <si>
+    <t>Marcus T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r546396960-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -451,6 +484,9 @@
     <t>So I stayed at the extended Stay America this past weekend. On arrival the onsite manager book me in but they switched my reservation. So at 11:30 p.m. I get a call from the office demanding I come down. As long as for me and my family so we go down to see what it's about. Young lady behind the desk. Treating me like as if I was convict. Call the police on me because of her co-workers mistake. Luckily the co-worker took all responsibility for the problem. But the cops did take my information and checked it to see if I had any outstanding warrants. Which is protocol so I wasn't mad at the officers. They told their story to the officers and the officer replied this sounds like a internal matter. The young girl proceeded to try to force some guilt upon me. As if I went into the computer and switch the reservations. So this all ends at like 12:05 a.m. I go back to my room and try to sleep period the next morning I get a call from the manager saying that my hotel was not paid for. They had cancel the reservation I paid for. Then ask me to pay again. I talk to the manager she call me down and gave me what they call a certificate bog basically comping me for my room and a free night. I said thank you that...So I stayed at the extended Stay America this past weekend. On arrival the onsite manager book me in but they switched my reservation. So at 11:30 p.m. I get a call from the office demanding I come down. As long as for me and my family so we go down to see what it's about. Young lady behind the desk. Treating me like as if I was convict. Call the police on me because of her co-workers mistake. Luckily the co-worker took all responsibility for the problem. But the cops did take my information and checked it to see if I had any outstanding warrants. Which is protocol so I wasn't mad at the officers. They told their story to the officers and the officer replied this sounds like a internal matter. The young girl proceeded to try to force some guilt upon me. As if I went into the computer and switch the reservations. So this all ends at like 12:05 a.m. I go back to my room and try to sleep period the next morning I get a call from the manager saying that my hotel was not paid for. They had cancel the reservation I paid for. Then ask me to pay again. I talk to the manager she call me down and gave me what they call a certificate bog basically comping me for my room and a free night. I said thank you that was that period 2 Days Later I go and use my certificate at a different extended stay location. I check in 2 hours later that manager came and told me I had to leave. Because I had outstanding charges at the other Hotel. My question to him was why would they give me a compensation and then tell me how I still owe. That manager said to me that that wasn't protocol and he will talk to his general manager. I've talked to that general manager. He heard me out said he will give me a call back it's been 48 hours since that call I still haven't heard from Extended Stay.More</t>
   </si>
   <si>
+    <t>Stehr67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r545800332-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -475,6 +511,9 @@
     <t>I stayed here before and thought it was great but it was a few years ago.   I read the reviews and was worried.   I got there about 5 and checkin was great.   Staff was exceptional.    one of the elevators was broken but I just used the other.   hotel is a little dated but when I got in the room it was clean.   I did like the new recliner they put in.  Probably the biggest thing I noticed and they told me when I checked in was that the room itself did not have the plates and stuff in the cabinets but if you need anything to just ask them.   I was staying one night so I didn't get that.  but noticed no fork or cups or anything in the drawers or cabinets and you I did not see the normal shampoo I see at other hotels no dryer.    but they did have soap and plastic cups in the bathroom.   We did shower and take the towels down and they exchanged.   overall I was happy with the room.   I was on the third floor and my window faced sixflags and the highway but didn't have a problem with noise.   Also I was worried about the bed it was clean and pretty comfortable.  Didn't use pool or even see an ice machine so can't comment on that.  I used ice in fridge.    It was close to AT&amp;T and was clean.   The breakfast...I stayed here before and thought it was great but it was a few years ago.   I read the reviews and was worried.   I got there about 5 and checkin was great.   Staff was exceptional.    one of the elevators was broken but I just used the other.   hotel is a little dated but when I got in the room it was clean.   I did like the new recliner they put in.  Probably the biggest thing I noticed and they told me when I checked in was that the room itself did not have the plates and stuff in the cabinets but if you need anything to just ask them.   I was staying one night so I didn't get that.  but noticed no fork or cups or anything in the drawers or cabinets and you I did not see the normal shampoo I see at other hotels no dryer.    but they did have soap and plastic cups in the bathroom.   We did shower and take the towels down and they exchanged.   overall I was happy with the room.   I was on the third floor and my window faced sixflags and the highway but didn't have a problem with noise.   Also I was worried about the bed it was clean and pretty comfortable.  Didn't use pool or even see an ice machine so can't comment on that.  I used ice in fridge.    It was close to AT&amp;T and was clean.   The breakfast was some breakfast bars and some muffins.  coffee and hot water for hot chocolate.More</t>
   </si>
   <si>
+    <t>Kgrubbs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r545219928-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -499,6 +538,9 @@
     <t>The hotel had a musty odor throughout. The cabinets looked like they were from the 80s. There were piles of dirt in the corner behind the bathroom door. The faucet had to be manipulated just right to stop running.  The fire alarm battery was chirping in the hallway. The location was excellent. Right next to Six Flags and very convenient to the Rangers and Cowboys stadiums. Needs a huge remodel. More</t>
   </si>
   <si>
+    <t>Justin T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r543855871-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -523,6 +565,9 @@
     <t>Trip to see the cowboys on thanksgiving I also was disappointed you charge $20 per person. A shuttle of some kind would be a nice touch. Even though it’s only a mile or so away it’s to far to walk.    Thanks for the feedbaxkMore</t>
   </si>
   <si>
+    <t>M2829MSjulias</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r543596817-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -547,6 +592,9 @@
     <t>We had 2 rooms, 5 adults, 2 does, and it was home away from home for several days during the thanksgiving holiday.There was plenty of room, we were able to cook a dinner, and the location was great! Next time I will ask for our rooms to be on the same floor though.More</t>
   </si>
   <si>
+    <t>ersmiiley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r533773393-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -574,6 +622,9 @@
     <t>I stayed for over 3 months and housekeeping was supposed to clean my room once a week on Thursday's. The very first week my room went without being cleaned until I called the front desk on Monday and it still took them until Thursday to clean it. A majority of the time my room went over 2 weeks without being cleaned and when it was cleaned they made the bed and left new towels. The room was only cleaned and vacuumed maybe 3 times my entire stay. I talked to front desk on numerous occasions, then and only then did they come and make my bed. With the way the room wasn't vacuumed or toilet not cleaned, I can't even be sure they changed my sheets, rather just made the bed. The staff was courteous, but seemed clueless. Was awoken numerous nights from people partying in the courtyard. After a couple nights of phone calls and complaining did it finally get stopped. I emailed manager about the issues and received nothing in return. I stayed here 2 years ago and it wasn't as bad as this time.More</t>
   </si>
   <si>
+    <t>Mary T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r533638486-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -595,6 +646,9 @@
     <t>Room not ready more than an hour past check in time, staff seemed clueless, no housekeeping after a week, even after reminding me I still didn't get housekeeping, stove veeryyy old and not completely in working order, have to ask at front desk for everything instead of keeping pots, pans, etc in room.  internet connection spotty.  Will not stay here again.  First AND LAST experience with Extended Stay.  Lower cost not worth what you give up.More</t>
   </si>
   <si>
+    <t>cynthiadA1985YQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r530037593-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -622,6 +676,9 @@
     <t>The property was not very well kept. My first impression was "yuck".  We waited 30 minutes at the front desk to check in before anybody appeared.  Getting to our room was like a maze. The hallways were filthy. Our room was just okay. I really expected better after reading reviews. The stove was nasty and the phone in our room didn't work.  Measly toiletries for what we paid.More</t>
   </si>
   <si>
+    <t>gladyss242</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r532509447-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -649,6 +706,9 @@
     <t>The building does look somewhat older but the room was very decent and clean. It is literally across from Six Flags. Check in and check out was very smooth. The staff was very helpful in what I needed. I got a room with a kitchen but there are no dishes in the rom. The dishes must ne asked for at the front desk and they give them to you. I would stay again if I go backMore</t>
   </si>
   <si>
+    <t>SixFlagsTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r510038691-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -673,6 +733,9 @@
     <t>But NO, it was the same as is in my little town; room was smelly, hot because a/c was not properly working, reported to front desk and she went to review, she told me that she will schedule a Maintenance visit for the following morning, well I stayed 4 nights and No body show up neither to ask; and that's including the Housekeeping! More</t>
   </si>
   <si>
+    <t>AJOxley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r509680352-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -697,6 +760,9 @@
     <t>We had room 338 directly in the front of the trash room, the trash was not taken out in a timely manner, every time we open the door it smelled foul, the elevator broke on us for 3 mins, no face towels was ever received from check in to check out because they claimed everyone had stoled before we checked in, the tack strip going into the bathroom is not property installed though is not visible to find, it stuck my foot several times mentioned it and nothing was ever done about it not even a room change stayed there 3 days miserable, HORRIBLE HOTEL EXPERIENCE AND WE WILL NEVER STAY AGAIN!!!More</t>
   </si>
   <si>
+    <t>abstan2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r508570503-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -721,6 +787,9 @@
     <t>Stay was so-so staff was friendly so that made up for quite a bit Main problem was having a toddler and the amount of outside noise we heard through out the night. And we only had 1 room next to ours where we were. For grab and go breakfast staff went out of way to help our little guy find the right muffins . Shower piece was broken . Room was clean and pretty spacious. Did not offer trolly service anymore to baseball game. More</t>
   </si>
   <si>
+    <t>cjw263</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r507286054-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -748,6 +817,9 @@
     <t>This is a budget type of facility, the front desk isn't 24hrs and there won't be anyone providing the replacement of towels or other things that may be needed unless requested upon and reserved. This is more like having your own apartment for a week (or however long your stay) with a kitchen and stove and full refrigerator, with laundry facility on the first floor. This is the type of place you stay in if you don't  mind lower terms of accommodation's.More</t>
   </si>
   <si>
+    <t>Ssatis J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r505682952-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -772,6 +844,9 @@
     <t>Room was not ready even after 5pm had to wait and deal with bad staff attitude complaining to me why I couldn't get in a room because they were short on staff and room was being cleaned. When you book a room the main thing people want is to be able to at least get in and rest. They need more staff... The whole second floor stinks and I think they have interns living there, Feels like a college dorm.More</t>
   </si>
   <si>
+    <t>818brandyf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r501917081-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -796,6 +871,9 @@
     <t>You have to ask for the kitchen items including the coffee pot and you only get them IF they available.  They do not clean the rooms if you stay under a certain amount of days.  Just really not worth the money I spent for 6 days.More</t>
   </si>
   <si>
+    <t>tiffanytX6402TU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r501492848-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -820,6 +898,9 @@
     <t>Really need to work on customer service and communication, letting customers know all of their options.  I was not made  aware that I would have to clean my own room, nor was I made aware that I had the option to include certain necessities such as: dishes, toaster, pots and pans, etc. in my stay.  Customer service was poor and most of the staff was rude.More</t>
   </si>
   <si>
+    <t>dogg10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r500458270-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -847,6 +928,9 @@
     <t>Staff was exceptionally polite and professional. Katlynn the manager was wonderful and her staff should be comended for an outstanding job. I spent six weeks there working and although they had to deal with plenty of prinks from the kids visiting six flags they remained happy and courteous. Hosekeeping has to be commended also, especially Me. Cynthia Scott. That lady cleaned my room after I mention ed to MS. Kathlyn that someone missed my scheduled cleaning day. Not only did Cynthia clean my room she was very helpful in addressing me and my kids on others areas of interest. I truly enjoyed my stay.More</t>
   </si>
   <si>
+    <t>matthewbJ8142YE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r500125386-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -871,6 +955,9 @@
     <t>The entire hotel was filthy. Any time I returned to the hotel, I was greeted with a musty fried chicken &amp; urine smell upon walking through the door. The windows &amp; doors were covered in fingerprints &amp; the elevator &amp; walls were splattered w/ different substances. The floors in the lobby hadn't been swept or mopped in a very long time. The carpet in our room was so dirty that I wouldn't allow my child to take off her shoes in the room. I had to remove the bedding &amp; request new bedding upon check-in because the comforter &amp; sheets were visibly dirty &amp; hadn't been changed prior to our arrival. Being that it's an extended stay hotel, I expected there to be an ice machine on the premises, dishware/silverware in the kitchen, towels, a hair dryer, etc, but all were absent. We requested towels/washcloths 3x &amp; were told there weren't any available to wash "yet" before we finally received some 2 days later. The pool (which was one of the reasons we chose this hotel) was full of dead bugs &amp; cigarette butts, so my daughter wasn't able to swim the entire 5 day stay. We checked in on 7/2/17 &amp; the elevator's inspection card stated that it had expired 6/2/17. The elevator made a loud banging &amp; grinding noise when it was in use, so we took the stairs just to be safe. The faucet in the bathroom...The entire hotel was filthy. Any time I returned to the hotel, I was greeted with a musty fried chicken &amp; urine smell upon walking through the door. The windows &amp; doors were covered in fingerprints &amp; the elevator &amp; walls were splattered w/ different substances. The floors in the lobby hadn't been swept or mopped in a very long time. The carpet in our room was so dirty that I wouldn't allow my child to take off her shoes in the room. I had to remove the bedding &amp; request new bedding upon check-in because the comforter &amp; sheets were visibly dirty &amp; hadn't been changed prior to our arrival. Being that it's an extended stay hotel, I expected there to be an ice machine on the premises, dishware/silverware in the kitchen, towels, a hair dryer, etc, but all were absent. We requested towels/washcloths 3x &amp; were told there weren't any available to wash "yet" before we finally received some 2 days later. The pool (which was one of the reasons we chose this hotel) was full of dead bugs &amp; cigarette butts, so my daughter wasn't able to swim the entire 5 day stay. We checked in on 7/2/17 &amp; the elevator's inspection card stated that it had expired 6/2/17. The elevator made a loud banging &amp; grinding noise when it was in use, so we took the stairs just to be safe. The faucet in the bathroom &amp; in the shower were both broken &amp; didn't work properly. The hotel is a residence for many of the college aged Six Flags workers, so it was very noisy &amp; there were people in the hallways at all times of the day.More</t>
   </si>
   <si>
+    <t>gabhesse4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r499970395-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -886,6 +973,9 @@
     <t>Hotel is outdated but our room was clean and sheets smelled like bleach. Our first night full of adventure as fire alarm pulled in middle of night. There are no cameras in hotel so the person was not able to be identified. Not a lot of parking and be careful were you park because since by highway you could park next to a homeless person sleeping on ground next to trash can. 2 days later we arrived back to hotel to 2 police cars there trying to evict people who keep sneaking back into hotel and back into there room. I see how this is easy due to back doors to hotel you do not havet to use key card to unlock. It's always open and very unsafe. I realized later in week a few rooms down from us someone was shacking up because during day there lock was always blocking door open and they were lurking in hall when ever we were coming and going. It felt like staying at a hostile considering majority of people staying were foreign teenagers working at hurricane harbor and six flags. So very noisy all week and they smoked everywhere and threw butts on ground in hallways and by pool. Never any morning cereal bars, oatmeal etc. not that, that was a big deal for us. No clean wash clothes available when needed used hand towels.  As a mother traveling alone I didn't...Hotel is outdated but our room was clean and sheets smelled like bleach. Our first night full of adventure as fire alarm pulled in middle of night. There are no cameras in hotel so the person was not able to be identified. Not a lot of parking and be careful were you park because since by highway you could park next to a homeless person sleeping on ground next to trash can. 2 days later we arrived back to hotel to 2 police cars there trying to evict people who keep sneaking back into hotel and back into there room. I see how this is easy due to back doors to hotel you do not havet to use key card to unlock. It's always open and very unsafe. I realized later in week a few rooms down from us someone was shacking up because during day there lock was always blocking door open and they were lurking in hall when ever we were coming and going. It felt like staying at a hostile considering majority of people staying were foreign teenagers working at hurricane harbor and six flags. So very noisy all week and they smoked everywhere and threw butts on ground in hallways and by pool. Never any morning cereal bars, oatmeal etc. not that, that was a big deal for us. No clean wash clothes available when needed used hand towels.  As a mother traveling alone I didn't feel safe unless locked in our room. More</t>
   </si>
   <si>
+    <t>rbhall</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r499655176-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -910,6 +1000,9 @@
     <t>Close to everything; However Not family friendly at all. No noise control heard people walkingOn floor above all hours of the night. Carpets were dirty, Stained sink, leaky faucet. Would not stay here again. More</t>
   </si>
   <si>
+    <t>453aleksandart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r497429214-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -934,6 +1027,9 @@
     <t>Everything was very good, only with the changing of the towels and cleaning the room I am not satisfied. Maybe because I was there only one week. Breakfast is very small, but for the price you are paying is not bad. More</t>
   </si>
   <si>
+    <t>506kristic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r496057537-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -958,6 +1054,9 @@
     <t>Overall it was okay..  air doesn't work properly, beds are not comfortable.  Had to ask for towels after the 2nd night and was told they had no more to hand out so we had to wash our own in the laundry facility.  More</t>
   </si>
   <si>
+    <t>173haroldb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r496059505-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -973,6 +1072,9 @@
     <t>Overall it was great it offered the best customer service the breakfast grab and go was pathetic but the cleanliness of the rooms the exceptional staff and large room was great.  The laundry facilities were very good but the exercise room could use weight machines.More</t>
   </si>
   <si>
+    <t>904avar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r495407766-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -997,6 +1099,9 @@
     <t>Good location to six flags and water park. Close to the stadium and ball park. Close to restaurants and shopping. Below average room but if you need space its a good size suite. Two bedroom suite sleeps 6. More</t>
   </si>
   <si>
+    <t>247lizzie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r495299694-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1021,6 +1126,9 @@
     <t>Check in is at 3pm and no room was ready till 5pm. Elevator had us stuck in there for about 2 minutes (hot as you walk in and everyone sweating walking out). Light fixtures not working we had to unplug in order to turn off. Cigarettes buds under beds. Lights in restroom we had to hold our fingers on the light switch in order for them to stay on. Every time we came back to the room the room keys needed to be reset (meaning gng back and forth from the 3rd floor to the lobby) in order to get into our room. Employee (at front desk) wasn't rude to me but was rude to another guest and kept cutting her off as she was speaking. More</t>
   </si>
   <si>
+    <t>I7585SScharlottet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r493434225-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1045,6 +1153,9 @@
     <t>hotel was wonderful my grankids loved the pool close to excellant eating places close to six flags ranger games waterpark we loved it clean room excellant kitchen space we ordered pizza got there in record time  tv was a little snowy but we were to tired to watch much of it great tripMore</t>
   </si>
   <si>
+    <t>170charmainev</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r492085935-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1069,6 +1180,9 @@
     <t>Great location love I didn't have buy dishes but was not told that I didn't have to and no one informed me that you all didn't take prepaid card  that would had been useful information cause I end up using a credit card that I had paid off already More</t>
   </si>
   <si>
+    <t>timbO6837AO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r491728363-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1093,6 +1207,9 @@
     <t>Service was horrible, hotel dirty, nobody is at front desk. Nobody answers the phone when you call. They say breakfast but its really not a breakfast. I would not roccomend to anyone this hotel. Very disapointingMore</t>
   </si>
   <si>
+    <t>kelag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r490922656-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1117,6 +1234,9 @@
     <t>The location was fantastic and front desk staff were very nice, but the conditions were less than standard.  I called the front desk around 5:45pm to ask for more towels and was told that they didn't have any available clean towels and that they were in the dryer.  They were supposed to deliver to my room, but never did.  I called back at 11pm and still was told, there were no clean towels, but the night shift would be coming in to do laundry.  If I hadn't pre-paid through Hotwire.com, I would have gone across the street and stayed at a nicer hotel. It smelled funny and someone needs to take some Murphy's Oil and clean the floor and take some Bleach and sanitize the place.More</t>
   </si>
   <si>
+    <t>mat1984manny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r489815063-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1139,6 +1259,9 @@
   </si>
   <si>
     <t>My experience at extended stay was great the service was great the location was awesome. I was surprised to receive great house keeping and was pleased to have the same one the entire month I stayed she had a great outgoing personality and very helpful Theresa I thank you for making me feel like I was at homeMore</t>
+  </si>
+  <si>
+    <t>rktexas</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r488779653-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -1167,6 +1290,9 @@
 1. I was given a room, where the bed was infested w/bed bugs. I had never experienced in my life and suffered for a few weeks, after bringing it to the attention of the manager and front desk. Nothing was done, until I had literally bed bugs crawling all over and they come and checked it out,...I moved to Texas and was looking for a safe, clean, quiet place to stay before I find an apt. to lease and decided to stay at this Extended Stay near Six Flags. I have stayed at several Extended Stays in different states and must say that I was extremely disappointed by many things at this particular location. I am not one to whine and complain about little things but the front desk is rude, unpleasant to deal with, dishonest, not there to assist you when you need them. It all starts w/the management of this place. It is a sad reflection of the times we live in, as good, ethical, customer service oriented, trustworthy individuals are becoming harder to find. The corporate office needs to change the management first and foremost. How a place is run or operated starts w/the management. And I would give them a D grade. This place will only get worse if the corporate does not bring in new management. Is it any wonder why there is such a high employee turnover rate at this particular Extended Stay. 1. I was given a room, where the bed was infested w/bed bugs. I had never experienced in my life and suffered for a few weeks, after bringing it to the attention of the manager and front desk. Nothing was done, until I had literally bed bugs crawling all over and they come and checked it out, with a torch and said I needed to move asap. This should have been done right away, when I informed them. 2. The high turnover rate means that no one wants to stay, once they are hired and find out how bad it is working there. Bring is pleasant new employees, who are eager and ready to assist guest, who pay for their salaries. Pay the employees well, so that they are fairly compensated and stay long. Some employees have been rude, disrespectful, downright bad attitudes, and unhelpful, which is unacceptable to a guest who has paid to stay there. 3. The place is right next to a new freeway being built as we speak and the noise is too loud, the dust and dirt is all over our cars parked each day, and there are construction crews staying there, so they leave very early and come back in the evening, with dirty shoes and mud and dirt, all over the hallway carpets, trash in the stairways and elevators. It needs to be vacuumed, cleaned, mopped each day, so the place looks presentable. They are short on employees and cut corners which only makes the place look dilapidated. 4. The lack of security or closed circuit TV in all areas, which makes it an easy target for thieves...More</t>
   </si>
   <si>
+    <t>Daniel B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r485602753-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1191,6 +1317,9 @@
     <t>The room is nice and everything works.I didn't like they didn't clean the room in between my 2 nights there, not that it was needed, but I was not expecting that. I always do my bed at home, it is weird to go to a hotel and find your bed the way you left in the morning. They should have told they have a fee to clean the bedroom, or that they just clean once a week, as I was told later in the reception when I was asking about that.The breakfast has oatmeal, granola bars, muffins and coffee/hot water. Just that.More</t>
   </si>
   <si>
+    <t>jcoats11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r478646692-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1218,6 +1347,9 @@
     <t>Deadbolt lock looked freshly soldered off or door busted in. Door didn't shut all of the way. Strong smoke, pet and pee odors in the hallways, stairwells and the elevator. Pretty much everywhere. Furniture, kitchen and bathroom, pretty much everything in the room looks like it was made in the 60s. All old and gross. Sketchy people in and out of the hotel all of the time and hanging out in the parking lot. Never felt safe. Wanted to leave but it was the only place in town available last minute.We told the front desk about the issue and all they did was give me a receipt showing the $100 that was put back on my card which we got back anyway at check out. I was furious but wanted to get the heck out of dodge, felt uncomfortable in the lobby, so we figured we deal with it later. Breakfast is a granola bar and coffee that was empty and hot water for tea. Joke. $150 bucks for a room at this hotel is a rip off. I would rather have slept in my car.More</t>
   </si>
   <si>
+    <t>Robert Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r464423035-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1245,6 +1377,9 @@
     <t>Noisy hotel. Lot of people in and out at all hours of the night. No front desk person so no monitoring of who came me went. Never felt safe as there always was someone loitering outside at night. Lot of broken fixtures and switches in the room. More</t>
   </si>
   <si>
+    <t>Audriana K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r458997046-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1407,9 @@
     <t>I stayed here for three nights while in Arlington. There were creepy people hanging out in the parking lot, a man even approached me walking to my car alone after checking in, and there was a strong smell of smoke in the lobby and room. I didn't really move around in the room much after seeing a rat trap, because of my fear of rats but I wasn't there most of the day so it didn't both me much. The Police were also there one night after I got off work, but what really made my experience bad was the hair and used towel that was I found in the tub. Ruined my whole stay. More</t>
   </si>
   <si>
+    <t>Dianne K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r458950429-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1293,6 +1431,9 @@
     <t>I stay in many hotels for business and this one is a work in progress. They are in the process of upgrading and fixing this place up. The staff here is very friendly and will help with whatever you need to make your stay more comfortable. Salaia (sorry if I spelled it wrong) is the asst manager and she is the bomb!!! There are some little problems with our room but they are doing their best to fix what they can. The maintenance man is very nice but I think has a bit too much to do for one person. I would recommend this place and would definitely stay here again. More</t>
   </si>
   <si>
+    <t>cruhl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r446261194-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1320,6 +1461,9 @@
     <t>Absolutely the worst hotel I have ever stayed in. It took the housekeeping staff forever to clean my room. We had to call the front desk about it and speak  to the manager about it who did nothing. I even called the corporate office to get involved. I stayed at the hotel for 85 nights and not once were my shower walls ever cleaned. When my toilet was clogged they promised to send someone to fix it but never did. I had to go to the front desk and get a plunger myself. Ridiculous!  Some mornings the to go food was not out in time because they claimed they didn't get deliveries in time. The staff changed so many times and for a long time there was no manager on site. I do not know how they stay in business. No hotel chain should ever treat their guests this way. They also messed up the billing so many times. Do yourself a big favor and stay somewhere else.More</t>
   </si>
   <si>
+    <t>lisagage02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r443628288-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1488,9 @@
     <t>I've been at this location for over 5 months so I have seen staff  come and go, but  through it all I can always depend  on Yvette, she is truly the best housekeeper. Many of tims coming in after a hard day at works and running into Yvette  I am truly guaranteed a good laugh before retiring for the day even though I know she has been working from sun up to sundown she never seems to complain.More</t>
   </si>
   <si>
+    <t>Don G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r432388206-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1368,6 +1515,9 @@
     <t>I want to give a special thanks to front desk receptionist Karen and housekeeper Yvette for making my stay here feel very special and wanted to let them know that their hard work doesn't go unnoticed and will definitely be visiting again. More</t>
   </si>
   <si>
+    <t>jsneed71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r431506486-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1392,6 +1542,9 @@
     <t>I was extremely dissappointed in my stay in fact i was so dissappointed that it ruined the whole weekend trip.i had intended on staying another nite untill i got into my room. First of all every other extended stay i have been at( which is a lot since i traveled extensively for my previous job) they have already had dishes,utensils, ETC. In kitchenette without requesting them and no one ever suggested that fact to me. Also one of the main reasons i chose this location was because the breakfast was supposed to be continental but instead was "grab-n-go" which is only muffins and granola bars....... Not breakfast to me lol. One coffee pot was empty and second was almost empty also the coffee that was in it was cold, No coffee creamer. Over all i was just not happy at all with this location and will not stay or recommend it to anyone in the future unless changes are made.More</t>
   </si>
   <si>
+    <t>Kandyrce W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r425884746-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1416,6 +1569,9 @@
     <t>First, let me start by saying the room was nice to began with until we had to plunge the toilet every time we used it. Nothing was done,  but given a plunger. Secondly,  for a no smoking hotel the entire second floor smelled like weed. Thirdly,  tons of guys hanging around out front smoking and very loud music.  No maid service EVER.  And finally, the staff except for Julie and the guy who works at night were the rudest I have ever come upon especially Karen and the day front desk personnel , when you can ever find them at the front desk and not in the back chatting it up,  you can hear them.  Guests never should have to yell to get your attention. Very snobby for a two star hotel. Poor,  poor customer service, example, my husband left his wallet in the room but they needed to see id to give him the key,  which that was OK,  but his wallet was in the room.  He told them where it was and asked if they could go get it to show them id. The mgr  refused and my family had to sit in the hallway for almost an hour until I got there.  Not a place to stay if you have kids and the kids might make noise.  God forbid if you ask for something ei plates,  wash cloths, blankets they're. Okay place,  horrible staff.More</t>
   </si>
   <si>
+    <t>rbackfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r425402982-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1443,6 +1599,9 @@
     <t>this place was booked for me by priceline express deals. I will tell you that if priceline chooses this motel for you that you can expect a (one)very small bed, so if you have additional people in your party be prepared to bring your air mattress along (which we always do anyway). The rooms were clean enough I guess. I think it is pretty dumb to have a kitchen in a room and you do not have a single pot, pan, dish or eating utensil, so there is that. The parking is terrible if the motel is full and we stayed for 2 nights and when we went out during the day after the first nights stay, when we got back to the motel our key did not work to even get back in the motel, we had to walk all the way around to the front door where the lobby was at. They did take care of it in a very professional manner.  we was there for the Arkansas/texas a&amp;m game and they did provide shuttle service to the tune of 20.00 per person. I would suggest going to parking whiz and get parking...much cheaper...I got parking 1/2 mile from stadium for 23.00. I would only stay here again if hotwire or priceline picked this place for me, if I had to pick it I would probably stay somewhere else.More</t>
   </si>
   <si>
+    <t>james s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r422532096-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1467,6 +1626,9 @@
     <t>Was Greeted By Porsche and Yevette upon my arrivel with A warm welcome and was plesantly suprised with A good clean room.Is right across interstate frpm 6 flags enjoyed watching the rides i the afternoon also A nice shaded pool area to kick back and relax.Laundry has good machines  clothes compleatly dry on first round.Internet was good TV not bad. I was here for A week and can't express how much I enjoyed the Greetings from Yvette Porsche and Jasmine all treated me as I WAS PART OF THE FAMILY    THANKS GUYSMore</t>
   </si>
   <si>
+    <t>Kathryn A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r421627811-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1491,6 +1653,9 @@
     <t>This place I guess is for long term people essentially to live here. There is no clear signage inside so you can figure out where lobby or even elevators are until you are right next to it. The so called breakfast is muffins and granola bars....and wow coffee...are u kidding me. The whole front desk check in took forever and I booked it online. The bedding is so thin...tissue in bathroom looks like cardboard. Literally the tiniest shampoo I have ever seen in a hotel...and I travel alot. Rooms are nicely painted. I got a room with 2 beds and essentially the other bed is in another room with a door that closes so it was good for my teenage son to have some privacy and his own tv. I come to this area every couple of months to go to Six Flags and I will never choose this place again. More</t>
   </si>
   <si>
+    <t>mvm2812</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r419477790-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1515,6 +1680,9 @@
     <t>Horrible front desk and management! make you feel like crap if you didn't book directly from their web-site or expedia (their exact words!). Wouldn't grant your bed request without 3rd party booking company calling them even after confirming they have availability! No coffee maker, not a single ceramic cup or a plate or a single pair of utensils in a room with a kitchenette, full stove, fridge and a microwave, not even mentioning a single pot or a skillet (not like in other extended stay hotels I stayed in the past).  How are people supposed to cook in an extended stay hotel which is charging you almost $100 per night?! Aside from a moldy smell in a room and noise from the highway I-30 if your room is facing it, there are so negative things about this place. AND they'll charge your credit/debit card right away with $100 deposit ("for possible damages"), which you can expect to receive back in about 3 business days! And their "free breakfast" is just a joke with only coffee and packets of oatmeal, which you are possibly supposed to eat from a coffee cup with no hot water available! The only 2 good things are a location (6 flags, which didn't matter to me) and a clean room we stayed at.More</t>
   </si>
   <si>
+    <t>Jenny W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r417481041-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1539,6 +1707,9 @@
     <t>Booked online. Their prices had been bumped up because of the Cowboys game at the stadium. Checked in and only then did the front desk inform us there would be no housekeeping during our stay!  If we had cancelled it would have cost us!! No tea or coffee making facilities in our room or anywhere else. Breakfast was tea, coffee and granola bars! Air con was noisy. Gave keys to woman at reception on the way out and she didn't even raise her head when I spoke to her. So disappointed as we have stayed at 2 star hotels on our travels with absolutely no complaints. Overstated and under deliveredMore</t>
   </si>
   <si>
+    <t>Dale2Lisa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r416953018-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1563,6 +1734,9 @@
     <t>We were a bit hesitant to book here due to very mixed reviews. However, we decided to give it a try. Overall, we have been happy with our stay.Our room is very spacious and clean. We have stayed at other Extended stay America's, and this is the biggest room we have had. The room exceeded our expectations.I read multiple reviews where people mentioned smoke filled hallways. We didn't smell smoke in the hallways, however I will say there is an odd smell in the hallways. I have a strong sense of smell and it did come off as strong to me. That smell was not in our room at all though.We were happy with our stay and loved how close the hotel is to several restaurants, six flags, and the Cowboys stadium. We would stay here again!More</t>
   </si>
   <si>
+    <t>Ronald W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r410060248-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1587,6 +1761,9 @@
     <t>The employees are very helpful and prompt. Angela Malaney, General Manager, is very professional at all times. You could find her cleaning and taking of guest just like her staff. She don't mind getting hands dirty along with her employees.More</t>
   </si>
   <si>
+    <t>Mo C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r408278531-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1611,6 +1788,9 @@
     <t>Front desk personnel were very helpful. Initially had an issue with our room upon check in. Laurie called the room and asked if everything was ok I explained my issue,  soon after our room was changed. Porshe was also very helpful and very nice. As for housekeeping: YVETTE, my friends was the bomb diggity!  She was absolutely the best housekeeper I've had in a long time!  She is super sweet and a bundle of laughs!  Looking forward to seeing y'all again soon!The stadium is right there, Six Flags over Texas is directly across the road!More</t>
   </si>
   <si>
+    <t>Jon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r405927891-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1635,6 +1815,9 @@
     <t>Great service and some of the best accommodations in the area. Coming back next month again for business and have already booked here.Angie made my visit the best.She really knows her job and the area.More</t>
   </si>
   <si>
+    <t>Ndubuisi A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r405513645-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1656,6 +1839,9 @@
     <t>I have to say that I usually don't do these reviews, but in this case I felt I Needed to.I stayed in the Extended stay America, in Arlington next to six flags, and they said it had been renovated, which from what I could see, was a new coat of paint, and bath tubs, and maybe carper replied in the rooms, but the smell in the hallways was awful. But what pushed me over the edge was seeing two Cockroaches in the rooms. I think they know they have a cockroach problem because I saw bait traps under the sink. More</t>
   </si>
   <si>
+    <t>Jasmine J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r403285082-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1680,6 +1866,9 @@
     <t>This was my first time staying at an extended stay hotel. The rooms were very nice. They were very clean. The lady at the front desk I think her name is ms. Karen she was super friendly and helpful. I. Will definitely go back. And recommend everyone to stay at extended stayMore</t>
   </si>
   <si>
+    <t>Brittany N Keyo... J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r401806624-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1704,6 +1893,9 @@
     <t>We live almost 2 hours from Hurricane Harbor &amp; for our children to fully enjoy a full day we wanted to drive up the day before &amp; let the the kids get a full night of sleep so they could get a full day of fun. We booked the room on Priceline just because it is easy for us. We got to the hotel and checked in with Porsche. As soon as we walked through the door she was all smiles and willing and ready to help. We ended up booking the wrong room on Priceline and was concerned because the room only had one bed. We expressed our concerns and immediately she tried to see if there was a room with two beds available. There was not, but she quickly said that the hotel has rollaway beds that she could get up to the room. We were so relieved and excited because we thought it was going to be one rough night. We went to the car to get our things and when we got to the room the rollaway bed was already in the room. The customer service she offered us was so refreshing. When we got in the room it was so nice and clean. We slept so good and the kids had such an awesome time at hurricane harbor the next day. We will definitely be staying at this hotel again and we hope that we...We live almost 2 hours from Hurricane Harbor &amp; for our children to fully enjoy a full day we wanted to drive up the day before &amp; let the the kids get a full night of sleep so they could get a full day of fun. We booked the room on Priceline just because it is easy for us. We got to the hotel and checked in with Porsche. As soon as we walked through the door she was all smiles and willing and ready to help. We ended up booking the wrong room on Priceline and was concerned because the room only had one bed. We expressed our concerns and immediately she tried to see if there was a room with two beds available. There was not, but she quickly said that the hotel has rollaway beds that she could get up to the room. We were so relieved and excited because we thought it was going to be one rough night. We went to the car to get our things and when we got to the room the rollaway bed was already in the room. The customer service she offered us was so refreshing. When we got in the room it was so nice and clean. We slept so good and the kids had such an awesome time at hurricane harbor the next day. We will definitely be staying at this hotel again and we hope that we can continue receiving great customer like the customer service we received from Porsche. More</t>
   </si>
   <si>
+    <t>Dustin L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r400218771-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1728,6 +1920,9 @@
     <t>Standard Stay America overall great stay and experience. Staff was friendly and helpful rooms were clean spacious stayed here for several days with not a single issue I would definitely come back here again.                More</t>
   </si>
   <si>
+    <t>Alyssa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r398790849-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1752,6 +1947,9 @@
     <t>Just wanted say that the customer service displayed during my stay here was EXCELLENT. Karen was just awesome to my fiancé and I. She went above and beyond our expectations. We really appreciated her. Thank you for everything! I will be back again soon!More</t>
   </si>
   <si>
+    <t>Lisa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r398177636-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1779,6 +1977,9 @@
     <t>Had a wonderful stay at this hotel.. Rooms were clean and modern.. Enjoyed the pool area..  Staff was professional and friendly.. Karen was very helpful and nice.. Good service We will definitely come again.. More</t>
   </si>
   <si>
+    <t>Phaedra H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r390844678-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1803,6 +2004,9 @@
     <t>Myself and my family just returned from a two night stay at Extended Stay America Six Flags. The staff was very nice. Everyone we encountered was accommodating. However the hotel itself is HORRIBLE. The entire building has a very offensive odor. It's a moldy, sour smell. Maybe they need new carpet. There were wasps inside our room. My husband killed 3. The air conditioner was leaking on the floor and the cover to the unit had been removed and left off when we arrived in the room. There were dirty towels in the bathroom. And lastly my kids saw a roach in the living area. Husband killed that too. Like I said the staff was accommodating and gave us a discount for all the troubles. But we will never return and I'd advise others to think twice before booking this one.More</t>
   </si>
   <si>
+    <t>mambr0se</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r389719548-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1827,6 +2031,9 @@
     <t>The room was filthy and had a horrible odor!!! Staff were less than friendly! Rooms were not ready at the check in time!! This was my first and last time to stay at the hotel chain!! The trash cans in the trash room were overflowing and there was trash all over the floor!!! I would never recommend this hotel to anyone!!!More</t>
   </si>
   <si>
+    <t>Steve M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r385937822-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1854,6 +2061,9 @@
     <t>The hotel was old and out dated,the room smelled,broken furniture. The pet deposit was outrageous 25 dollers a day plus tax, staff at hotel were rude. Had to wait 45 minutes to get checked into my room and it was after 3pm because the room was not ready as promised. I will never stay at this hotel chain ever again and would not recommend it to anyone.More</t>
   </si>
   <si>
+    <t>tle05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r382482127-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1881,6 +2091,9 @@
     <t>The check in process was really slow.  They make you leave a $100 deposit and a copy of your driver license.  Also the rate they were going to charge me was higher than my reservation confirmation.  I book directly through Extended Stay. You think the rate would be correct.  The lady at the front desk changed it right away.  She was sweet.  The hotel looked a little run down but I was impressed with our room.  It was really big and look like it had been updated.  It was clean when we arrived.  The breakfast was lacking.  We went to get something to eat and there were a few apples and a few granola bars and some coffee.  We were a little disappointed.  Overall it was a good place to stay.More</t>
   </si>
   <si>
+    <t>Darryl O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r361464251-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1906,6 +2119,9 @@
   </si>
   <si>
     <t>We stayed here April 1st to April 4th 2016 for the wrestlemania weekend. What a great clean and friendly place. The staff were very helpful. I would recommend to anybody looking for a affordable and comtable stay.More</t>
+  </si>
+  <si>
+    <t>Angela C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r360794876-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -1930,6 +2146,9 @@
 "smoke free," all I could smell was smoke. The check-in process was the SLOWEST I have ever gone through. They charged a $100 deposit. When I pointed out that there posted sign stated that only 3rd party reservations were supposed to be charged the deposit, I was prissily told that "oh, we have to charge Everybody." The deposit is refunded back to you in 3-5 days. They also asked for a copy of my driver's license which I have never had to provide for any other hotel. So we get through the check in process, we get to the room. The room had not been cleaned, the bed was unmade, there was a mess in the kitchen and a mess in the bathroom. I called down and they told me "well the records say that it was cleaned...My family and I needed to be in Arlington Apr 1st to 3rd for a tournament at the Arlington Convention Center. We normally stay at Candlewood Suites as we like to be able to cook instead of eating out the entire weekend. The Candlewood was fully booked. I looked around for other hotels with similar set ups. I ran across Extended Stay America. While older reviews were not encouraging I was lulled by their website stating that the hotel had been completely renovated. Maybe 20 years ago. The hotel was spackle central and despite  all the signs stating that the hotel was "smoke free," all I could smell was smoke. The check-in process was the SLOWEST I have ever gone through. They charged a $100 deposit. When I pointed out that there posted sign stated that only 3rd party reservations were supposed to be charged the deposit, I was prissily told that "oh, we have to charge Everybody." The deposit is refunded back to you in 3-5 days. They also asked for a copy of my driver's license which I have never had to provide for any other hotel. So we get through the check in process, we get to the room. The room had not been cleaned, the bed was unmade, there was a mess in the kitchen and a mess in the bathroom. I called down and they told me "well the records say that it was cleaned and housekeeping is gone".  They offered to see if there was another room but they were completly booked, for which I am supremely grateful.  What really ticked me off was there were no offers of either comping the room or lowering our room rate. Now Extended Stay says they have fully stocked rooms.  There was NOTHING, if I wanted a plate or utencils or anything I would have to traipse down to the first floor and pick up everything I would need.  That is absolutely ridiculous. To top everything else off, while the quoted rate for my reservation was somewhat high, the actual rate I was supposed to pay UP FRONT was ridiculously high. The check out process was long and filled with attitude. I made a request to have my copy of my driver's license given back to me, the front desk lady called her manager, complained in front of me and then grudgingly gave me back my copy. I am so happy that I was able to find another room at half of what I was being charged, in a hotel that is three times nicer than the Extended Stay. My children cheered when we left. I want to give a shout out to the front desk of the Candlewood Suites. When I called Candlewood hoping that they'd had a cancellation...More</t>
   </si>
   <si>
+    <t>Detra V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r355744141-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1948,6 +2167,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r351401394-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1975,6 +2197,9 @@
     <t>Worst hotel, I have ever stayed at. The first night a dog barked for hours, in the room next to mine. I had to call security to get it to stop.I found a wallet the next morning in the parking lot and turned it in to the front desk. The person there acted like it was an inconvenience to try to call the owner of it. At this point , I doubt they made any effort to return it, to the owner.  The following evening,  came back to keys unprogrammed. It took 3 times for them to get the programming right. The staff at the counter was nasty. I ask for the manager and was told there wasn't one. If I wanted to speak to ome, I should call the general number for the hotel chain. They refuse to answer the phone at the front desk. The rooms are supposed to have dishes and utensils,  mine doesn't. The shampoo bottle was empty, that they supplied. The floors are sticky. I have spoke to several others here and there experience isn't any better. More</t>
   </si>
   <si>
+    <t>superpero</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r350388632-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1993,6 +2218,9 @@
     <t>I chose this hotel because they have kitchenettes in every room.  After checking in, I was extremely satisfied with the room.  Wood floors, a sofa bed, and a full size refrigerator.  I then discovered the remote control didn't work.  I called the front desk and the Clerk said they would bring me new batteries. Nobody showed up so I walked to the lobby for the batteries.  It took 3 trips to get a working remote. I then was told there were no dishes, pots or silverware to use.  I was forced to eat out every meal.  The Clerk refused to let me speak to a Manager.  On the 2nd day, a Supervisor called me but there were no remedies to solve any problems.  The room and location were nice but  it didn't seem to be a friendly place to me.More</t>
   </si>
   <si>
+    <t>Jeff M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r344867722-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2006,6 +2234,9 @@
   </si>
   <si>
     <t>Find someplace else. Smoke stench throughout the hotel.  Many seem to be living there full time.  Dirty rooms, rude front desk.  I stayed for three hours and checked out. Took me two days to get my money back. Had to call corporate office.</t>
+  </si>
+  <si>
+    <t>NNWhite</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r328204962-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -2043,6 +2274,9 @@
 Then an access card was given to a unknown man, that opened the door to our room. The room which is supposed to be non smoking was covered in smoke aroma. This place was infested with roaches and cockroaches. The bed linen had hair all over it. The bulbs were out in the lamps, and the microwave didn't work. Notified the front desk about the bulbs needing replaced...they stated they would bring us some. Glad we didn't hold our breath. So I went to the front desk to get the status on the bulbs and was given light bulbs so I can replace them myself. Was told maintenance would stop by to see what was wrong with the microwave. Again glad we...Please avoid this place if you can. We had to stay for an extended time unfortunately. From the time we checked in we had problems. When I made the reservation I added my husband's name. He was still given a hard time at check-in because they said he wasn't on the reservation. Our room wasn't what was originally requested in the reservation. I Complained to the manager about my room being incorrect. She did nothing to accommodate us, (we were told they were booked up for the night) but when I showed them a picture of the big glob of hair I found in the bed.....we were moved to the room I originally requested all of a sudden. Then an access card was given to a unknown man, that opened the door to our room. The room which is supposed to be non smoking was covered in smoke aroma. This place was infested with roaches and cockroaches. The bed linen had hair all over it. The bulbs were out in the lamps, and the microwave didn't work. Notified the front desk about the bulbs needing replaced...they stated they would bring us some. Glad we didn't hold our breath. So I went to the front desk to get the status on the bulbs and was given light bulbs so I can replace them myself. Was told maintenance would stop by to see what was wrong with the microwave. Again glad we didn't hold our breath because they did nothing about the microwave. The rooms, hallway, and the elevator was covered in filth all the time. Trash juice was always in the elevator. When asked for a stopper for the kitchen sink, we were given a rusty used stopper. So we went and purchased our own from Walmart. We also used our own personal  microwave since no one never fixed the one in the room. Now this tops it, we decided to wash the linen, and spray behind the bed for bugs and found a window screen under our mattress. No words!!The staff are very unprofessional and especially Tammy. She is rude and she doesn't know how to handle customers. She was sent to clean house...because the property was definitely not ran right. But she was making customers pay for management mistakes. Other staff will tell you what you owe, believing they know their job; you pay what they tell you, but Tammy comes along to inform you that you are in violation of their payment policy and will need to pay an additional, different amount or get out.I've been trying to contact corporate for a week now, because  they didn't honor their so called perks  they offer 'stay more save more discount'.  When we...More</t>
   </si>
   <si>
+    <t>Doug S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r320805380-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2061,6 +2295,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Shane P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r320465165-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2076,6 +2313,9 @@
     <t>Very friendly people, kept my room clean and accommodated my needs.  Lacking in minor amenities such as Ice and Vending options.  Coffee is about 50/50 if it will be out and not a set time it to be there.  Breakfast could be expanded a little as far as choices.  Great location as it is close to Six Flags, Hurricane Harbor and Ballpark.  Good Restaurant choices.  I would say that the staff more than makes up for the short comings. (Yvette)</t>
   </si>
   <si>
+    <t>KevMelC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r311275044-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2097,6 +2337,9 @@
     <t>I would not recommend this hotel unless you are in an absolute pinch and have nowhere else to stay.  The entire place felt old and dirty and smelled of old cigarette smoke and body odor.  We found an old condom wrapper under the pull out couch and expired medication from 2013 under the bathroom sink (with a dead roach).  Also, there were no sheets to use for the pull out couch.  Their breakfast is literally grab and go.  Just muffins, granola bars, apples and coffee.  The only vending machines they have only sell ice cream.  There is no way to get cold water and there is no ice machine.  They do not provide hand soap or conditioner for your hair either.   My advice is to spend a little more and stay somewhere else....anywhere else!More</t>
   </si>
   <si>
+    <t>Kaser46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r301512778-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2121,6 +2364,9 @@
     <t>I think the management was changed and it is very clear the new boss is doing his best. he is very supportive and get to detail,the first room in first floor was not good  and I don't feel safe (the area is safe but thats' me feel any one can jump and broke my window)  so I change it 3rd floor.More</t>
   </si>
   <si>
+    <t>AudraCraver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r301320554-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2143,6 +2389,9 @@
   </si>
   <si>
     <t>I stayed in 2 different rooms(201 and 301) same trip. Both of the bathrooms had ants everywhere. The showers do NOT get very warm at all. The hedd were the same as any other hotel bed. Doors squeaked really load and it was annoying. So really just isn't a great hotel experience.. More</t>
+  </si>
+  <si>
+    <t>ploughman8</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r279180495-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -2170,6 +2419,9 @@
 You find out about byzantine processes that are long overdue for overhaul in times like those. Reminds me of Kohl's...they keep loading up the checkout process with superficial steps like extra greetings, wanting to get your e-mail address, coupons every way to Sunday (in violation of the KISS Principle - people will always think they missed one more discount they could have stacked!), plugging the store credit card over the bank ones, and on and on. Not such a big deal in summer when there's rarely a line, but a real long-line culprit come Black Friday, as the needlessly long transactions pile on top of each other, lines take forever and the greater number of variables increases possibilities os mistakes/disputes, adding even...Unlike some of the previous posters who paid top dollar, I was able to score a really good rate via a "blind" (bid) site by booking far in advance as soon as I got tickets for the Rolling Stones concert at AT&amp;T Stadium. I have also stayed in something like 30-40 ESAs across the country, so I'm very familiar with them.That said, they still managed to turn silver into rusty stainless steel on this one. I tried checking in at 3:15 p.m. on Saturday, and there was a line to do it. They had only one person to handle it, and she had roughly journeyman skills/intelligence (not a newbie, but not sharpest knife in the drawer, either).You find out about byzantine processes that are long overdue for overhaul in times like those. Reminds me of Kohl's...they keep loading up the checkout process with superficial steps like extra greetings, wanting to get your e-mail address, coupons every way to Sunday (in violation of the KISS Principle - people will always think they missed one more discount they could have stacked!), plugging the store credit card over the bank ones, and on and on. Not such a big deal in summer when there's rarely a line, but a real long-line culprit come Black Friday, as the needlessly long transactions pile on top of each other, lines take forever and the greater number of variables increases possibilities os mistakes/disputes, adding even more time to the disaster.And that's what happened here. I had only four people ahead of me, but two had transactions with problems (i.e. guy said he reserved 2 rooms and computer was only showing 1). Even without irregularities the process was cumbersome - collecting and keying data, making driver's license copies, and then doing a big verbal info dump on an easily confused customer even though you're handing him an accordion brochure with the same info.Of course people were getting in the line behind me and fuming at how slowly it was moving. They might have to wait even longer than the 35 minutes I did. It was the longest I've ever had to wait to check in at an ESA and I hope that management will agree that customers should NEVER have to wait that long (otherwise they're not setting high enough standards for themselves). Compared to that, Motel 6 is a model of efficiency. And I'm sure the situation (lots of people checking in after 3 on Friday or Saturday or any day of an event) is not unusual for a location like that. They need to be better prepared.The room was about what you usually get...More</t>
   </si>
   <si>
+    <t>Traci M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r273649572-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2189,6 +2441,9 @@
   </si>
   <si>
     <t>Room was ok but seemed old and musty. We were on the 3rd floor and heard every sound from anywhere outside to the next room. People taking in the parking lot sounded like they were right at the window. Air wouldn't stay on, it would come on for 5 mins then off for 5 mins. Never really got cool on the room so we couldn't really fall asleep and get a good night rest. We stayed here after a concert and this was the only thing really left close to where we're going. Seems they raised the prices as well for the night we stayed since there was a game and a concert the same night. Would not pay $120 a night for this hotel again. Would expect more from a hotel for this price.More</t>
+  </si>
+  <si>
+    <t>Jessica H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r272771467-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -2711,43 +2966,47 @@
       <c r="A2" t="n">
         <v>33927</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>135975</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2769,56 +3028,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33927</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>135976</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -2840,56 +3103,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33927</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>135977</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2911,56 +3178,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33927</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>135978</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2982,56 +3253,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33927</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>135979</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3053,56 +3328,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33927</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>135980</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -3124,56 +3403,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33927</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>135981</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3195,56 +3478,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33927</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>11155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3266,56 +3553,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33927</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>135982</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -3337,56 +3628,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33927</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>135983</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3408,56 +3703,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33927</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>135984</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3469,56 +3768,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33927</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>135985</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3534,56 +3837,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33927</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>135986</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -3605,56 +3912,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33927</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>33223</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -3676,56 +3987,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="X15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33927</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>135987</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3747,56 +4062,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33927</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>135988</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3812,56 +4131,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33927</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>34943</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -3883,56 +4206,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33927</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>135989</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -3954,56 +4281,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33927</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>135990</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4025,56 +4356,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="X20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33927</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>135991</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -4096,56 +4431,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="X21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="Y21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33927</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>135992</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -4167,56 +4506,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="X22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33927</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>135993</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="K23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -4238,56 +4581,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="X23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="Y23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33927</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>135994</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="J24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="K24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -4309,56 +4656,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="X24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33927</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>135995</v>
+      </c>
+      <c r="C25" t="s">
+        <v>263</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -4380,56 +4731,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="X25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="Y25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33927</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>135996</v>
+      </c>
+      <c r="C26" t="s">
+        <v>272</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -4451,56 +4806,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="X26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="Y26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33927</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>135997</v>
+      </c>
+      <c r="C27" t="s">
+        <v>281</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O27" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -4522,56 +4881,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="X27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Y27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33927</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>135998</v>
+      </c>
+      <c r="C28" t="s">
+        <v>290</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="J28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4583,56 +4946,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="X28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="Y28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33927</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>135999</v>
+      </c>
+      <c r="C29" t="s">
+        <v>300</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="J29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="L29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -4654,56 +5021,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="X29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="Y29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33927</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>309</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4725,56 +5096,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="X30" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="Y30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33927</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>315</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4786,56 +5161,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="X31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33927</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136002</v>
+      </c>
+      <c r="C32" t="s">
+        <v>324</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O32" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4857,56 +5236,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="X32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="Y32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33927</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136003</v>
+      </c>
+      <c r="C33" t="s">
+        <v>333</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="J33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="L33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4928,56 +5311,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="X33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="Y33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33927</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136004</v>
+      </c>
+      <c r="C34" t="s">
+        <v>342</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="J34" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O34" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4999,56 +5386,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="X34" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="Y34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33927</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136005</v>
+      </c>
+      <c r="C35" t="s">
+        <v>348</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="J35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="K35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="L35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O35" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -5070,56 +5461,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="X35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="Y35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33927</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136006</v>
+      </c>
+      <c r="C36" t="s">
+        <v>357</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="J36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="K36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="L36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -5141,56 +5536,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="X36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="Y36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33927</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136007</v>
+      </c>
+      <c r="C37" t="s">
+        <v>366</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="J37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="K37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="L37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -5212,56 +5611,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="X37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="Y37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33927</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136008</v>
+      </c>
+      <c r="C38" t="s">
+        <v>375</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="J38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="K38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="L38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -5283,56 +5686,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="X38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="Y38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33927</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136009</v>
+      </c>
+      <c r="C39" t="s">
+        <v>384</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="K39" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="L39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -5354,56 +5761,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="X39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="Y39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33927</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136010</v>
+      </c>
+      <c r="C40" t="s">
+        <v>393</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="J40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="K40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="L40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5419,56 +5830,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="X40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="Y40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33927</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>136011</v>
+      </c>
+      <c r="C41" t="s">
+        <v>402</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="J41" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="K41" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="O41" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5486,56 +5901,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="X41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="Y41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33927</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>136012</v>
+      </c>
+      <c r="C42" t="s">
+        <v>411</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="J42" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="K42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="L42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="O42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5551,56 +5970,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="X42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="Y42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33927</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>12473</v>
+      </c>
+      <c r="C43" t="s">
+        <v>420</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="J43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="K43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="L43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="O43" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5618,56 +6041,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="X43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="Y43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33927</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>136013</v>
+      </c>
+      <c r="C44" t="s">
+        <v>429</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="J44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="K44" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="L44" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -5685,56 +6112,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="X44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="Y44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33927</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>42054</v>
+      </c>
+      <c r="C45" t="s">
+        <v>439</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="J45" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="K45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="L45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="O45" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5746,56 +6177,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="X45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="Y45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33927</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>136014</v>
+      </c>
+      <c r="C46" t="s">
+        <v>449</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="J46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="K46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="L46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="O46" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5807,56 +6242,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="X46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="Y46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33927</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C47" t="s">
+        <v>459</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="J47" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="K47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="L47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="O47" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5868,56 +6307,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="X47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="Y47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33927</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136015</v>
+      </c>
+      <c r="C48" t="s">
+        <v>467</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="J48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="K48" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="L48" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="O48" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5929,47 +6372,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="X48" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="Y48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33927</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>136016</v>
+      </c>
+      <c r="C49" t="s">
+        <v>477</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="J49" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="K49" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="L49" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -5986,47 +6433,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="X49" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="Y49" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33927</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>35935</v>
+      </c>
+      <c r="C50" t="s">
+        <v>486</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="J50" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="K50" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="L50" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -6043,56 +6494,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="X50" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="Y50" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33927</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>136017</v>
+      </c>
+      <c r="C51" t="s">
+        <v>495</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="J51" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="K51" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="L51" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="O51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6104,56 +6559,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="X51" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="Y51" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33927</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>136018</v>
+      </c>
+      <c r="C52" t="s">
+        <v>504</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="J52" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="K52" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="L52" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6165,56 +6624,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="X52" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="Y52" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33927</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>48920</v>
+      </c>
+      <c r="C53" t="s">
+        <v>513</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="J53" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="K53" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="L53" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -6232,56 +6695,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="X53" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="Y53" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33927</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>16623</v>
+      </c>
+      <c r="C54" t="s">
+        <v>523</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="J54" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="K54" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="L54" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="O54" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6299,56 +6766,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="X54" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="Y54" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33927</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>37111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>532</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="J55" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="K55" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="L55" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6360,56 +6831,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="X55" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="Y55" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33927</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>136019</v>
+      </c>
+      <c r="C56" t="s">
+        <v>541</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="J56" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="K56" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="L56" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6427,56 +6902,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="X56" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="Y56" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33927</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>8113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>550</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="J57" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="K57" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="L57" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="O57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6492,56 +6971,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="X57" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="Y57" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33927</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>136020</v>
+      </c>
+      <c r="C58" t="s">
+        <v>559</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="J58" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="K58" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="L58" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="O58" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6553,56 +7036,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="X58" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="Y58" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33927</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>56550</v>
+      </c>
+      <c r="C59" t="s">
+        <v>568</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="J59" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="K59" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="L59" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="O59" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6618,56 +7105,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="X59" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="Y59" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33927</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>136021</v>
+      </c>
+      <c r="C60" t="s">
+        <v>577</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="J60" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="K60" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="L60" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="O60" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6679,56 +7170,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="X60" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="Y60" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33927</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>488</v>
+      </c>
+      <c r="C61" t="s">
+        <v>586</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="J61" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="K61" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L61" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="O61" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6746,56 +7241,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="X61" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="Y61" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33927</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>136022</v>
+      </c>
+      <c r="C62" t="s">
+        <v>595</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="J62" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="K62" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="L62" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="O62" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6807,56 +7306,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="X62" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="Y62" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33927</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>27776</v>
+      </c>
+      <c r="C63" t="s">
+        <v>603</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="J63" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="K63" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="L63" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="O63" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6868,56 +7371,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="X63" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="Y63" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33927</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>136023</v>
+      </c>
+      <c r="C64" t="s">
+        <v>612</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="J64" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
       <c r="K64" t="s">
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="L64" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6929,56 +7436,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="X64" t="s">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="Y64" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33927</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>3904</v>
+      </c>
+      <c r="C65" t="s">
+        <v>621</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
       <c r="J65" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="K65" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="L65" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="O65" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6990,56 +7501,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>563</v>
+        <v>627</v>
       </c>
       <c r="X65" t="s">
-        <v>564</v>
+        <v>628</v>
       </c>
       <c r="Y65" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33927</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>71426</v>
+      </c>
+      <c r="C66" t="s">
+        <v>630</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>567</v>
+        <v>632</v>
       </c>
       <c r="J66" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="K66" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="L66" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="O66" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7051,56 +7566,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="X66" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
       <c r="Y66" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33927</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>2379</v>
+      </c>
+      <c r="C67" t="s">
+        <v>639</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
       <c r="J67" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="K67" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="L67" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="O67" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -7112,56 +7631,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="X67" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="Y67" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33927</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>136024</v>
+      </c>
+      <c r="C68" t="s">
+        <v>649</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>584</v>
+        <v>651</v>
       </c>
       <c r="J68" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="K68" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="L68" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7173,56 +7696,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
       <c r="X68" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="Y68" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>33927</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>136025</v>
+      </c>
+      <c r="C69" t="s">
+        <v>658</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="J69" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="K69" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="L69" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7238,56 +7765,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="X69" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="Y69" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>33927</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>457</v>
+      </c>
+      <c r="C70" t="s">
+        <v>667</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="J70" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="K70" t="s">
-        <v>602</v>
+        <v>671</v>
       </c>
       <c r="L70" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7299,56 +7830,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>605</v>
+        <v>674</v>
       </c>
       <c r="X70" t="s">
-        <v>606</v>
+        <v>675</v>
       </c>
       <c r="Y70" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>33927</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>136026</v>
+      </c>
+      <c r="C71" t="s">
+        <v>677</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="J71" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="K71" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="L71" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="O71" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7364,56 +7899,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="X71" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="Y71" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>33927</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>136027</v>
+      </c>
+      <c r="C72" t="s">
+        <v>687</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
       <c r="J72" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="K72" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="L72" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="O72" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7425,56 +7964,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="X72" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="Y72" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>33927</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>23406</v>
+      </c>
+      <c r="C73" t="s">
+        <v>697</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="J73" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="K73" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="L73" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7490,50 +8033,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>33927</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>136028</v>
+      </c>
+      <c r="C74" t="s">
+        <v>704</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="J74" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="K74" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="L74" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="O74" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7547,50 +8094,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>33927</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>711</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
       <c r="J75" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="K75" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="L75" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="O75" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7602,56 +8153,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
       <c r="X75" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="Y75" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>33927</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>127627</v>
+      </c>
+      <c r="C76" t="s">
+        <v>721</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
       <c r="J76" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="K76" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="L76" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="O76" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7671,50 +8226,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>652</v>
+        <v>727</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>33927</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>22459</v>
+      </c>
+      <c r="C77" t="s">
+        <v>728</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="J77" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="K77" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="L77" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="O77" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -7732,50 +8291,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>33927</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>136029</v>
+      </c>
+      <c r="C78" t="s">
+        <v>734</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="J78" t="s">
-        <v>660</v>
+        <v>737</v>
       </c>
       <c r="K78" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="L78" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7787,56 +8350,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="X78" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="Y78" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>33927</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>48008</v>
+      </c>
+      <c r="C79" t="s">
+        <v>744</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>667</v>
+        <v>745</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="J79" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="K79" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
       <c r="L79" t="s">
-        <v>671</v>
+        <v>749</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>672</v>
+        <v>750</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>1</v>
@@ -7854,50 +8421,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>671</v>
+        <v>749</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>33927</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>53135</v>
+      </c>
+      <c r="C80" t="s">
+        <v>751</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>673</v>
+        <v>752</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>674</v>
+        <v>753</v>
       </c>
       <c r="J80" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
       <c r="K80" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="L80" t="s">
-        <v>677</v>
+        <v>756</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="O80" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="n">
@@ -7915,50 +8486,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>677</v>
+        <v>756</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>33927</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>136030</v>
+      </c>
+      <c r="C81" t="s">
+        <v>757</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>678</v>
+        <v>758</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>679</v>
+        <v>759</v>
       </c>
       <c r="J81" t="s">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="K81" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
       <c r="L81" t="s">
-        <v>682</v>
+        <v>762</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -7972,50 +8547,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>684</v>
+        <v>764</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>33927</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>136031</v>
+      </c>
+      <c r="C82" t="s">
+        <v>765</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>686</v>
+        <v>767</v>
       </c>
       <c r="J82" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
       <c r="K82" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="L82" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="n">
@@ -8033,56 +8612,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="X82" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
       <c r="Y82" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>33927</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>136032</v>
+      </c>
+      <c r="C83" t="s">
+        <v>774</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>693</v>
+        <v>775</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>694</v>
+        <v>776</v>
       </c>
       <c r="J83" t="s">
-        <v>695</v>
+        <v>777</v>
       </c>
       <c r="K83" t="s">
-        <v>696</v>
+        <v>778</v>
       </c>
       <c r="L83" t="s">
-        <v>697</v>
+        <v>779</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -8094,56 +8677,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
       <c r="X83" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
       <c r="Y83" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>33927</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>136033</v>
+      </c>
+      <c r="C84" t="s">
+        <v>783</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>701</v>
+        <v>784</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>702</v>
+        <v>785</v>
       </c>
       <c r="J84" t="s">
-        <v>703</v>
+        <v>786</v>
       </c>
       <c r="K84" t="s">
-        <v>704</v>
+        <v>787</v>
       </c>
       <c r="L84" t="s">
-        <v>705</v>
+        <v>788</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>706</v>
+        <v>789</v>
       </c>
       <c r="O84" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="n">
@@ -8163,50 +8750,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>707</v>
+        <v>790</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>33927</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>29874</v>
+      </c>
+      <c r="C85" t="s">
+        <v>791</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>708</v>
+        <v>792</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>709</v>
+        <v>793</v>
       </c>
       <c r="J85" t="s">
-        <v>710</v>
+        <v>794</v>
       </c>
       <c r="K85" t="s">
-        <v>711</v>
+        <v>795</v>
       </c>
       <c r="L85" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>713</v>
+        <v>797</v>
       </c>
       <c r="O85" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8220,50 +8811,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>714</v>
+        <v>798</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>33927</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>4146</v>
+      </c>
+      <c r="C86" t="s">
+        <v>799</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>715</v>
+        <v>800</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>716</v>
+        <v>801</v>
       </c>
       <c r="J86" t="s">
-        <v>717</v>
+        <v>802</v>
       </c>
       <c r="K86" t="s">
-        <v>718</v>
+        <v>803</v>
       </c>
       <c r="L86" t="s">
-        <v>719</v>
+        <v>804</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>713</v>
+        <v>797</v>
       </c>
       <c r="O86" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8281,7 +8876,7 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>720</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_212.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_212.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="797">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,257 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>vmom1209</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r607226438-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>109520</t>
+  </si>
+  <si>
+    <t>607226438</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>My Stay</t>
+  </si>
+  <si>
+    <t>It's been 4 months that I've been staying here. It has a wonderful staff n accommodation. So far it's been a real pleasure to stay here. There very pleasant to deal with as for the Hotel it's self. I would recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Arlington - Six Flags, responded to this reviewResponded 2 days ago</t>
+  </si>
+  <si>
+    <t>Responded 2 days ago</t>
+  </si>
+  <si>
+    <t>It's been 4 months that I've been staying here. It has a wonderful staff n accommodation. So far it's been a real pleasure to stay here. There very pleasant to deal with as for the Hotel it's self. I would recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r607149900-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>607149900</t>
+  </si>
+  <si>
+    <t>Hidden Gem!!</t>
+  </si>
+  <si>
+    <t>Hidden Gem nestled in the Arlington (DFW) area!! Located conveniently in a corporate business park, next to Six Flags. Extremely safe area! Easy walk to excellent dining choices within the corporate park. Free Trolley service to Six Flags, Rangers’ Baseball Games, and Dallas Cowboys Football… I’ve experienced exceptional long-term stays at this property! Very quiet. Safe. Peaceful. ~ Guests are predominately business travelers, Six Flags staffers (international students), and professional contractors. A very professionally-focused property! [No indigents. No crime. No drama.] Staff is always on top of things… GM (Jamisen) runs a very tight ship: ALWAYS eager to please!! — Same kind of dedication you’d expect from the Four Seasons or St. Regis…!! ~ Nice, hidden gem for business access to DFW; or vacationing to Six Flags &amp; Rangers/Cowboys sporting events!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Hidden Gem nestled in the Arlington (DFW) area!! Located conveniently in a corporate business park, next to Six Flags. Extremely safe area! Easy walk to excellent dining choices within the corporate park. Free Trolley service to Six Flags, Rangers’ Baseball Games, and Dallas Cowboys Football… I’ve experienced exceptional long-term stays at this property! Very quiet. Safe. Peaceful. ~ Guests are predominately business travelers, Six Flags staffers (international students), and professional contractors. A very professionally-focused property! [No indigents. No crime. No drama.] Staff is always on top of things… GM (Jamisen) runs a very tight ship: ALWAYS eager to please!! — Same kind of dedication you’d expect from the Four Seasons or St. Regis…!! ~ Nice, hidden gem for business access to DFW; or vacationing to Six Flags &amp; Rangers/Cowboys sporting events!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r604106597-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>604106597</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Extended Stay Six Flags Arlington</t>
+  </si>
+  <si>
+    <t>3 months spent in the hotel and have had ups and downs as any stay will be. The ups were the staff I dealt with regularly, Joe &amp; Isaiah. They both have done anything they could to help me with basics like trash bags, quarters for machines, food delivery recommendations and being patient on sorting thru mail when I was expecting mail and always asking how I was doing and making me feel comfortable during my stay. Thanks to Extended Stay and all the staff who work there. I appreciate it. Would definitely stay again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Arlington - Six Flags, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>3 months spent in the hotel and have had ups and downs as any stay will be. The ups were the staff I dealt with regularly, Joe &amp; Isaiah. They both have done anything they could to help me with basics like trash bags, quarters for machines, food delivery recommendations and being patient on sorting thru mail when I was expecting mail and always asking how I was doing and making me feel comfortable during my stay. Thanks to Extended Stay and all the staff who work there. I appreciate it. Would definitely stay again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r601822432-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>601822432</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>This is a great place to stay</t>
+  </si>
+  <si>
+    <t>We are staying here while our home is being built . The staff is just wonderful here they really go out of there way for everyone . The rooms are very large and nice .The manager here Jamison is so nice . I really do recommend this hotel .MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Arlington - Six Flags, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>We are staying here while our home is being built . The staff is just wonderful here they really go out of there way for everyone . The rooms are very large and nice .The manager here Jamison is so nice . I really do recommend this hotel .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r601594054-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>601594054</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Really Great Location &amp; Staff!</t>
+  </si>
+  <si>
+    <t>We travel alot because my husband's job. This is by far the best extended stay hotel! Very friendly &amp; nice staff! Great management! We will definitely always choose extended stay! Great size rooms! Very clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>We travel alot because my husband's job. This is by far the best extended stay hotel! Very friendly &amp; nice staff! Great management! We will definitely always choose extended stay! Great size rooms! Very clean!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r601318759-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>601318759</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>A-1 Staff</t>
+  </si>
+  <si>
+    <t>Professional and friendly front desk staff.The staff here exercises control and politeness while handling even the most difficult and uncomfortable guess situations. Staying here at Six Flags Extended Stay has been anything but regretful thanks to Isaiah, Jamison, Joe, Ramon, Salaia, Sharin, and (others I do not know that work behind the scene) the work seamlessly together-how awesome is that?!. I have great appreciation for these individuals. Also, the rearrangement of the check in/out desk/lobby was a good move-nice touch.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r597151914-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>597151914</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Getting WAY better with new management (Jamison)</t>
+  </si>
+  <si>
+    <t>I am moving to the area and am building a house, I do not want the credit checks, deposits, fees of renting an apartment so I chose to stay at Extended Stay America - 6 Flags. After doing TONS of research for the price and the amenities I reluctantly chose Extended Stay. I could go on all day about how bad this place was when I first got here. One good example is: somebody had thrown their trash away in the doorway to get outside rather than in the trash room. It sat for DAYS. With the Texas heat, it smelled so bad. (Management was aware of the problem and did nothing about it.) The last few weeks had seemed to be getting way better. I noticed some small changes here and there. (Umbrellas put up by the pool, doggie bags for poop, smells nicer, looks cleaner). I went up to the main desk to reset my cards to get into my room, and the manager (Jamison) greeted me. (He also verified that I was the person in the room getting the cards rather than just handing them over without knowing who I was.) I had asked if they were doing some changes with management and he said yes, he is the new manager and is trying to turn this place around (in short). He was the nicest any manager had been since staying here.  
+This hotel is not the...I am moving to the area and am building a house, I do not want the credit checks, deposits, fees of renting an apartment so I chose to stay at Extended Stay America - 6 Flags. After doing TONS of research for the price and the amenities I reluctantly chose Extended Stay. I could go on all day about how bad this place was when I first got here. One good example is: somebody had thrown their trash away in the doorway to get outside rather than in the trash room. It sat for DAYS. With the Texas heat, it smelled so bad. (Management was aware of the problem and did nothing about it.) The last few weeks had seemed to be getting way better. I noticed some small changes here and there. (Umbrellas put up by the pool, doggie bags for poop, smells nicer, looks cleaner). I went up to the main desk to reset my cards to get into my room, and the manager (Jamison) greeted me. (He also verified that I was the person in the room getting the cards rather than just handing them over without knowing who I was.) I had asked if they were doing some changes with management and he said yes, he is the new manager and is trying to turn this place around (in short). He was the nicest any manager had been since staying here.  This hotel is not the newest by far and needs a lot of updating to make it look "pretty". For the price and the cost savings of an apartment, I would do it again. (Only with the updated management!!) Again I can't stress enough the old management sucked.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Arlington - Six Flags, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I am moving to the area and am building a house, I do not want the credit checks, deposits, fees of renting an apartment so I chose to stay at Extended Stay America - 6 Flags. After doing TONS of research for the price and the amenities I reluctantly chose Extended Stay. I could go on all day about how bad this place was when I first got here. One good example is: somebody had thrown their trash away in the doorway to get outside rather than in the trash room. It sat for DAYS. With the Texas heat, it smelled so bad. (Management was aware of the problem and did nothing about it.) The last few weeks had seemed to be getting way better. I noticed some small changes here and there. (Umbrellas put up by the pool, doggie bags for poop, smells nicer, looks cleaner). I went up to the main desk to reset my cards to get into my room, and the manager (Jamison) greeted me. (He also verified that I was the person in the room getting the cards rather than just handing them over without knowing who I was.) I had asked if they were doing some changes with management and he said yes, he is the new manager and is trying to turn this place around (in short). He was the nicest any manager had been since staying here.  
+This hotel is not the...I am moving to the area and am building a house, I do not want the credit checks, deposits, fees of renting an apartment so I chose to stay at Extended Stay America - 6 Flags. After doing TONS of research for the price and the amenities I reluctantly chose Extended Stay. I could go on all day about how bad this place was when I first got here. One good example is: somebody had thrown their trash away in the doorway to get outside rather than in the trash room. It sat for DAYS. With the Texas heat, it smelled so bad. (Management was aware of the problem and did nothing about it.) The last few weeks had seemed to be getting way better. I noticed some small changes here and there. (Umbrellas put up by the pool, doggie bags for poop, smells nicer, looks cleaner). I went up to the main desk to reset my cards to get into my room, and the manager (Jamison) greeted me. (He also verified that I was the person in the room getting the cards rather than just handing them over without knowing who I was.) I had asked if they were doing some changes with management and he said yes, he is the new manager and is trying to turn this place around (in short). He was the nicest any manager had been since staying here.  This hotel is not the newest by far and needs a lot of updating to make it look "pretty". For the price and the cost savings of an apartment, I would do it again. (Only with the updated management!!) Again I can't stress enough the old management sucked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r595385202-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>595385202</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Just visiting Mom</t>
+  </si>
+  <si>
+    <t>The staff are all excellent and sweet. Jamisen has the sweetest accent. The housekeepers are very helpful and the hotel has a friendly environment. It is an affordable rate. Great for families. Was missing my boyfriend a lot though. Thanks Extended Stay Arlington Six Flags for the great hospitality. Bye!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Arlington - Six Flags, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
+  </si>
+  <si>
+    <t>The staff are all excellent and sweet. Jamisen has the sweetest accent. The housekeepers are very helpful and the hotel has a friendly environment. It is an affordable rate. Great for families. Was missing my boyfriend a lot though. Thanks Extended Stay Arlington Six Flags for the great hospitality. Bye!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r593581743-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>593581743</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>E. Lamar location</t>
+  </si>
+  <si>
+    <t>Been staying at this location for a week now. Have no complaints. The GM is a great guy with an amazing personality and definitely helpful. The rooms are nice spacious and comfortable. Lots of eateries and good places to hang out close to the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Arlington - Six Flags, responded to this reviewResponded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Been staying at this location for a week now. Have no complaints. The GM is a great guy with an amazing personality and definitely helpful. The rooms are nice spacious and comfortable. Lots of eateries and good places to hang out close to the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r593364692-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>593364692</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>4th of July quick trip</t>
+  </si>
+  <si>
+    <t>Hotel was nice but housekeeping of the room was poor. There was trash under both the bed and the sofa sleeper also there wasnt any pillows or sheets for the sleeper. I called up to the front desk for the sheets pillows and a blow dryer but no luck. Also only had a half roll of toilet paper MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Arlington - Six Flags, responded to this reviewResponded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Hotel was nice but housekeeping of the room was poor. There was trash under both the bed and the sofa sleeper also there wasnt any pillows or sheets for the sleeper. I called up to the front desk for the sheets pillows and a blow dryer but no luck. Also only had a half roll of toilet paper More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r570221028-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
-    <t>30183</t>
-  </si>
-  <si>
-    <t>109520</t>
-  </si>
-  <si>
     <t>570221028</t>
   </si>
   <si>
@@ -180,9 +416,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Arlington - Six Flags, responded to this reviewResponded April 2, 2018</t>
   </si>
   <si>
@@ -192,9 +425,6 @@
     <t>We were on a road trip with 5 kids and staying there was great.  No kid hassles!! The area was great too! Front desk made sure we had everything we needed.  Going on long trips with 5 kids is super hard as it is! More</t>
   </si>
   <si>
-    <t>R9103XHrobertw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r567608221-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -219,9 +449,6 @@
     <t>This is the worst hotel experience I've ever had. Filthy rooms, smell of marijuana throughout the hotel, broken sink and a fixture falling on my daughter made this a terrible stay. The lobby was filthy for our whole trip. The bathroom still had toothpaste stains on the sink, hair on floor and tub and the kitchen still had food and trash from the previous guest.More</t>
   </si>
   <si>
-    <t>tashasagan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r567367670-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -249,9 +476,6 @@
     <t>Construction, plumbing problems, booking occupied rooms,  oh my! Lovely staff but lots of problems. Wasn't worth the deal on Hotels.com. Difficult to get in and out, plumbing issues caused leak in the ceiling...not to mention the smell!More</t>
   </si>
   <si>
-    <t>B9161KLwilliamr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r553763421-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -279,9 +503,6 @@
     <t>Will not go again, nasty Tub, fire alarm woke me up 2 times, poor counter employee, Manager was not reacheble, refund was not available, bad smell, Worse experience ever.I was on room 218, break fast its a lie, only a nasty coffe and a granola bar, very poor managedMore</t>
   </si>
   <si>
-    <t>Allen D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r553890429-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -294,9 +515,6 @@
     <t>This was a very inexpensive hotel that provides no routine cleaning of your room.  The items that supposedly come with the room, like a coffee pot, dishwater, etc. have to be requested from the from the front desk.  The wifi was 0.5mbps. The elevators didn't work and I was on the third floor.  The room smelled like curry all week.  The heater was very noisy and kept me up at night.  The tub and sink drains were extremely slow.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Arlington - Six Flags, responded to this reviewResponded January 22, 2018</t>
   </si>
   <si>
@@ -306,9 +524,6 @@
     <t>This was a very inexpensive hotel that provides no routine cleaning of your room.  The items that supposedly come with the room, like a coffee pot, dishwater, etc. have to be requested from the from the front desk.  The wifi was 0.5mbps. The elevators didn't work and I was on the third floor.  The room smelled like curry all week.  The heater was very noisy and kept me up at night.  The tub and sink drains were extremely slow.More</t>
   </si>
   <si>
-    <t>858melissao</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r550427058-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -336,9 +551,6 @@
     <t>Very poor facilities, no wifi, beds not made up and when asked after a third time just handed sheets at 11pm to make the bed ourselves. Very disappointed. Especially difficult when travelling with children. Don’t goMore</t>
   </si>
   <si>
-    <t>olgasV3353QN</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r550343711-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -363,9 +575,6 @@
     <t>Very polite, knowledgeable, friendly and helpful people work there, make us feel like home. Hotel is next door to Six Flags, close to DFW International Airport, many attraction places to see in close range. Some rooms are have kitchen, which is great, if you're travel with kids. Thank you very much for everything!More</t>
   </si>
   <si>
-    <t>Wendy P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r549420279-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -388,9 +597,6 @@
   </si>
   <si>
     <t>Husband and I gave each other the trip to Dallas to see the Cowboy's play on Christmas Eve as a Christmas Present to each other.  Hotel staff very nice and helpful, room are clean.  We took advantage of the shuttle to the game, made it nice to not have to fight the traffic.  I would highly recommend this hotel to anyone staying the area.More</t>
-  </si>
-  <si>
-    <t>sabeletc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r548115238-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -427,9 +633,6 @@
 We will not be staying at this Extended Stay...We stayed here because I had a promotion code to waive the pet fee.  Other motels in the area want anywhere from $50 - $80 for a pet fee, which I find exhorbitant.  As residence motels go, this one was disappointing, to be kind.  It needs updating, remodeling and a thorough cleaning and fumigating.  I am usually pretty forgiving about motels, but when I find a roach on the kitchen sink, I tend to get grossed out.  I am just hoping I didn’t bring any roaches home with me.  The bathroom sink did not have any hot water.  The kitchen was not supplied with anything, not even a dish towel.  Guests need to go down to the Front Desk to request any dishes, utensils, pots and pans, even dish soap and towels, and then carry them back to the room themselves.  At least they didn’t request a deposit.  Judging by the kitchen cabinets, the rooms have not been seriously updated since the early 1980’s.  The bathtub and surround looks like it was replaced sometime since 2000 and the shower head was a good one with plenty of pressure and hot water.  The heat in the room worked very well but we could smell the dust burning off when we first turned the heater on and the room smelled like dog urine/wet dog for the rest of the time we were there.  We will not be staying at this Extended Stay again, if we can help it.  Last summer, we stayed at the Townplace Suites, a little bit farther west and on the north side of Lamar Blvd, and were happy with the room, the service and the cleanliness of the hotel.  This time, since family was staying at the Fairfield Inn next door to the Extended Stay, we opted for it.  I don’t think we’ll do that again.More</t>
   </si>
   <si>
-    <t>Leticia Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r546790449-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -457,9 +660,6 @@
     <t>The hotel was clean. The front desk personnel were really friendly and helpful.  We went to the Dallas game so it was a nice that the hotel offered a shuttle service for 20.00 round trip. It was well worth it not to deal with your own parking and well you can have a few drinks without worrying about driving back. Only thing is don't expect a huge breakfast selection but I didn't choose the hotel for that so no biggie...  would stay there again!More</t>
   </si>
   <si>
-    <t>Marcus T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r546396960-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -484,9 +684,6 @@
     <t>So I stayed at the extended Stay America this past weekend. On arrival the onsite manager book me in but they switched my reservation. So at 11:30 p.m. I get a call from the office demanding I come down. As long as for me and my family so we go down to see what it's about. Young lady behind the desk. Treating me like as if I was convict. Call the police on me because of her co-workers mistake. Luckily the co-worker took all responsibility for the problem. But the cops did take my information and checked it to see if I had any outstanding warrants. Which is protocol so I wasn't mad at the officers. They told their story to the officers and the officer replied this sounds like a internal matter. The young girl proceeded to try to force some guilt upon me. As if I went into the computer and switch the reservations. So this all ends at like 12:05 a.m. I go back to my room and try to sleep period the next morning I get a call from the manager saying that my hotel was not paid for. They had cancel the reservation I paid for. Then ask me to pay again. I talk to the manager she call me down and gave me what they call a certificate bog basically comping me for my room and a free night. I said thank you that...So I stayed at the extended Stay America this past weekend. On arrival the onsite manager book me in but they switched my reservation. So at 11:30 p.m. I get a call from the office demanding I come down. As long as for me and my family so we go down to see what it's about. Young lady behind the desk. Treating me like as if I was convict. Call the police on me because of her co-workers mistake. Luckily the co-worker took all responsibility for the problem. But the cops did take my information and checked it to see if I had any outstanding warrants. Which is protocol so I wasn't mad at the officers. They told their story to the officers and the officer replied this sounds like a internal matter. The young girl proceeded to try to force some guilt upon me. As if I went into the computer and switch the reservations. So this all ends at like 12:05 a.m. I go back to my room and try to sleep period the next morning I get a call from the manager saying that my hotel was not paid for. They had cancel the reservation I paid for. Then ask me to pay again. I talk to the manager she call me down and gave me what they call a certificate bog basically comping me for my room and a free night. I said thank you that was that period 2 Days Later I go and use my certificate at a different extended stay location. I check in 2 hours later that manager came and told me I had to leave. Because I had outstanding charges at the other Hotel. My question to him was why would they give me a compensation and then tell me how I still owe. That manager said to me that that wasn't protocol and he will talk to his general manager. I've talked to that general manager. He heard me out said he will give me a call back it's been 48 hours since that call I still haven't heard from Extended Stay.More</t>
   </si>
   <si>
-    <t>Stehr67</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r545800332-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -511,9 +708,6 @@
     <t>I stayed here before and thought it was great but it was a few years ago.   I read the reviews and was worried.   I got there about 5 and checkin was great.   Staff was exceptional.    one of the elevators was broken but I just used the other.   hotel is a little dated but when I got in the room it was clean.   I did like the new recliner they put in.  Probably the biggest thing I noticed and they told me when I checked in was that the room itself did not have the plates and stuff in the cabinets but if you need anything to just ask them.   I was staying one night so I didn't get that.  but noticed no fork or cups or anything in the drawers or cabinets and you I did not see the normal shampoo I see at other hotels no dryer.    but they did have soap and plastic cups in the bathroom.   We did shower and take the towels down and they exchanged.   overall I was happy with the room.   I was on the third floor and my window faced sixflags and the highway but didn't have a problem with noise.   Also I was worried about the bed it was clean and pretty comfortable.  Didn't use pool or even see an ice machine so can't comment on that.  I used ice in fridge.    It was close to AT&amp;T and was clean.   The breakfast...I stayed here before and thought it was great but it was a few years ago.   I read the reviews and was worried.   I got there about 5 and checkin was great.   Staff was exceptional.    one of the elevators was broken but I just used the other.   hotel is a little dated but when I got in the room it was clean.   I did like the new recliner they put in.  Probably the biggest thing I noticed and they told me when I checked in was that the room itself did not have the plates and stuff in the cabinets but if you need anything to just ask them.   I was staying one night so I didn't get that.  but noticed no fork or cups or anything in the drawers or cabinets and you I did not see the normal shampoo I see at other hotels no dryer.    but they did have soap and plastic cups in the bathroom.   We did shower and take the towels down and they exchanged.   overall I was happy with the room.   I was on the third floor and my window faced sixflags and the highway but didn't have a problem with noise.   Also I was worried about the bed it was clean and pretty comfortable.  Didn't use pool or even see an ice machine so can't comment on that.  I used ice in fridge.    It was close to AT&amp;T and was clean.   The breakfast was some breakfast bars and some muffins.  coffee and hot water for hot chocolate.More</t>
   </si>
   <si>
-    <t>Kgrubbs</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r545219928-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -538,9 +732,6 @@
     <t>The hotel had a musty odor throughout. The cabinets looked like they were from the 80s. There were piles of dirt in the corner behind the bathroom door. The faucet had to be manipulated just right to stop running.  The fire alarm battery was chirping in the hallway. The location was excellent. Right next to Six Flags and very convenient to the Rangers and Cowboys stadiums. Needs a huge remodel. More</t>
   </si>
   <si>
-    <t>Justin T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r543855871-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -565,9 +756,6 @@
     <t>Trip to see the cowboys on thanksgiving I also was disappointed you charge $20 per person. A shuttle of some kind would be a nice touch. Even though it’s only a mile or so away it’s to far to walk.    Thanks for the feedbaxkMore</t>
   </si>
   <si>
-    <t>M2829MSjulias</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r543596817-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -592,9 +780,6 @@
     <t>We had 2 rooms, 5 adults, 2 does, and it was home away from home for several days during the thanksgiving holiday.There was plenty of room, we were able to cook a dinner, and the location was great! Next time I will ask for our rooms to be on the same floor though.More</t>
   </si>
   <si>
-    <t>ersmiiley</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r533773393-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -622,9 +807,6 @@
     <t>I stayed for over 3 months and housekeeping was supposed to clean my room once a week on Thursday's. The very first week my room went without being cleaned until I called the front desk on Monday and it still took them until Thursday to clean it. A majority of the time my room went over 2 weeks without being cleaned and when it was cleaned they made the bed and left new towels. The room was only cleaned and vacuumed maybe 3 times my entire stay. I talked to front desk on numerous occasions, then and only then did they come and make my bed. With the way the room wasn't vacuumed or toilet not cleaned, I can't even be sure they changed my sheets, rather just made the bed. The staff was courteous, but seemed clueless. Was awoken numerous nights from people partying in the courtyard. After a couple nights of phone calls and complaining did it finally get stopped. I emailed manager about the issues and received nothing in return. I stayed here 2 years ago and it wasn't as bad as this time.More</t>
   </si>
   <si>
-    <t>Mary T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r533638486-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -646,9 +828,6 @@
     <t>Room not ready more than an hour past check in time, staff seemed clueless, no housekeeping after a week, even after reminding me I still didn't get housekeeping, stove veeryyy old and not completely in working order, have to ask at front desk for everything instead of keeping pots, pans, etc in room.  internet connection spotty.  Will not stay here again.  First AND LAST experience with Extended Stay.  Lower cost not worth what you give up.More</t>
   </si>
   <si>
-    <t>cynthiadA1985YQ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r530037593-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -676,9 +855,6 @@
     <t>The property was not very well kept. My first impression was "yuck".  We waited 30 minutes at the front desk to check in before anybody appeared.  Getting to our room was like a maze. The hallways were filthy. Our room was just okay. I really expected better after reading reviews. The stove was nasty and the phone in our room didn't work.  Measly toiletries for what we paid.More</t>
   </si>
   <si>
-    <t>gladyss242</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r532509447-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -706,9 +882,6 @@
     <t>The building does look somewhat older but the room was very decent and clean. It is literally across from Six Flags. Check in and check out was very smooth. The staff was very helpful in what I needed. I got a room with a kitchen but there are no dishes in the rom. The dishes must ne asked for at the front desk and they give them to you. I would stay again if I go backMore</t>
   </si>
   <si>
-    <t>SixFlagsTraveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r510038691-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -733,9 +906,6 @@
     <t>But NO, it was the same as is in my little town; room was smelly, hot because a/c was not properly working, reported to front desk and she went to review, she told me that she will schedule a Maintenance visit for the following morning, well I stayed 4 nights and No body show up neither to ask; and that's including the Housekeeping! More</t>
   </si>
   <si>
-    <t>AJOxley</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r509680352-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -760,9 +930,6 @@
     <t>We had room 338 directly in the front of the trash room, the trash was not taken out in a timely manner, every time we open the door it smelled foul, the elevator broke on us for 3 mins, no face towels was ever received from check in to check out because they claimed everyone had stoled before we checked in, the tack strip going into the bathroom is not property installed though is not visible to find, it stuck my foot several times mentioned it and nothing was ever done about it not even a room change stayed there 3 days miserable, HORRIBLE HOTEL EXPERIENCE AND WE WILL NEVER STAY AGAIN!!!More</t>
   </si>
   <si>
-    <t>abstan2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r508570503-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -787,9 +954,6 @@
     <t>Stay was so-so staff was friendly so that made up for quite a bit Main problem was having a toddler and the amount of outside noise we heard through out the night. And we only had 1 room next to ours where we were. For grab and go breakfast staff went out of way to help our little guy find the right muffins . Shower piece was broken . Room was clean and pretty spacious. Did not offer trolly service anymore to baseball game. More</t>
   </si>
   <si>
-    <t>cjw263</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r507286054-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -805,9 +969,6 @@
     <t>This is a budget type of facility, the front desk isn't 24hrs and there won't be anyone providing the replacement of towels or other things that may be needed unless requested upon and reserved. This is more like having your own apartment for a week (or however long your stay) with a kitchen and stove and full refrigerator, with laundry facility on the first floor. This is the type of place you stay in if you don't  mind lower terms of accommodation's.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Arlington - Six Flags, responded to this reviewResponded July 31, 2017</t>
   </si>
   <si>
@@ -817,9 +978,6 @@
     <t>This is a budget type of facility, the front desk isn't 24hrs and there won't be anyone providing the replacement of towels or other things that may be needed unless requested upon and reserved. This is more like having your own apartment for a week (or however long your stay) with a kitchen and stove and full refrigerator, with laundry facility on the first floor. This is the type of place you stay in if you don't  mind lower terms of accommodation's.More</t>
   </si>
   <si>
-    <t>Ssatis J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r505682952-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -844,9 +1002,6 @@
     <t>Room was not ready even after 5pm had to wait and deal with bad staff attitude complaining to me why I couldn't get in a room because they were short on staff and room was being cleaned. When you book a room the main thing people want is to be able to at least get in and rest. They need more staff... The whole second floor stinks and I think they have interns living there, Feels like a college dorm.More</t>
   </si>
   <si>
-    <t>818brandyf</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r501917081-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -871,9 +1026,6 @@
     <t>You have to ask for the kitchen items including the coffee pot and you only get them IF they available.  They do not clean the rooms if you stay under a certain amount of days.  Just really not worth the money I spent for 6 days.More</t>
   </si>
   <si>
-    <t>tiffanytX6402TU</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r501492848-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -898,9 +1050,6 @@
     <t>Really need to work on customer service and communication, letting customers know all of their options.  I was not made  aware that I would have to clean my own room, nor was I made aware that I had the option to include certain necessities such as: dishes, toaster, pots and pans, etc. in my stay.  Customer service was poor and most of the staff was rude.More</t>
   </si>
   <si>
-    <t>dogg10</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r500458270-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -928,9 +1077,6 @@
     <t>Staff was exceptionally polite and professional. Katlynn the manager was wonderful and her staff should be comended for an outstanding job. I spent six weeks there working and although they had to deal with plenty of prinks from the kids visiting six flags they remained happy and courteous. Hosekeeping has to be commended also, especially Me. Cynthia Scott. That lady cleaned my room after I mention ed to MS. Kathlyn that someone missed my scheduled cleaning day. Not only did Cynthia clean my room she was very helpful in addressing me and my kids on others areas of interest. I truly enjoyed my stay.More</t>
   </si>
   <si>
-    <t>matthewbJ8142YE</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r500125386-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -955,9 +1101,6 @@
     <t>The entire hotel was filthy. Any time I returned to the hotel, I was greeted with a musty fried chicken &amp; urine smell upon walking through the door. The windows &amp; doors were covered in fingerprints &amp; the elevator &amp; walls were splattered w/ different substances. The floors in the lobby hadn't been swept or mopped in a very long time. The carpet in our room was so dirty that I wouldn't allow my child to take off her shoes in the room. I had to remove the bedding &amp; request new bedding upon check-in because the comforter &amp; sheets were visibly dirty &amp; hadn't been changed prior to our arrival. Being that it's an extended stay hotel, I expected there to be an ice machine on the premises, dishware/silverware in the kitchen, towels, a hair dryer, etc, but all were absent. We requested towels/washcloths 3x &amp; were told there weren't any available to wash "yet" before we finally received some 2 days later. The pool (which was one of the reasons we chose this hotel) was full of dead bugs &amp; cigarette butts, so my daughter wasn't able to swim the entire 5 day stay. We checked in on 7/2/17 &amp; the elevator's inspection card stated that it had expired 6/2/17. The elevator made a loud banging &amp; grinding noise when it was in use, so we took the stairs just to be safe. The faucet in the bathroom...The entire hotel was filthy. Any time I returned to the hotel, I was greeted with a musty fried chicken &amp; urine smell upon walking through the door. The windows &amp; doors were covered in fingerprints &amp; the elevator &amp; walls were splattered w/ different substances. The floors in the lobby hadn't been swept or mopped in a very long time. The carpet in our room was so dirty that I wouldn't allow my child to take off her shoes in the room. I had to remove the bedding &amp; request new bedding upon check-in because the comforter &amp; sheets were visibly dirty &amp; hadn't been changed prior to our arrival. Being that it's an extended stay hotel, I expected there to be an ice machine on the premises, dishware/silverware in the kitchen, towels, a hair dryer, etc, but all were absent. We requested towels/washcloths 3x &amp; were told there weren't any available to wash "yet" before we finally received some 2 days later. The pool (which was one of the reasons we chose this hotel) was full of dead bugs &amp; cigarette butts, so my daughter wasn't able to swim the entire 5 day stay. We checked in on 7/2/17 &amp; the elevator's inspection card stated that it had expired 6/2/17. The elevator made a loud banging &amp; grinding noise when it was in use, so we took the stairs just to be safe. The faucet in the bathroom &amp; in the shower were both broken &amp; didn't work properly. The hotel is a residence for many of the college aged Six Flags workers, so it was very noisy &amp; there were people in the hallways at all times of the day.More</t>
   </si>
   <si>
-    <t>gabhesse4</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r499970395-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -973,9 +1116,6 @@
     <t>Hotel is outdated but our room was clean and sheets smelled like bleach. Our first night full of adventure as fire alarm pulled in middle of night. There are no cameras in hotel so the person was not able to be identified. Not a lot of parking and be careful were you park because since by highway you could park next to a homeless person sleeping on ground next to trash can. 2 days later we arrived back to hotel to 2 police cars there trying to evict people who keep sneaking back into hotel and back into there room. I see how this is easy due to back doors to hotel you do not havet to use key card to unlock. It's always open and very unsafe. I realized later in week a few rooms down from us someone was shacking up because during day there lock was always blocking door open and they were lurking in hall when ever we were coming and going. It felt like staying at a hostile considering majority of people staying were foreign teenagers working at hurricane harbor and six flags. So very noisy all week and they smoked everywhere and threw butts on ground in hallways and by pool. Never any morning cereal bars, oatmeal etc. not that, that was a big deal for us. No clean wash clothes available when needed used hand towels.  As a mother traveling alone I didn't...Hotel is outdated but our room was clean and sheets smelled like bleach. Our first night full of adventure as fire alarm pulled in middle of night. There are no cameras in hotel so the person was not able to be identified. Not a lot of parking and be careful were you park because since by highway you could park next to a homeless person sleeping on ground next to trash can. 2 days later we arrived back to hotel to 2 police cars there trying to evict people who keep sneaking back into hotel and back into there room. I see how this is easy due to back doors to hotel you do not havet to use key card to unlock. It's always open and very unsafe. I realized later in week a few rooms down from us someone was shacking up because during day there lock was always blocking door open and they were lurking in hall when ever we were coming and going. It felt like staying at a hostile considering majority of people staying were foreign teenagers working at hurricane harbor and six flags. So very noisy all week and they smoked everywhere and threw butts on ground in hallways and by pool. Never any morning cereal bars, oatmeal etc. not that, that was a big deal for us. No clean wash clothes available when needed used hand towels.  As a mother traveling alone I didn't feel safe unless locked in our room. More</t>
   </si>
   <si>
-    <t>rbhall</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r499655176-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1000,9 +1140,6 @@
     <t>Close to everything; However Not family friendly at all. No noise control heard people walkingOn floor above all hours of the night. Carpets were dirty, Stained sink, leaky faucet. Would not stay here again. More</t>
   </si>
   <si>
-    <t>453aleksandart</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r497429214-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1027,9 +1164,6 @@
     <t>Everything was very good, only with the changing of the towels and cleaning the room I am not satisfied. Maybe because I was there only one week. Breakfast is very small, but for the price you are paying is not bad. More</t>
   </si>
   <si>
-    <t>506kristic</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r496057537-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1054,9 +1188,6 @@
     <t>Overall it was okay..  air doesn't work properly, beds are not comfortable.  Had to ask for towels after the 2nd night and was told they had no more to hand out so we had to wash our own in the laundry facility.  More</t>
   </si>
   <si>
-    <t>173haroldb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r496059505-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1072,9 +1203,6 @@
     <t>Overall it was great it offered the best customer service the breakfast grab and go was pathetic but the cleanliness of the rooms the exceptional staff and large room was great.  The laundry facilities were very good but the exercise room could use weight machines.More</t>
   </si>
   <si>
-    <t>904avar</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r495407766-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1099,9 +1227,6 @@
     <t>Good location to six flags and water park. Close to the stadium and ball park. Close to restaurants and shopping. Below average room but if you need space its a good size suite. Two bedroom suite sleeps 6. More</t>
   </si>
   <si>
-    <t>247lizzie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r495299694-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1126,9 +1251,6 @@
     <t>Check in is at 3pm and no room was ready till 5pm. Elevator had us stuck in there for about 2 minutes (hot as you walk in and everyone sweating walking out). Light fixtures not working we had to unplug in order to turn off. Cigarettes buds under beds. Lights in restroom we had to hold our fingers on the light switch in order for them to stay on. Every time we came back to the room the room keys needed to be reset (meaning gng back and forth from the 3rd floor to the lobby) in order to get into our room. Employee (at front desk) wasn't rude to me but was rude to another guest and kept cutting her off as she was speaking. More</t>
   </si>
   <si>
-    <t>I7585SScharlottet</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r493434225-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1153,9 +1275,6 @@
     <t>hotel was wonderful my grankids loved the pool close to excellant eating places close to six flags ranger games waterpark we loved it clean room excellant kitchen space we ordered pizza got there in record time  tv was a little snowy but we were to tired to watch much of it great tripMore</t>
   </si>
   <si>
-    <t>170charmainev</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r492085935-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1180,9 +1299,6 @@
     <t>Great location love I didn't have buy dishes but was not told that I didn't have to and no one informed me that you all didn't take prepaid card  that would had been useful information cause I end up using a credit card that I had paid off already More</t>
   </si>
   <si>
-    <t>timbO6837AO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r491728363-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1207,9 +1323,6 @@
     <t>Service was horrible, hotel dirty, nobody is at front desk. Nobody answers the phone when you call. They say breakfast but its really not a breakfast. I would not roccomend to anyone this hotel. Very disapointingMore</t>
   </si>
   <si>
-    <t>kelag</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r490922656-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1234,9 +1347,6 @@
     <t>The location was fantastic and front desk staff were very nice, but the conditions were less than standard.  I called the front desk around 5:45pm to ask for more towels and was told that they didn't have any available clean towels and that they were in the dryer.  They were supposed to deliver to my room, but never did.  I called back at 11pm and still was told, there were no clean towels, but the night shift would be coming in to do laundry.  If I hadn't pre-paid through Hotwire.com, I would have gone across the street and stayed at a nicer hotel. It smelled funny and someone needs to take some Murphy's Oil and clean the floor and take some Bleach and sanitize the place.More</t>
   </si>
   <si>
-    <t>mat1984manny</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r489815063-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1261,9 +1371,6 @@
     <t>My experience at extended stay was great the service was great the location was awesome. I was surprised to receive great house keeping and was pleased to have the same one the entire month I stayed she had a great outgoing personality and very helpful Theresa I thank you for making me feel like I was at homeMore</t>
   </si>
   <si>
-    <t>rktexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r488779653-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1277,7 +1384,7 @@
   </si>
   <si>
     <t>I moved to Texas and was looking for a safe, clean, quiet place to stay before I find an apt. to lease and decided to stay at this Extended Stay near Six Flags. I have stayed at several Extended Stays in different states and must say that I was extremely disappointed by many things at this particular location. I am not one to whine and complain about little things but the front desk is rude, unpleasant to deal with, dishonest, not there to assist you when you need them. It all starts w/the management of this place. It is a sad reflection of the times we live in, as good, ethical, customer service oriented, trustworthy individuals are becoming harder to find. The corporate office needs to change the management first and foremost. How a place is run or operated starts w/the management. And I would give them a D grade. This place will only get worse if the corporate does not bring in new management. Is it any wonder why there is such a high employee turnover rate at this particular Extended Stay. 
-1. I was given a room, where the bed was infested w/bed bugs. I had never experienced in my life and suffered for a few weeks, after bringing it to the attention of the manager and front desk. Nothing was done, until I had literally bed bugs crawling all over and they come and checked it out,...I moved to Texas and was looking for a safe, clean, quiet place to stay before I find an apt. to lease and decided to stay at this Extended Stay near Six Flags. I have stayed at several Extended Stays in different states and must say that I was extremely disappointed by many things at this particular location. I am not one to whine and complain about little things but the front desk is rude, unpleasant to deal with, dishonest, not there to assist you when you need them. It all starts w/the management of this place. It is a sad reflection of the times we live in, as good, ethical, customer service oriented, trustworthy individuals are becoming harder to find. The corporate office needs to change the management first and foremost. How a place is run or operated starts w/the management. And I would give them a D grade. This place will only get worse if the corporate does not bring in new management. Is it any wonder why there is such a high employee turnover rate at this particular Extended Stay. 1. I was given a room, where the bed was infested w/bed bugs. I had never experienced in my life and suffered for a few weeks, after bringing it to the attention of the manager and front desk. Nothing was done, until I had literally bed bugs crawling all over and they come and checked it out, with a torch and said I needed to move asap. This should have been done right away, when I informed them. 2. The high turnover rate means that no one wants to stay, once they are hired and find out how bad it is working there. Bring is pleasant new employees, who are eager and ready to assist guest, who pay for their salaries. Pay the employees well, so that they are fairly compensated and stay long. Some employees have been rude, disrespectful, downright bad attitudes, and unhelpful, which is unacceptable to a guest who has paid to stay there. 3. The place is right next to a new freeway being built as we speak and the noise is too loud, the dust and dirt is all over our cars parked each day, and there are construction crews staying there, so they leave very early and come back in the evening, with dirty shoes and mud and dirt, all over the hallway carpets, trash in the stairways and elevators. It needs to be vacuumed, cleaned, mopped each day, so the place looks presentable. They are short on employees and cut corners which only makes the place look dilapidated. 4. The lack of security or closed circuit TV in all areas, which makes it an easy target for thieves...MoreShow less</t>
+1. I was given a room, where the bed was infested w/bed bugs. I had never experienced in my life and suffered for a few weeks, after bringing it to the attention of the manager and front desk. Nothing was done, until I had literally bed bugs crawling all over and they come and checked it out,...I moved to Texas and was looking for a safe, clean, quiet place to stay before I find an apt. to lease and decided to stay at this Extended Stay near Six Flags. I have stayed at several Extended Stays in different states and must say that I was extremely disappointed by many things at this particular location. I am not one to whine and complain about little things but the front desk is rude, unpleasant to deal with, dishonest, not there to assist you when you need them. It all starts w/the management of this place. It is a sad reflection of the times we live in, as good, ethical, customer service oriented, trustworthy individuals are becoming harder to find. The corporate office needs to change the management first and foremost. How a place is run or operated starts w/the management. And I would give them a D grade. This place will only get worse if the corporate does not bring in new management. Is it any wonder why there is such a high employee turnover rate at this particular Extended Stay. 1. I was given a room, where the bed was infested w/bed bugs. I had never experienced in my life and suffered for a few weeks, after bringing it to the attention of the manager and front desk. Nothing was done, until I had literally bed bugs crawling all over and they come and checked it out, with a torch and said I needed to move asap. This should have been done right away, when I informed them. 2. The high turnover rate means that no one wants to stay, once they are hired and find out how bad it is working there. Bring is pleasant new employees, who are eager and ready to assist guest, who pay for their salaries. Pay the employees well, so that they are fairly compensated and stay long. Some employees have been rude, disrespectful, downright bad attitudes, and unhelpful, which is unacceptable to a guest who has paid to stay there. 3. The place is right next to a new freeway being built as we speak and the noise is too loud, the dust and dirt is all over our cars parked each day, and there are construction crews staying there, so they leave very early and come back in the evening, with dirty shoes and mud and dirt, all over the hallway carpets, trash in the stairways and elevators. It needs to be vacuumed, cleaned, mopped each day, so the place looks presentable. They are short on employees and cut corners which only makes the place look dilapidated. 4. The lack of security or closed circuit TV in all areas, which makes it an easy target for thieves and crooks. My car antenna was stolen when I parked on the side of the bldg. parking area. I have to keep my eye on my car several times a day. There was a shooting in the lobby last Sunday and several police cars outside the front door. I called the front desk to inquire, but she lied and beat around the bush, and generic answers. I was woken up at 2am when I heard 2 loud voices outside my door and when I opened it, realized there were 2 police officers with their guns drawn, looking for a crook, in the room across from my room. There are many guest staying here, who have been evicted, thrown out, downright loud late at night, without any disregard for the other guests, and yet the front desk does nothing about it. They brush it off and pass the buck, instead of going and telling that guest to keep the volume down, to not shout and make loud noises late at night, as other guests are already sleeping and need a good night's rest. 5. The cleaning ladies who come to clean your room each week, seem to change so often, as the turnover rate is so high. In the few months I have stayed here, I've had nearly 8 or 9 ladies come and clean my room. Very few last for more than a few months and they they leave. Who will want to stay on when you pay them low and not treat them well. They will find a better paying job and leave and then the mgmt. has to hire new people and train them all over again. Penny wise and pound foolish. 6. This Extended Stay is sorely lacking in daily maintenance and upkeep. The place, needs to be vacuumed, cleaned, mopped, each day. And hallway carpets need to be steam cleaned as there are stains, tears, marks, dirt, all over. The workout room needs to be cleaned, scrubbed, and machines maintained daily. They are cutting corners everywhere and that is why it will only go from bad to worse. 7. This place advertises FREE INTERNET included, but it is so slow, that you hardly can download anything, as they want to entice you to pay another $3.99 each day to upgrade to a faster speed.MoreShow less</t>
   </si>
   <si>
     <t>00esa, General Manager at Extended Stay America - Arlington - Six Flags, responded to this reviewResponded June 2, 2017</t>
@@ -1287,10 +1394,7 @@
   </si>
   <si>
     <t>I moved to Texas and was looking for a safe, clean, quiet place to stay before I find an apt. to lease and decided to stay at this Extended Stay near Six Flags. I have stayed at several Extended Stays in different states and must say that I was extremely disappointed by many things at this particular location. I am not one to whine and complain about little things but the front desk is rude, unpleasant to deal with, dishonest, not there to assist you when you need them. It all starts w/the management of this place. It is a sad reflection of the times we live in, as good, ethical, customer service oriented, trustworthy individuals are becoming harder to find. The corporate office needs to change the management first and foremost. How a place is run or operated starts w/the management. And I would give them a D grade. This place will only get worse if the corporate does not bring in new management. Is it any wonder why there is such a high employee turnover rate at this particular Extended Stay. 
-1. I was given a room, where the bed was infested w/bed bugs. I had never experienced in my life and suffered for a few weeks, after bringing it to the attention of the manager and front desk. Nothing was done, until I had literally bed bugs crawling all over and they come and checked it out,...I moved to Texas and was looking for a safe, clean, quiet place to stay before I find an apt. to lease and decided to stay at this Extended Stay near Six Flags. I have stayed at several Extended Stays in different states and must say that I was extremely disappointed by many things at this particular location. I am not one to whine and complain about little things but the front desk is rude, unpleasant to deal with, dishonest, not there to assist you when you need them. It all starts w/the management of this place. It is a sad reflection of the times we live in, as good, ethical, customer service oriented, trustworthy individuals are becoming harder to find. The corporate office needs to change the management first and foremost. How a place is run or operated starts w/the management. And I would give them a D grade. This place will only get worse if the corporate does not bring in new management. Is it any wonder why there is such a high employee turnover rate at this particular Extended Stay. 1. I was given a room, where the bed was infested w/bed bugs. I had never experienced in my life and suffered for a few weeks, after bringing it to the attention of the manager and front desk. Nothing was done, until I had literally bed bugs crawling all over and they come and checked it out, with a torch and said I needed to move asap. This should have been done right away, when I informed them. 2. The high turnover rate means that no one wants to stay, once they are hired and find out how bad it is working there. Bring is pleasant new employees, who are eager and ready to assist guest, who pay for their salaries. Pay the employees well, so that they are fairly compensated and stay long. Some employees have been rude, disrespectful, downright bad attitudes, and unhelpful, which is unacceptable to a guest who has paid to stay there. 3. The place is right next to a new freeway being built as we speak and the noise is too loud, the dust and dirt is all over our cars parked each day, and there are construction crews staying there, so they leave very early and come back in the evening, with dirty shoes and mud and dirt, all over the hallway carpets, trash in the stairways and elevators. It needs to be vacuumed, cleaned, mopped each day, so the place looks presentable. They are short on employees and cut corners which only makes the place look dilapidated. 4. The lack of security or closed circuit TV in all areas, which makes it an easy target for thieves...More</t>
-  </si>
-  <si>
-    <t>Daniel B</t>
+1. I was given a room, where the bed was infested w/bed bugs. I had never experienced in my life and suffered for a few weeks, after bringing it to the attention of the manager and front desk. Nothing was done, until I had literally bed bugs crawling all over and they come and checked it out,...I moved to Texas and was looking for a safe, clean, quiet place to stay before I find an apt. to lease and decided to stay at this Extended Stay near Six Flags. I have stayed at several Extended Stays in different states and must say that I was extremely disappointed by many things at this particular location. I am not one to whine and complain about little things but the front desk is rude, unpleasant to deal with, dishonest, not there to assist you when you need them. It all starts w/the management of this place. It is a sad reflection of the times we live in, as good, ethical, customer service oriented, trustworthy individuals are becoming harder to find. The corporate office needs to change the management first and foremost. How a place is run or operated starts w/the management. And I would give them a D grade. This place will only get worse if the corporate does not bring in new management. Is it any wonder why there is such a high employee turnover rate at this particular Extended Stay. 1. I was given a room, where the bed was infested w/bed bugs. I had never experienced in my life and suffered for a few weeks, after bringing it to the attention of the manager and front desk. Nothing was done, until I had literally bed bugs crawling all over and they come and checked it out, with a torch and said I needed to move asap. This should have been done right away, when I informed them. 2. The high turnover rate means that no one wants to stay, once they are hired and find out how bad it is working there. Bring is pleasant new employees, who are eager and ready to assist guest, who pay for their salaries. Pay the employees well, so that they are fairly compensated and stay long. Some employees have been rude, disrespectful, downright bad attitudes, and unhelpful, which is unacceptable to a guest who has paid to stay there. 3. The place is right next to a new freeway being built as we speak and the noise is too loud, the dust and dirt is all over our cars parked each day, and there are construction crews staying there, so they leave very early and come back in the evening, with dirty shoes and mud and dirt, all over the hallway carpets, trash in the stairways and elevators. It needs to be vacuumed, cleaned, mopped each day, so the place looks presentable. They are short on employees and cut corners which only makes the place look dilapidated. 4. The lack of security or closed circuit TV in all areas, which makes it an easy target for thieves and crooks. My car antenna was stolen when I parked on the side of the bldg. parking area. I have to keep my eye on my car several times a day. There was a shooting in the lobby last Sunday and several police cars outside the front door. I called the front desk to inquire, but she lied and beat around the bush, and generic answers. I was woken up at 2am when I heard 2 loud voices outside my door and when I opened it, realized there were 2 police officers with their guns drawn, looking for a crook, in the room across from my room. There are many guest staying here, who have been evicted, thrown out, downright loud late at night, without any disregard for the other guests, and yet the front desk does nothing about it. They brush it off and pass the buck, instead of going and telling that guest to keep the volume down, to not shout and make loud noises late at night, as other guests are already sleeping and need a good night's rest. 5. The cleaning ladies who come to clean your room each week, seem to change so often, as the turnover rate is so high. In the few months I have stayed here, I've had nearly 8 or 9 ladies come and clean my room. Very few last for more than a few months and they they leave. Who will want to stay on when you pay them low and not treat them well. They will find a better paying job and leave and then the mgmt. has to hire new people and train them all over again. Penny wise and pound foolish. 6. This Extended Stay is sorely lacking in daily maintenance and upkeep. The place, needs to be vacuumed, cleaned, mopped, each day. And hallway carpets need to be steam cleaned as there are stains, tears, marks, dirt, all over. The workout room needs to be cleaned, scrubbed, and machines maintained daily. They are cutting corners everywhere and that is why it will only go from bad to worse. 7. This place advertises FREE INTERNET included, but it is so slow, that you hardly can download anything, as they want to entice you to pay another $3.99 each day to upgrade to a faster speed.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r485602753-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -1317,9 +1421,6 @@
     <t>The room is nice and everything works.I didn't like they didn't clean the room in between my 2 nights there, not that it was needed, but I was not expecting that. I always do my bed at home, it is weird to go to a hotel and find your bed the way you left in the morning. They should have told they have a fee to clean the bedroom, or that they just clean once a week, as I was told later in the reception when I was asking about that.The breakfast has oatmeal, granola bars, muffins and coffee/hot water. Just that.More</t>
   </si>
   <si>
-    <t>jcoats11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r478646692-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1347,9 +1448,6 @@
     <t>Deadbolt lock looked freshly soldered off or door busted in. Door didn't shut all of the way. Strong smoke, pet and pee odors in the hallways, stairwells and the elevator. Pretty much everywhere. Furniture, kitchen and bathroom, pretty much everything in the room looks like it was made in the 60s. All old and gross. Sketchy people in and out of the hotel all of the time and hanging out in the parking lot. Never felt safe. Wanted to leave but it was the only place in town available last minute.We told the front desk about the issue and all they did was give me a receipt showing the $100 that was put back on my card which we got back anyway at check out. I was furious but wanted to get the heck out of dodge, felt uncomfortable in the lobby, so we figured we deal with it later. Breakfast is a granola bar and coffee that was empty and hot water for tea. Joke. $150 bucks for a room at this hotel is a rip off. I would rather have slept in my car.More</t>
   </si>
   <si>
-    <t>Robert Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r464423035-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1377,9 +1475,6 @@
     <t>Noisy hotel. Lot of people in and out at all hours of the night. No front desk person so no monitoring of who came me went. Never felt safe as there always was someone loitering outside at night. Lot of broken fixtures and switches in the room. More</t>
   </si>
   <si>
-    <t>Audriana K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r458997046-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1407,9 +1502,6 @@
     <t>I stayed here for three nights while in Arlington. There were creepy people hanging out in the parking lot, a man even approached me walking to my car alone after checking in, and there was a strong smell of smoke in the lobby and room. I didn't really move around in the room much after seeing a rat trap, because of my fear of rats but I wasn't there most of the day so it didn't both me much. The Police were also there one night after I got off work, but what really made my experience bad was the hair and used towel that was I found in the tub. Ruined my whole stay. More</t>
   </si>
   <si>
-    <t>Dianne K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r458950429-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1431,9 +1523,6 @@
     <t>I stay in many hotels for business and this one is a work in progress. They are in the process of upgrading and fixing this place up. The staff here is very friendly and will help with whatever you need to make your stay more comfortable. Salaia (sorry if I spelled it wrong) is the asst manager and she is the bomb!!! There are some little problems with our room but they are doing their best to fix what they can. The maintenance man is very nice but I think has a bit too much to do for one person. I would recommend this place and would definitely stay here again. More</t>
   </si>
   <si>
-    <t>cruhl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r446261194-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1461,9 +1550,6 @@
     <t>Absolutely the worst hotel I have ever stayed in. It took the housekeeping staff forever to clean my room. We had to call the front desk about it and speak  to the manager about it who did nothing. I even called the corporate office to get involved. I stayed at the hotel for 85 nights and not once were my shower walls ever cleaned. When my toilet was clogged they promised to send someone to fix it but never did. I had to go to the front desk and get a plunger myself. Ridiculous!  Some mornings the to go food was not out in time because they claimed they didn't get deliveries in time. The staff changed so many times and for a long time there was no manager on site. I do not know how they stay in business. No hotel chain should ever treat their guests this way. They also messed up the billing so many times. Do yourself a big favor and stay somewhere else.More</t>
   </si>
   <si>
-    <t>lisagage02</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r443628288-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1488,9 +1574,6 @@
     <t>I've been at this location for over 5 months so I have seen staff  come and go, but  through it all I can always depend  on Yvette, she is truly the best housekeeper. Many of tims coming in after a hard day at works and running into Yvette  I am truly guaranteed a good laugh before retiring for the day even though I know she has been working from sun up to sundown she never seems to complain.More</t>
   </si>
   <si>
-    <t>Don G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r432388206-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1515,9 +1598,6 @@
     <t>I want to give a special thanks to front desk receptionist Karen and housekeeper Yvette for making my stay here feel very special and wanted to let them know that their hard work doesn't go unnoticed and will definitely be visiting again. More</t>
   </si>
   <si>
-    <t>jsneed71</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r431506486-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1542,9 +1622,6 @@
     <t>I was extremely dissappointed in my stay in fact i was so dissappointed that it ruined the whole weekend trip.i had intended on staying another nite untill i got into my room. First of all every other extended stay i have been at( which is a lot since i traveled extensively for my previous job) they have already had dishes,utensils, ETC. In kitchenette without requesting them and no one ever suggested that fact to me. Also one of the main reasons i chose this location was because the breakfast was supposed to be continental but instead was "grab-n-go" which is only muffins and granola bars....... Not breakfast to me lol. One coffee pot was empty and second was almost empty also the coffee that was in it was cold, No coffee creamer. Over all i was just not happy at all with this location and will not stay or recommend it to anyone in the future unless changes are made.More</t>
   </si>
   <si>
-    <t>Kandyrce W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r425884746-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1569,9 +1646,6 @@
     <t>First, let me start by saying the room was nice to began with until we had to plunge the toilet every time we used it. Nothing was done,  but given a plunger. Secondly,  for a no smoking hotel the entire second floor smelled like weed. Thirdly,  tons of guys hanging around out front smoking and very loud music.  No maid service EVER.  And finally, the staff except for Julie and the guy who works at night were the rudest I have ever come upon especially Karen and the day front desk personnel , when you can ever find them at the front desk and not in the back chatting it up,  you can hear them.  Guests never should have to yell to get your attention. Very snobby for a two star hotel. Poor,  poor customer service, example, my husband left his wallet in the room but they needed to see id to give him the key,  which that was OK,  but his wallet was in the room.  He told them where it was and asked if they could go get it to show them id. The mgr  refused and my family had to sit in the hallway for almost an hour until I got there.  Not a place to stay if you have kids and the kids might make noise.  God forbid if you ask for something ei plates,  wash cloths, blankets they're. Okay place,  horrible staff.More</t>
   </si>
   <si>
-    <t>rbackfan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r425402982-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1599,9 +1673,6 @@
     <t>this place was booked for me by priceline express deals. I will tell you that if priceline chooses this motel for you that you can expect a (one)very small bed, so if you have additional people in your party be prepared to bring your air mattress along (which we always do anyway). The rooms were clean enough I guess. I think it is pretty dumb to have a kitchen in a room and you do not have a single pot, pan, dish or eating utensil, so there is that. The parking is terrible if the motel is full and we stayed for 2 nights and when we went out during the day after the first nights stay, when we got back to the motel our key did not work to even get back in the motel, we had to walk all the way around to the front door where the lobby was at. They did take care of it in a very professional manner.  we was there for the Arkansas/texas a&amp;m game and they did provide shuttle service to the tune of 20.00 per person. I would suggest going to parking whiz and get parking...much cheaper...I got parking 1/2 mile from stadium for 23.00. I would only stay here again if hotwire or priceline picked this place for me, if I had to pick it I would probably stay somewhere else.More</t>
   </si>
   <si>
-    <t>james s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r422532096-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1626,9 +1697,6 @@
     <t>Was Greeted By Porsche and Yevette upon my arrivel with A warm welcome and was plesantly suprised with A good clean room.Is right across interstate frpm 6 flags enjoyed watching the rides i the afternoon also A nice shaded pool area to kick back and relax.Laundry has good machines  clothes compleatly dry on first round.Internet was good TV not bad. I was here for A week and can't express how much I enjoyed the Greetings from Yvette Porsche and Jasmine all treated me as I WAS PART OF THE FAMILY    THANKS GUYSMore</t>
   </si>
   <si>
-    <t>Kathryn A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r421627811-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1653,9 +1721,6 @@
     <t>This place I guess is for long term people essentially to live here. There is no clear signage inside so you can figure out where lobby or even elevators are until you are right next to it. The so called breakfast is muffins and granola bars....and wow coffee...are u kidding me. The whole front desk check in took forever and I booked it online. The bedding is so thin...tissue in bathroom looks like cardboard. Literally the tiniest shampoo I have ever seen in a hotel...and I travel alot. Rooms are nicely painted. I got a room with 2 beds and essentially the other bed is in another room with a door that closes so it was good for my teenage son to have some privacy and his own tv. I come to this area every couple of months to go to Six Flags and I will never choose this place again. More</t>
   </si>
   <si>
-    <t>mvm2812</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r419477790-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1680,9 +1745,6 @@
     <t>Horrible front desk and management! make you feel like crap if you didn't book directly from their web-site or expedia (their exact words!). Wouldn't grant your bed request without 3rd party booking company calling them even after confirming they have availability! No coffee maker, not a single ceramic cup or a plate or a single pair of utensils in a room with a kitchenette, full stove, fridge and a microwave, not even mentioning a single pot or a skillet (not like in other extended stay hotels I stayed in the past).  How are people supposed to cook in an extended stay hotel which is charging you almost $100 per night?! Aside from a moldy smell in a room and noise from the highway I-30 if your room is facing it, there are so negative things about this place. AND they'll charge your credit/debit card right away with $100 deposit ("for possible damages"), which you can expect to receive back in about 3 business days! And their "free breakfast" is just a joke with only coffee and packets of oatmeal, which you are possibly supposed to eat from a coffee cup with no hot water available! The only 2 good things are a location (6 flags, which didn't matter to me) and a clean room we stayed at.More</t>
   </si>
   <si>
-    <t>Jenny W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r417481041-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1707,9 +1769,6 @@
     <t>Booked online. Their prices had been bumped up because of the Cowboys game at the stadium. Checked in and only then did the front desk inform us there would be no housekeeping during our stay!  If we had cancelled it would have cost us!! No tea or coffee making facilities in our room or anywhere else. Breakfast was tea, coffee and granola bars! Air con was noisy. Gave keys to woman at reception on the way out and she didn't even raise her head when I spoke to her. So disappointed as we have stayed at 2 star hotels on our travels with absolutely no complaints. Overstated and under deliveredMore</t>
   </si>
   <si>
-    <t>Dale2Lisa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r416953018-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1734,9 +1793,6 @@
     <t>We were a bit hesitant to book here due to very mixed reviews. However, we decided to give it a try. Overall, we have been happy with our stay.Our room is very spacious and clean. We have stayed at other Extended stay America's, and this is the biggest room we have had. The room exceeded our expectations.I read multiple reviews where people mentioned smoke filled hallways. We didn't smell smoke in the hallways, however I will say there is an odd smell in the hallways. I have a strong sense of smell and it did come off as strong to me. That smell was not in our room at all though.We were happy with our stay and loved how close the hotel is to several restaurants, six flags, and the Cowboys stadium. We would stay here again!More</t>
   </si>
   <si>
-    <t>Ronald W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r410060248-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1761,9 +1817,6 @@
     <t>The employees are very helpful and prompt. Angela Malaney, General Manager, is very professional at all times. You could find her cleaning and taking of guest just like her staff. She don't mind getting hands dirty along with her employees.More</t>
   </si>
   <si>
-    <t>Mo C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r408278531-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1788,9 +1841,6 @@
     <t>Front desk personnel were very helpful. Initially had an issue with our room upon check in. Laurie called the room and asked if everything was ok I explained my issue,  soon after our room was changed. Porshe was also very helpful and very nice. As for housekeeping: YVETTE, my friends was the bomb diggity!  She was absolutely the best housekeeper I've had in a long time!  She is super sweet and a bundle of laughs!  Looking forward to seeing y'all again soon!The stadium is right there, Six Flags over Texas is directly across the road!More</t>
   </si>
   <si>
-    <t>Jon S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r405927891-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1815,9 +1865,6 @@
     <t>Great service and some of the best accommodations in the area. Coming back next month again for business and have already booked here.Angie made my visit the best.She really knows her job and the area.More</t>
   </si>
   <si>
-    <t>Ndubuisi A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r405513645-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1839,9 +1886,6 @@
     <t>I have to say that I usually don't do these reviews, but in this case I felt I Needed to.I stayed in the Extended stay America, in Arlington next to six flags, and they said it had been renovated, which from what I could see, was a new coat of paint, and bath tubs, and maybe carper replied in the rooms, but the smell in the hallways was awful. But what pushed me over the edge was seeing two Cockroaches in the rooms. I think they know they have a cockroach problem because I saw bait traps under the sink. More</t>
   </si>
   <si>
-    <t>Jasmine J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r403285082-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1866,9 +1910,6 @@
     <t>This was my first time staying at an extended stay hotel. The rooms were very nice. They were very clean. The lady at the front desk I think her name is ms. Karen she was super friendly and helpful. I. Will definitely go back. And recommend everyone to stay at extended stayMore</t>
   </si>
   <si>
-    <t>Brittany N Keyo... J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r401806624-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1893,9 +1934,6 @@
     <t>We live almost 2 hours from Hurricane Harbor &amp; for our children to fully enjoy a full day we wanted to drive up the day before &amp; let the the kids get a full night of sleep so they could get a full day of fun. We booked the room on Priceline just because it is easy for us. We got to the hotel and checked in with Porsche. As soon as we walked through the door she was all smiles and willing and ready to help. We ended up booking the wrong room on Priceline and was concerned because the room only had one bed. We expressed our concerns and immediately she tried to see if there was a room with two beds available. There was not, but she quickly said that the hotel has rollaway beds that she could get up to the room. We were so relieved and excited because we thought it was going to be one rough night. We went to the car to get our things and when we got to the room the rollaway bed was already in the room. The customer service she offered us was so refreshing. When we got in the room it was so nice and clean. We slept so good and the kids had such an awesome time at hurricane harbor the next day. We will definitely be staying at this hotel again and we hope that we...We live almost 2 hours from Hurricane Harbor &amp; for our children to fully enjoy a full day we wanted to drive up the day before &amp; let the the kids get a full night of sleep so they could get a full day of fun. We booked the room on Priceline just because it is easy for us. We got to the hotel and checked in with Porsche. As soon as we walked through the door she was all smiles and willing and ready to help. We ended up booking the wrong room on Priceline and was concerned because the room only had one bed. We expressed our concerns and immediately she tried to see if there was a room with two beds available. There was not, but she quickly said that the hotel has rollaway beds that she could get up to the room. We were so relieved and excited because we thought it was going to be one rough night. We went to the car to get our things and when we got to the room the rollaway bed was already in the room. The customer service she offered us was so refreshing. When we got in the room it was so nice and clean. We slept so good and the kids had such an awesome time at hurricane harbor the next day. We will definitely be staying at this hotel again and we hope that we can continue receiving great customer like the customer service we received from Porsche. More</t>
   </si>
   <si>
-    <t>Dustin L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r400218771-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1920,9 +1958,6 @@
     <t>Standard Stay America overall great stay and experience. Staff was friendly and helpful rooms were clean spacious stayed here for several days with not a single issue I would definitely come back here again.                More</t>
   </si>
   <si>
-    <t>Alyssa M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r398790849-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1947,9 +1982,6 @@
     <t>Just wanted say that the customer service displayed during my stay here was EXCELLENT. Karen was just awesome to my fiancé and I. She went above and beyond our expectations. We really appreciated her. Thank you for everything! I will be back again soon!More</t>
   </si>
   <si>
-    <t>Lisa S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r398177636-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1977,9 +2009,6 @@
     <t>Had a wonderful stay at this hotel.. Rooms were clean and modern.. Enjoyed the pool area..  Staff was professional and friendly.. Karen was very helpful and nice.. Good service We will definitely come again.. More</t>
   </si>
   <si>
-    <t>Phaedra H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r390844678-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2004,9 +2033,6 @@
     <t>Myself and my family just returned from a two night stay at Extended Stay America Six Flags. The staff was very nice. Everyone we encountered was accommodating. However the hotel itself is HORRIBLE. The entire building has a very offensive odor. It's a moldy, sour smell. Maybe they need new carpet. There were wasps inside our room. My husband killed 3. The air conditioner was leaking on the floor and the cover to the unit had been removed and left off when we arrived in the room. There were dirty towels in the bathroom. And lastly my kids saw a roach in the living area. Husband killed that too. Like I said the staff was accommodating and gave us a discount for all the troubles. But we will never return and I'd advise others to think twice before booking this one.More</t>
   </si>
   <si>
-    <t>mambr0se</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r389719548-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2031,9 +2057,6 @@
     <t>The room was filthy and had a horrible odor!!! Staff were less than friendly! Rooms were not ready at the check in time!! This was my first and last time to stay at the hotel chain!! The trash cans in the trash room were overflowing and there was trash all over the floor!!! I would never recommend this hotel to anyone!!!More</t>
   </si>
   <si>
-    <t>Steve M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r385937822-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2061,9 +2084,6 @@
     <t>The hotel was old and out dated,the room smelled,broken furniture. The pet deposit was outrageous 25 dollers a day plus tax, staff at hotel were rude. Had to wait 45 minutes to get checked into my room and it was after 3pm because the room was not ready as promised. I will never stay at this hotel chain ever again and would not recommend it to anyone.More</t>
   </si>
   <si>
-    <t>tle05</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r382482127-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2091,9 +2111,6 @@
     <t>The check in process was really slow.  They make you leave a $100 deposit and a copy of your driver license.  Also the rate they were going to charge me was higher than my reservation confirmation.  I book directly through Extended Stay. You think the rate would be correct.  The lady at the front desk changed it right away.  She was sweet.  The hotel looked a little run down but I was impressed with our room.  It was really big and look like it had been updated.  It was clean when we arrived.  The breakfast was lacking.  We went to get something to eat and there were a few apples and a few granola bars and some coffee.  We were a little disappointed.  Overall it was a good place to stay.More</t>
   </si>
   <si>
-    <t>Darryl O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r361464251-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2119,9 +2136,6 @@
   </si>
   <si>
     <t>We stayed here April 1st to April 4th 2016 for the wrestlemania weekend. What a great clean and friendly place. The staff were very helpful. I would recommend to anybody looking for a affordable and comtable stay.More</t>
-  </si>
-  <si>
-    <t>Angela C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r360794876-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -2138,15 +2152,12 @@
   <si>
     <t>My family and I needed to be in Arlington Apr 1st to 3rd for a tournament at the Arlington Convention Center. We normally stay at Candlewood Suites as we like to be able to cook instead of eating out the entire weekend. 
 The Candlewood was fully booked. I looked around for other hotels with similar set ups. I ran across Extended Stay America. While older reviews were not encouraging I was lulled by their website stating that the hotel had been completely renovated. Maybe 20 years ago. The hotel was spackle central and despite  all the signs stating that the hotel was 
-"smoke free," all I could smell was smoke. The check-in process was the SLOWEST I have ever gone through. They charged a $100 deposit. When I pointed out that there posted sign stated that only 3rd party reservations were supposed to be charged the deposit, I was prissily told that "oh, we have to charge Everybody." The deposit is refunded back to you in 3-5 days. They also asked for a copy of my driver's license which I have never had to provide for any other hotel. So we get through the check in process, we get to the room. The room had not been cleaned, the bed was unmade, there was a mess in the kitchen and a mess in the bathroom. I called down and they told me "well the records say that it was cleaned...My family and I needed to be in Arlington Apr 1st to 3rd for a tournament at the Arlington Convention Center. We normally stay at Candlewood Suites as we like to be able to cook instead of eating out the entire weekend. The Candlewood was fully booked. I looked around for other hotels with similar set ups. I ran across Extended Stay America. While older reviews were not encouraging I was lulled by their website stating that the hotel had been completely renovated. Maybe 20 years ago. The hotel was spackle central and despite  all the signs stating that the hotel was "smoke free," all I could smell was smoke. The check-in process was the SLOWEST I have ever gone through. They charged a $100 deposit. When I pointed out that there posted sign stated that only 3rd party reservations were supposed to be charged the deposit, I was prissily told that "oh, we have to charge Everybody." The deposit is refunded back to you in 3-5 days. They also asked for a copy of my driver's license which I have never had to provide for any other hotel. So we get through the check in process, we get to the room. The room had not been cleaned, the bed was unmade, there was a mess in the kitchen and a mess in the bathroom. I called down and they told me "well the records say that it was cleaned and housekeeping is gone".  They offered to see if there was another room but they were completly booked, for which I am supremely grateful.  What really ticked me off was there were no offers of either comping the room or lowering our room rate. Now Extended Stay says they have fully stocked rooms.  There was NOTHING, if I wanted a plate or utencils or anything I would have to traipse down to the first floor and pick up everything I would need.  That is absolutely ridiculous. To top everything else off, while the quoted rate for my reservation was somewhat high, the actual rate I was supposed to pay UP FRONT was ridiculously high. The check out process was long and filled with attitude. I made a request to have my copy of my driver's license given back to me, the front desk lady called her manager, complained in front of me and then grudgingly gave me back my copy. I am so happy that I was able to find another room at half of what I was being charged, in a hotel that is three times nicer than the Extended Stay. My children cheered when we left. I want to give a shout out to the front desk of the Candlewood Suites. When I called Candlewood hoping that they'd had a cancellation...MoreShow less</t>
+"smoke free," all I could smell was smoke. The check-in process was the SLOWEST I have ever gone through. They charged a $100 deposit. When I pointed out that there posted sign stated that only 3rd party reservations were supposed to be charged the deposit, I was prissily told that "oh, we have to charge Everybody." The deposit is refunded back to you in 3-5 days. They also asked for a copy of my driver's license which I have never had to provide for any other hotel. So we get through the check in process, we get to the room. The room had not been cleaned, the bed was unmade, there was a mess in the kitchen and a mess in the bathroom. I called down and they told me "well the records say that it was cleaned...My family and I needed to be in Arlington Apr 1st to 3rd for a tournament at the Arlington Convention Center. We normally stay at Candlewood Suites as we like to be able to cook instead of eating out the entire weekend. The Candlewood was fully booked. I looked around for other hotels with similar set ups. I ran across Extended Stay America. While older reviews were not encouraging I was lulled by their website stating that the hotel had been completely renovated. Maybe 20 years ago. The hotel was spackle central and despite  all the signs stating that the hotel was "smoke free," all I could smell was smoke. The check-in process was the SLOWEST I have ever gone through. They charged a $100 deposit. When I pointed out that there posted sign stated that only 3rd party reservations were supposed to be charged the deposit, I was prissily told that "oh, we have to charge Everybody." The deposit is refunded back to you in 3-5 days. They also asked for a copy of my driver's license which I have never had to provide for any other hotel. So we get through the check in process, we get to the room. The room had not been cleaned, the bed was unmade, there was a mess in the kitchen and a mess in the bathroom. I called down and they told me "well the records say that it was cleaned and housekeeping is gone".  They offered to see if there was another room but they were completly booked, for which I am supremely grateful.  What really ticked me off was there were no offers of either comping the room or lowering our room rate. Now Extended Stay says they have fully stocked rooms.  There was NOTHING, if I wanted a plate or utencils or anything I would have to traipse down to the first floor and pick up everything I would need.  That is absolutely ridiculous. To top everything else off, while the quoted rate for my reservation was somewhat high, the actual rate I was supposed to pay UP FRONT was ridiculously high. The check out process was long and filled with attitude. I made a request to have my copy of my driver's license given back to me, the front desk lady called her manager, complained in front of me and then grudgingly gave me back my copy. I am so happy that I was able to find another room at half of what I was being charged, in a hotel that is three times nicer than the Extended Stay. My children cheered when we left. I want to give a shout out to the front desk of the Candlewood Suites. When I called Candlewood hoping that they'd had a cancellation, they told me they were full but recommended a hotel that was close by.MoreShow less</t>
   </si>
   <si>
     <t>My family and I needed to be in Arlington Apr 1st to 3rd for a tournament at the Arlington Convention Center. We normally stay at Candlewood Suites as we like to be able to cook instead of eating out the entire weekend. 
 The Candlewood was fully booked. I looked around for other hotels with similar set ups. I ran across Extended Stay America. While older reviews were not encouraging I was lulled by their website stating that the hotel had been completely renovated. Maybe 20 years ago. The hotel was spackle central and despite  all the signs stating that the hotel was 
-"smoke free," all I could smell was smoke. The check-in process was the SLOWEST I have ever gone through. They charged a $100 deposit. When I pointed out that there posted sign stated that only 3rd party reservations were supposed to be charged the deposit, I was prissily told that "oh, we have to charge Everybody." The deposit is refunded back to you in 3-5 days. They also asked for a copy of my driver's license which I have never had to provide for any other hotel. So we get through the check in process, we get to the room. The room had not been cleaned, the bed was unmade, there was a mess in the kitchen and a mess in the bathroom. I called down and they told me "well the records say that it was cleaned...My family and I needed to be in Arlington Apr 1st to 3rd for a tournament at the Arlington Convention Center. We normally stay at Candlewood Suites as we like to be able to cook instead of eating out the entire weekend. The Candlewood was fully booked. I looked around for other hotels with similar set ups. I ran across Extended Stay America. While older reviews were not encouraging I was lulled by their website stating that the hotel had been completely renovated. Maybe 20 years ago. The hotel was spackle central and despite  all the signs stating that the hotel was "smoke free," all I could smell was smoke. The check-in process was the SLOWEST I have ever gone through. They charged a $100 deposit. When I pointed out that there posted sign stated that only 3rd party reservations were supposed to be charged the deposit, I was prissily told that "oh, we have to charge Everybody." The deposit is refunded back to you in 3-5 days. They also asked for a copy of my driver's license which I have never had to provide for any other hotel. So we get through the check in process, we get to the room. The room had not been cleaned, the bed was unmade, there was a mess in the kitchen and a mess in the bathroom. I called down and they told me "well the records say that it was cleaned and housekeeping is gone".  They offered to see if there was another room but they were completly booked, for which I am supremely grateful.  What really ticked me off was there were no offers of either comping the room or lowering our room rate. Now Extended Stay says they have fully stocked rooms.  There was NOTHING, if I wanted a plate or utencils or anything I would have to traipse down to the first floor and pick up everything I would need.  That is absolutely ridiculous. To top everything else off, while the quoted rate for my reservation was somewhat high, the actual rate I was supposed to pay UP FRONT was ridiculously high. The check out process was long and filled with attitude. I made a request to have my copy of my driver's license given back to me, the front desk lady called her manager, complained in front of me and then grudgingly gave me back my copy. I am so happy that I was able to find another room at half of what I was being charged, in a hotel that is three times nicer than the Extended Stay. My children cheered when we left. I want to give a shout out to the front desk of the Candlewood Suites. When I called Candlewood hoping that they'd had a cancellation...More</t>
-  </si>
-  <si>
-    <t>Detra V</t>
+"smoke free," all I could smell was smoke. The check-in process was the SLOWEST I have ever gone through. They charged a $100 deposit. When I pointed out that there posted sign stated that only 3rd party reservations were supposed to be charged the deposit, I was prissily told that "oh, we have to charge Everybody." The deposit is refunded back to you in 3-5 days. They also asked for a copy of my driver's license which I have never had to provide for any other hotel. So we get through the check in process, we get to the room. The room had not been cleaned, the bed was unmade, there was a mess in the kitchen and a mess in the bathroom. I called down and they told me "well the records say that it was cleaned...My family and I needed to be in Arlington Apr 1st to 3rd for a tournament at the Arlington Convention Center. We normally stay at Candlewood Suites as we like to be able to cook instead of eating out the entire weekend. The Candlewood was fully booked. I looked around for other hotels with similar set ups. I ran across Extended Stay America. While older reviews were not encouraging I was lulled by their website stating that the hotel had been completely renovated. Maybe 20 years ago. The hotel was spackle central and despite  all the signs stating that the hotel was "smoke free," all I could smell was smoke. The check-in process was the SLOWEST I have ever gone through. They charged a $100 deposit. When I pointed out that there posted sign stated that only 3rd party reservations were supposed to be charged the deposit, I was prissily told that "oh, we have to charge Everybody." The deposit is refunded back to you in 3-5 days. They also asked for a copy of my driver's license which I have never had to provide for any other hotel. So we get through the check in process, we get to the room. The room had not been cleaned, the bed was unmade, there was a mess in the kitchen and a mess in the bathroom. I called down and they told me "well the records say that it was cleaned and housekeeping is gone".  They offered to see if there was another room but they were completly booked, for which I am supremely grateful.  What really ticked me off was there were no offers of either comping the room or lowering our room rate. Now Extended Stay says they have fully stocked rooms.  There was NOTHING, if I wanted a plate or utencils or anything I would have to traipse down to the first floor and pick up everything I would need.  That is absolutely ridiculous. To top everything else off, while the quoted rate for my reservation was somewhat high, the actual rate I was supposed to pay UP FRONT was ridiculously high. The check out process was long and filled with attitude. I made a request to have my copy of my driver's license given back to me, the front desk lady called her manager, complained in front of me and then grudgingly gave me back my copy. I am so happy that I was able to find another room at half of what I was being charged, in a hotel that is three times nicer than the Extended Stay. My children cheered when we left. I want to give a shout out to the front desk of the Candlewood Suites. When I called Candlewood hoping that they'd had a cancellation, they told me they were full but recommended a hotel that was close by.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r355744141-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -2161,15 +2172,12 @@
     <t>My visit to Extended Stay America</t>
   </si>
   <si>
-    <t>My visit to Extended Stay America in Arlington Texas has been great...☺ the staff at this location is the best... Mrs. Karen Mrs. Kendra and Mrs.Yvette are very professional, friendly and helpful individuals. I would very much recommend this location for your next trip to Arlington Texas. The rooms are very nice, clean and cozy. And there are plenty of restaurants nearby and lots of fun places to take your family.</t>
+    <t>My visit to Extended Stay America in Arlington Texas has been great... the staff at this location is the best... Mrs. Karen Mrs. Kendra and Mrs.Yvette are very professional, friendly and helpful individuals. I would very much recommend this location for your next trip to Arlington Texas. The rooms are very nice, clean and cozy. And there are plenty of restaurants nearby and lots of fun places to take your family.</t>
   </si>
   <si>
     <t>December 2015</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r351401394-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2197,9 +2205,6 @@
     <t>Worst hotel, I have ever stayed at. The first night a dog barked for hours, in the room next to mine. I had to call security to get it to stop.I found a wallet the next morning in the parking lot and turned it in to the front desk. The person there acted like it was an inconvenience to try to call the owner of it. At this point , I doubt they made any effort to return it, to the owner.  The following evening,  came back to keys unprogrammed. It took 3 times for them to get the programming right. The staff at the counter was nasty. I ask for the manager and was told there wasn't one. If I wanted to speak to ome, I should call the general number for the hotel chain. They refuse to answer the phone at the front desk. The rooms are supposed to have dishes and utensils,  mine doesn't. The shampoo bottle was empty, that they supplied. The floors are sticky. I have spoke to several others here and there experience isn't any better. More</t>
   </si>
   <si>
-    <t>superpero</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r350388632-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2218,9 +2223,6 @@
     <t>I chose this hotel because they have kitchenettes in every room.  After checking in, I was extremely satisfied with the room.  Wood floors, a sofa bed, and a full size refrigerator.  I then discovered the remote control didn't work.  I called the front desk and the Clerk said they would bring me new batteries. Nobody showed up so I walked to the lobby for the batteries.  It took 3 trips to get a working remote. I then was told there were no dishes, pots or silverware to use.  I was forced to eat out every meal.  The Clerk refused to let me speak to a Manager.  On the 2nd day, a Supervisor called me but there were no remedies to solve any problems.  The room and location were nice but  it didn't seem to be a friendly place to me.More</t>
   </si>
   <si>
-    <t>Jeff M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r344867722-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2234,9 +2236,6 @@
   </si>
   <si>
     <t>Find someplace else. Smoke stench throughout the hotel.  Many seem to be living there full time.  Dirty rooms, rude front desk.  I stayed for three hours and checked out. Took me two days to get my money back. Had to call corporate office.</t>
-  </si>
-  <si>
-    <t>NNWhite</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r328204962-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -2255,7 +2254,7 @@
 We had to stay for an extended time unfortunately. From the time we checked in we had problems. 
 When I made the reservation I added my husband's name. He was still given a hard time at check-in because they said he wasn't on the reservation. 
 Our room wasn't what was originally requested in the reservation. I Complained to the manager about my room being incorrect. She did nothing to accommodate us, (we were told they were booked up for the night) but when I showed them a picture of the big glob of hair I found in the bed.....we were moved to the room I originally requested all of a sudden. 
-Then an access card was given to a unknown man, that opened the door to our room. The room which is supposed to be non smoking was covered in smoke aroma. This place was infested with roaches and cockroaches. The bed linen had hair all over it. The bulbs were out in the lamps, and the microwave didn't work. Notified the front desk about the bulbs needing replaced...they stated they would bring us some. Glad we didn't hold our breath. So I went to the front desk to get the status on the bulbs and was given light bulbs so I can replace them myself. Was told maintenance would stop by to see what was wrong with the microwave. Again glad we...Please avoid this place if you can. We had to stay for an extended time unfortunately. From the time we checked in we had problems. When I made the reservation I added my husband's name. He was still given a hard time at check-in because they said he wasn't on the reservation. Our room wasn't what was originally requested in the reservation. I Complained to the manager about my room being incorrect. She did nothing to accommodate us, (we were told they were booked up for the night) but when I showed them a picture of the big glob of hair I found in the bed.....we were moved to the room I originally requested all of a sudden. Then an access card was given to a unknown man, that opened the door to our room. The room which is supposed to be non smoking was covered in smoke aroma. This place was infested with roaches and cockroaches. The bed linen had hair all over it. The bulbs were out in the lamps, and the microwave didn't work. Notified the front desk about the bulbs needing replaced...they stated they would bring us some. Glad we didn't hold our breath. So I went to the front desk to get the status on the bulbs and was given light bulbs so I can replace them myself. Was told maintenance would stop by to see what was wrong with the microwave. Again glad we didn't hold our breath because they did nothing about the microwave. The rooms, hallway, and the elevator was covered in filth all the time. Trash juice was always in the elevator. When asked for a stopper for the kitchen sink, we were given a rusty used stopper. So we went and purchased our own from Walmart. We also used our own personal  microwave since no one never fixed the one in the room. Now this tops it, we decided to wash the linen, and spray behind the bed for bugs and found a window screen under our mattress. No words!!The staff are very unprofessional and especially Tammy. She is rude and she doesn't know how to handle customers. She was sent to clean house...because the property was definitely not ran right. But she was making customers pay for management mistakes. Other staff will tell you what you owe, believing they know their job; you pay what they tell you, but Tammy comes along to inform you that you are in violation of their payment policy and will need to pay an additional, different amount or get out.I've been trying to contact corporate for a week now, because  they didn't honor their so called perks  they offer 'stay more save more discount'.  When we...MoreShow less</t>
+Then an access card was given to a unknown man, that opened the door to our room. The room which is supposed to be non smoking was covered in smoke aroma. This place was infested with roaches and cockroaches. The bed linen had hair all over it. The bulbs were out in the lamps, and the microwave didn't work. Notified the front desk about the bulbs needing replaced...they stated they would bring us some. Glad we didn't hold our breath. So I went to the front desk to get the status on the bulbs and was given light bulbs so I can replace them myself. Was told maintenance would stop by to see what was wrong with the microwave. Again glad we...Please avoid this place if you can. We had to stay for an extended time unfortunately. From the time we checked in we had problems. When I made the reservation I added my husband's name. He was still given a hard time at check-in because they said he wasn't on the reservation. Our room wasn't what was originally requested in the reservation. I Complained to the manager about my room being incorrect. She did nothing to accommodate us, (we were told they were booked up for the night) but when I showed them a picture of the big glob of hair I found in the bed.....we were moved to the room I originally requested all of a sudden. Then an access card was given to a unknown man, that opened the door to our room. The room which is supposed to be non smoking was covered in smoke aroma. This place was infested with roaches and cockroaches. The bed linen had hair all over it. The bulbs were out in the lamps, and the microwave didn't work. Notified the front desk about the bulbs needing replaced...they stated they would bring us some. Glad we didn't hold our breath. So I went to the front desk to get the status on the bulbs and was given light bulbs so I can replace them myself. Was told maintenance would stop by to see what was wrong with the microwave. Again glad we didn't hold our breath because they did nothing about the microwave. The rooms, hallway, and the elevator was covered in filth all the time. Trash juice was always in the elevator. When asked for a stopper for the kitchen sink, we were given a rusty used stopper. So we went and purchased our own from Walmart. We also used our own personal  microwave since no one never fixed the one in the room. Now this tops it, we decided to wash the linen, and spray behind the bed for bugs and found a window screen under our mattress. No words!!The staff are very unprofessional and especially Tammy. She is rude and she doesn't know how to handle customers. She was sent to clean house...because the property was definitely not ran right. But she was making customers pay for management mistakes. Other staff will tell you what you owe, believing they know their job; you pay what they tell you, but Tammy comes along to inform you that you are in violation of their payment policy and will need to pay an additional, different amount or get out.I've been trying to contact corporate for a week now, because  they didn't honor their so called perks  they offer 'stay more save more discount'.  When we checked out ....we were told that because we extended our stay --and we didn't make a new reservation our 'perk' was only applied to the first week we stayed there not the entire 3 months we were there. This company is deceptive and they do not value their guest or honor their offers. I will never stay at their property again and warn anybody else not to. They will take your money and guest are not their priority. Even the manager herself stated it was mismanaged. Says a lot! Below are pictures of hair found in the sheets. The window screen under our mattress, and the stains on the bathroom vanity.MoreShow less</t>
   </si>
   <si>
     <t>July 2015</t>
@@ -2271,10 +2270,7 @@
 We had to stay for an extended time unfortunately. From the time we checked in we had problems. 
 When I made the reservation I added my husband's name. He was still given a hard time at check-in because they said he wasn't on the reservation. 
 Our room wasn't what was originally requested in the reservation. I Complained to the manager about my room being incorrect. She did nothing to accommodate us, (we were told they were booked up for the night) but when I showed them a picture of the big glob of hair I found in the bed.....we were moved to the room I originally requested all of a sudden. 
-Then an access card was given to a unknown man, that opened the door to our room. The room which is supposed to be non smoking was covered in smoke aroma. This place was infested with roaches and cockroaches. The bed linen had hair all over it. The bulbs were out in the lamps, and the microwave didn't work. Notified the front desk about the bulbs needing replaced...they stated they would bring us some. Glad we didn't hold our breath. So I went to the front desk to get the status on the bulbs and was given light bulbs so I can replace them myself. Was told maintenance would stop by to see what was wrong with the microwave. Again glad we...Please avoid this place if you can. We had to stay for an extended time unfortunately. From the time we checked in we had problems. When I made the reservation I added my husband's name. He was still given a hard time at check-in because they said he wasn't on the reservation. Our room wasn't what was originally requested in the reservation. I Complained to the manager about my room being incorrect. She did nothing to accommodate us, (we were told they were booked up for the night) but when I showed them a picture of the big glob of hair I found in the bed.....we were moved to the room I originally requested all of a sudden. Then an access card was given to a unknown man, that opened the door to our room. The room which is supposed to be non smoking was covered in smoke aroma. This place was infested with roaches and cockroaches. The bed linen had hair all over it. The bulbs were out in the lamps, and the microwave didn't work. Notified the front desk about the bulbs needing replaced...they stated they would bring us some. Glad we didn't hold our breath. So I went to the front desk to get the status on the bulbs and was given light bulbs so I can replace them myself. Was told maintenance would stop by to see what was wrong with the microwave. Again glad we didn't hold our breath because they did nothing about the microwave. The rooms, hallway, and the elevator was covered in filth all the time. Trash juice was always in the elevator. When asked for a stopper for the kitchen sink, we were given a rusty used stopper. So we went and purchased our own from Walmart. We also used our own personal  microwave since no one never fixed the one in the room. Now this tops it, we decided to wash the linen, and spray behind the bed for bugs and found a window screen under our mattress. No words!!The staff are very unprofessional and especially Tammy. She is rude and she doesn't know how to handle customers. She was sent to clean house...because the property was definitely not ran right. But she was making customers pay for management mistakes. Other staff will tell you what you owe, believing they know their job; you pay what they tell you, but Tammy comes along to inform you that you are in violation of their payment policy and will need to pay an additional, different amount or get out.I've been trying to contact corporate for a week now, because  they didn't honor their so called perks  they offer 'stay more save more discount'.  When we...More</t>
-  </si>
-  <si>
-    <t>Doug S</t>
+Then an access card was given to a unknown man, that opened the door to our room. The room which is supposed to be non smoking was covered in smoke aroma. This place was infested with roaches and cockroaches. The bed linen had hair all over it. The bulbs were out in the lamps, and the microwave didn't work. Notified the front desk about the bulbs needing replaced...they stated they would bring us some. Glad we didn't hold our breath. So I went to the front desk to get the status on the bulbs and was given light bulbs so I can replace them myself. Was told maintenance would stop by to see what was wrong with the microwave. Again glad we...Please avoid this place if you can. We had to stay for an extended time unfortunately. From the time we checked in we had problems. When I made the reservation I added my husband's name. He was still given a hard time at check-in because they said he wasn't on the reservation. Our room wasn't what was originally requested in the reservation. I Complained to the manager about my room being incorrect. She did nothing to accommodate us, (we were told they were booked up for the night) but when I showed them a picture of the big glob of hair I found in the bed.....we were moved to the room I originally requested all of a sudden. Then an access card was given to a unknown man, that opened the door to our room. The room which is supposed to be non smoking was covered in smoke aroma. This place was infested with roaches and cockroaches. The bed linen had hair all over it. The bulbs were out in the lamps, and the microwave didn't work. Notified the front desk about the bulbs needing replaced...they stated they would bring us some. Glad we didn't hold our breath. So I went to the front desk to get the status on the bulbs and was given light bulbs so I can replace them myself. Was told maintenance would stop by to see what was wrong with the microwave. Again glad we didn't hold our breath because they did nothing about the microwave. The rooms, hallway, and the elevator was covered in filth all the time. Trash juice was always in the elevator. When asked for a stopper for the kitchen sink, we were given a rusty used stopper. So we went and purchased our own from Walmart. We also used our own personal  microwave since no one never fixed the one in the room. Now this tops it, we decided to wash the linen, and spray behind the bed for bugs and found a window screen under our mattress. No words!!The staff are very unprofessional and especially Tammy. She is rude and she doesn't know how to handle customers. She was sent to clean house...because the property was definitely not ran right. But she was making customers pay for management mistakes. Other staff will tell you what you owe, believing they know their job; you pay what they tell you, but Tammy comes along to inform you that you are in violation of their payment policy and will need to pay an additional, different amount or get out.I've been trying to contact corporate for a week now, because  they didn't honor their so called perks  they offer 'stay more save more discount'.  When we checked out ....we were told that because we extended our stay --and we didn't make a new reservation our 'perk' was only applied to the first week we stayed there not the entire 3 months we were there. This company is deceptive and they do not value their guest or honor their offers. I will never stay at their property again and warn anybody else not to. They will take your money and guest are not their priority. Even the manager herself stated it was mismanaged. Says a lot! Below are pictures of hair found in the sheets. The window screen under our mattress, and the stains on the bathroom vanity.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r320805380-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -2295,9 +2291,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Shane P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r320465165-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2313,9 +2306,6 @@
     <t>Very friendly people, kept my room clean and accommodated my needs.  Lacking in minor amenities such as Ice and Vending options.  Coffee is about 50/50 if it will be out and not a set time it to be there.  Breakfast could be expanded a little as far as choices.  Great location as it is close to Six Flags, Hurricane Harbor and Ballpark.  Good Restaurant choices.  I would say that the staff more than makes up for the short comings. (Yvette)</t>
   </si>
   <si>
-    <t>KevMelC</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r311275044-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2337,9 +2327,6 @@
     <t>I would not recommend this hotel unless you are in an absolute pinch and have nowhere else to stay.  The entire place felt old and dirty and smelled of old cigarette smoke and body odor.  We found an old condom wrapper under the pull out couch and expired medication from 2013 under the bathroom sink (with a dead roach).  Also, there were no sheets to use for the pull out couch.  Their breakfast is literally grab and go.  Just muffins, granola bars, apples and coffee.  The only vending machines they have only sell ice cream.  There is no way to get cold water and there is no ice machine.  They do not provide hand soap or conditioner for your hair either.   My advice is to spend a little more and stay somewhere else....anywhere else!More</t>
   </si>
   <si>
-    <t>Kaser46</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r301512778-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2364,9 +2351,6 @@
     <t>I think the management was changed and it is very clear the new boss is doing his best. he is very supportive and get to detail,the first room in first floor was not good  and I don't feel safe (the area is safe but thats' me feel any one can jump and broke my window)  so I change it 3rd floor.More</t>
   </si>
   <si>
-    <t>AudraCraver</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r301320554-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2389,9 +2373,6 @@
   </si>
   <si>
     <t>I stayed in 2 different rooms(201 and 301) same trip. Both of the bathrooms had ants everywhere. The showers do NOT get very warm at all. The hedd were the same as any other hotel bed. Doors squeaked really load and it was annoying. So really just isn't a great hotel experience.. More</t>
-  </si>
-  <si>
-    <t>ploughman8</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r279180495-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -2408,7 +2389,7 @@
   <si>
     <t>Unlike some of the previous posters who paid top dollar, I was able to score a really good rate via a "blind" (bid) site by booking far in advance as soon as I got tickets for the Rolling Stones concert at AT&amp;T Stadium. I have also stayed in something like 30-40 ESAs across the country, so I'm very familiar with them.
 That said, they still managed to turn silver into rusty stainless steel on this one. I tried checking in at 3:15 p.m. on Saturday, and there was a line to do it. They had only one person to handle it, and she had roughly journeyman skills/intelligence (not a newbie, but not sharpest knife in the drawer, either).
-You find out about byzantine processes that are long overdue for overhaul in times like those. Reminds me of Kohl's...they keep loading up the checkout process with superficial steps like extra greetings, wanting to get your e-mail address, coupons every way to Sunday (in violation of the KISS Principle - people will always think they missed one more discount they could have stacked!), plugging the store credit card over the bank ones, and on and on. Not such a big deal in summer when there's rarely a line, but a real long-line culprit come Black Friday, as the needlessly long transactions pile on top of each other, lines take forever and the greater number of variables increases possibilities os mistakes/disputes, adding even...Unlike some of the previous posters who paid top dollar, I was able to score a really good rate via a "blind" (bid) site by booking far in advance as soon as I got tickets for the Rolling Stones concert at AT&amp;T Stadium. I have also stayed in something like 30-40 ESAs across the country, so I'm very familiar with them.That said, they still managed to turn silver into rusty stainless steel on this one. I tried checking in at 3:15 p.m. on Saturday, and there was a line to do it. They had only one person to handle it, and she had roughly journeyman skills/intelligence (not a newbie, but not sharpest knife in the drawer, either).You find out about byzantine processes that are long overdue for overhaul in times like those. Reminds me of Kohl's...they keep loading up the checkout process with superficial steps like extra greetings, wanting to get your e-mail address, coupons every way to Sunday (in violation of the KISS Principle - people will always think they missed one more discount they could have stacked!), plugging the store credit card over the bank ones, and on and on. Not such a big deal in summer when there's rarely a line, but a real long-line culprit come Black Friday, as the needlessly long transactions pile on top of each other, lines take forever and the greater number of variables increases possibilities os mistakes/disputes, adding even more time to the disaster.And that's what happened here. I had only four people ahead of me, but two had transactions with problems (i.e. guy said he reserved 2 rooms and computer was only showing 1). Even without irregularities the process was cumbersome - collecting and keying data, making driver's license copies, and then doing a big verbal info dump on an easily confused customer even though you're handing him an accordion brochure with the same info.Of course people were getting in the line behind me and fuming at how slowly it was moving. They might have to wait even longer than the 35 minutes I did. It was the longest I've ever had to wait to check in at an ESA and I hope that management will agree that customers should NEVER have to wait that long (otherwise they're not setting high enough standards for themselves). Compared to that, Motel 6 is a model of efficiency. And I'm sure the situation (lots of people checking in after 3 on Friday or Saturday or any day of an event) is not unusual for a location like that. They need to be better prepared.The room was about what you usually get...MoreShow less</t>
+You find out about byzantine processes that are long overdue for overhaul in times like those. Reminds me of Kohl's...they keep loading up the checkout process with superficial steps like extra greetings, wanting to get your e-mail address, coupons every way to Sunday (in violation of the KISS Principle - people will always think they missed one more discount they could have stacked!), plugging the store credit card over the bank ones, and on and on. Not such a big deal in summer when there's rarely a line, but a real long-line culprit come Black Friday, as the needlessly long transactions pile on top of each other, lines take forever and the greater number of variables increases possibilities os mistakes/disputes, adding even...Unlike some of the previous posters who paid top dollar, I was able to score a really good rate via a "blind" (bid) site by booking far in advance as soon as I got tickets for the Rolling Stones concert at AT&amp;T Stadium. I have also stayed in something like 30-40 ESAs across the country, so I'm very familiar with them.That said, they still managed to turn silver into rusty stainless steel on this one. I tried checking in at 3:15 p.m. on Saturday, and there was a line to do it. They had only one person to handle it, and she had roughly journeyman skills/intelligence (not a newbie, but not sharpest knife in the drawer, either).You find out about byzantine processes that are long overdue for overhaul in times like those. Reminds me of Kohl's...they keep loading up the checkout process with superficial steps like extra greetings, wanting to get your e-mail address, coupons every way to Sunday (in violation of the KISS Principle - people will always think they missed one more discount they could have stacked!), plugging the store credit card over the bank ones, and on and on. Not such a big deal in summer when there's rarely a line, but a real long-line culprit come Black Friday, as the needlessly long transactions pile on top of each other, lines take forever and the greater number of variables increases possibilities os mistakes/disputes, adding even more time to the disaster.And that's what happened here. I had only four people ahead of me, but two had transactions with problems (i.e. guy said he reserved 2 rooms and computer was only showing 1). Even without irregularities the process was cumbersome - collecting and keying data, making driver's license copies, and then doing a big verbal info dump on an easily confused customer even though you're handing him an accordion brochure with the same info.Of course people were getting in the line behind me and fuming at how slowly it was moving. They might have to wait even longer than the 35 minutes I did. It was the longest I've ever had to wait to check in at an ESA and I hope that management will agree that customers should NEVER have to wait that long (otherwise they're not setting high enough standards for themselves). Compared to that, Motel 6 is a model of efficiency. And I'm sure the situation (lots of people checking in after 3 on Friday or Saturday or any day of an event) is not unusual for a location like that. They need to be better prepared.The room was about what you usually get, though it had a quirk or two. The refrigerator opened from the left side even though that side was against the wall in the kitchen. The Amana air-con unit blew right across the bottom part of the bed. And the pillows had a certain sulfurous smell that couldn't be a brand of fragrance anywhere. It was also close enough to hear roller-coaster noise from Six Flags, though the flip side was getting to see their fireworks from a window one night.As the area is leisure-oriented, unfortunately you do see some of the same crowd that helps cause the lowest end motels outside Disney World in Orlando to get some of the most stridently negative reviews in all of Trip Advisor. Slovenliness is the main charge, though you might get other things as well. ESAs are especially vulnerable because there's no included daily maid service (it's optional for extra money), so the damage potential is even greater. A big way to fight it is making it tougher on those who can't book and pay with credit cards, but this is only a partial screen.Anyway, with some effort I walked from the hotel to AT&amp;T Stadium to see the Stones. It took about 30 minutes (Don't be deceived by map scales...things are bigger in Texas), but was not sidewalked all the way, which is pretty ridiculous. There were stretches with worn paths, and for the key link - Ballpark Way - it was comparable to walking the shoulder lane of a busy highway. You'd think with the level of development there now the city of Arlington could do much better, but I guess sidewalks are a big-government thing and if there's an obesity problem,. we'll just blame the individual. So you get to the ballpark and take a right. The route back, via Road to Six Flags and the SR 360 service road, was even spottier on sidewalks and had only a worn trail leading to a thin shoulder for the bridge over I-30. Whereas a city in the Northwest would be not only fully sidewalked, but would have a pedestrian bridge over I-30.The point being: Don't count on being able to just leave your car and walking to the Cowboys, Rangers, concerts, Six Flags, etc. Maybe you could do a taxi (though that defeats the purpose of saving money by not having to pay for parking), or catch a patchwork of occasional shuttles like the Six Flags golf cart that can take you part of the way. Otherwise if you've got to use your car and go to their parking and pay, is there that much point in staying close by? I'd call it a missed opportunity so far, both for the city and the hotel.To be fair, though, my stay was overall a good one, and if you're staying an extra day and exploring areawide it's convenient in the sense that you're in the mid-cities and can zip in and out on the interstates, and DFW airport is not far on 360 with a dedicated exit to the rental car center.MoreShow less</t>
   </si>
   <si>
     <t>June 2015</t>
@@ -2416,10 +2397,7 @@
   <si>
     <t>Unlike some of the previous posters who paid top dollar, I was able to score a really good rate via a "blind" (bid) site by booking far in advance as soon as I got tickets for the Rolling Stones concert at AT&amp;T Stadium. I have also stayed in something like 30-40 ESAs across the country, so I'm very familiar with them.
 That said, they still managed to turn silver into rusty stainless steel on this one. I tried checking in at 3:15 p.m. on Saturday, and there was a line to do it. They had only one person to handle it, and she had roughly journeyman skills/intelligence (not a newbie, but not sharpest knife in the drawer, either).
-You find out about byzantine processes that are long overdue for overhaul in times like those. Reminds me of Kohl's...they keep loading up the checkout process with superficial steps like extra greetings, wanting to get your e-mail address, coupons every way to Sunday (in violation of the KISS Principle - people will always think they missed one more discount they could have stacked!), plugging the store credit card over the bank ones, and on and on. Not such a big deal in summer when there's rarely a line, but a real long-line culprit come Black Friday, as the needlessly long transactions pile on top of each other, lines take forever and the greater number of variables increases possibilities os mistakes/disputes, adding even...Unlike some of the previous posters who paid top dollar, I was able to score a really good rate via a "blind" (bid) site by booking far in advance as soon as I got tickets for the Rolling Stones concert at AT&amp;T Stadium. I have also stayed in something like 30-40 ESAs across the country, so I'm very familiar with them.That said, they still managed to turn silver into rusty stainless steel on this one. I tried checking in at 3:15 p.m. on Saturday, and there was a line to do it. They had only one person to handle it, and she had roughly journeyman skills/intelligence (not a newbie, but not sharpest knife in the drawer, either).You find out about byzantine processes that are long overdue for overhaul in times like those. Reminds me of Kohl's...they keep loading up the checkout process with superficial steps like extra greetings, wanting to get your e-mail address, coupons every way to Sunday (in violation of the KISS Principle - people will always think they missed one more discount they could have stacked!), plugging the store credit card over the bank ones, and on and on. Not such a big deal in summer when there's rarely a line, but a real long-line culprit come Black Friday, as the needlessly long transactions pile on top of each other, lines take forever and the greater number of variables increases possibilities os mistakes/disputes, adding even more time to the disaster.And that's what happened here. I had only four people ahead of me, but two had transactions with problems (i.e. guy said he reserved 2 rooms and computer was only showing 1). Even without irregularities the process was cumbersome - collecting and keying data, making driver's license copies, and then doing a big verbal info dump on an easily confused customer even though you're handing him an accordion brochure with the same info.Of course people were getting in the line behind me and fuming at how slowly it was moving. They might have to wait even longer than the 35 minutes I did. It was the longest I've ever had to wait to check in at an ESA and I hope that management will agree that customers should NEVER have to wait that long (otherwise they're not setting high enough standards for themselves). Compared to that, Motel 6 is a model of efficiency. And I'm sure the situation (lots of people checking in after 3 on Friday or Saturday or any day of an event) is not unusual for a location like that. They need to be better prepared.The room was about what you usually get...More</t>
-  </si>
-  <si>
-    <t>Traci M</t>
+You find out about byzantine processes that are long overdue for overhaul in times like those. Reminds me of Kohl's...they keep loading up the checkout process with superficial steps like extra greetings, wanting to get your e-mail address, coupons every way to Sunday (in violation of the KISS Principle - people will always think they missed one more discount they could have stacked!), plugging the store credit card over the bank ones, and on and on. Not such a big deal in summer when there's rarely a line, but a real long-line culprit come Black Friday, as the needlessly long transactions pile on top of each other, lines take forever and the greater number of variables increases possibilities os mistakes/disputes, adding even...Unlike some of the previous posters who paid top dollar, I was able to score a really good rate via a "blind" (bid) site by booking far in advance as soon as I got tickets for the Rolling Stones concert at AT&amp;T Stadium. I have also stayed in something like 30-40 ESAs across the country, so I'm very familiar with them.That said, they still managed to turn silver into rusty stainless steel on this one. I tried checking in at 3:15 p.m. on Saturday, and there was a line to do it. They had only one person to handle it, and she had roughly journeyman skills/intelligence (not a newbie, but not sharpest knife in the drawer, either).You find out about byzantine processes that are long overdue for overhaul in times like those. Reminds me of Kohl's...they keep loading up the checkout process with superficial steps like extra greetings, wanting to get your e-mail address, coupons every way to Sunday (in violation of the KISS Principle - people will always think they missed one more discount they could have stacked!), plugging the store credit card over the bank ones, and on and on. Not such a big deal in summer when there's rarely a line, but a real long-line culprit come Black Friday, as the needlessly long transactions pile on top of each other, lines take forever and the greater number of variables increases possibilities os mistakes/disputes, adding even more time to the disaster.And that's what happened here. I had only four people ahead of me, but two had transactions with problems (i.e. guy said he reserved 2 rooms and computer was only showing 1). Even without irregularities the process was cumbersome - collecting and keying data, making driver's license copies, and then doing a big verbal info dump on an easily confused customer even though you're handing him an accordion brochure with the same info.Of course people were getting in the line behind me and fuming at how slowly it was moving. They might have to wait even longer than the 35 minutes I did. It was the longest I've ever had to wait to check in at an ESA and I hope that management will agree that customers should NEVER have to wait that long (otherwise they're not setting high enough standards for themselves). Compared to that, Motel 6 is a model of efficiency. And I'm sure the situation (lots of people checking in after 3 on Friday or Saturday or any day of an event) is not unusual for a location like that. They need to be better prepared.The room was about what you usually get, though it had a quirk or two. The refrigerator opened from the left side even though that side was against the wall in the kitchen. The Amana air-con unit blew right across the bottom part of the bed. And the pillows had a certain sulfurous smell that couldn't be a brand of fragrance anywhere. It was also close enough to hear roller-coaster noise from Six Flags, though the flip side was getting to see their fireworks from a window one night.As the area is leisure-oriented, unfortunately you do see some of the same crowd that helps cause the lowest end motels outside Disney World in Orlando to get some of the most stridently negative reviews in all of Trip Advisor. Slovenliness is the main charge, though you might get other things as well. ESAs are especially vulnerable because there's no included daily maid service (it's optional for extra money), so the damage potential is even greater. A big way to fight it is making it tougher on those who can't book and pay with credit cards, but this is only a partial screen.Anyway, with some effort I walked from the hotel to AT&amp;T Stadium to see the Stones. It took about 30 minutes (Don't be deceived by map scales...things are bigger in Texas), but was not sidewalked all the way, which is pretty ridiculous. There were stretches with worn paths, and for the key link - Ballpark Way - it was comparable to walking the shoulder lane of a busy highway. You'd think with the level of development there now the city of Arlington could do much better, but I guess sidewalks are a big-government thing and if there's an obesity problem,. we'll just blame the individual. So you get to the ballpark and take a right. The route back, via Road to Six Flags and the SR 360 service road, was even spottier on sidewalks and had only a worn trail leading to a thin shoulder for the bridge over I-30. Whereas a city in the Northwest would be not only fully sidewalked, but would have a pedestrian bridge over I-30.The point being: Don't count on being able to just leave your car and walking to the Cowboys, Rangers, concerts, Six Flags, etc. Maybe you could do a taxi (though that defeats the purpose of saving money by not having to pay for parking), or catch a patchwork of occasional shuttles like the Six Flags golf cart that can take you part of the way. Otherwise if you've got to use your car and go to their parking and pay, is there that much point in staying close by? I'd call it a missed opportunity so far, both for the city and the hotel.To be fair, though, my stay was overall a good one, and if you're staying an extra day and exploring areawide it's convenient in the sense that you're in the mid-cities and can zip in and out on the interstates, and DFW airport is not far on 360 with a dedicated exit to the rental car center.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r273649572-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -2441,9 +2419,6 @@
   </si>
   <si>
     <t>Room was ok but seemed old and musty. We were on the 3rd floor and heard every sound from anywhere outside to the next room. People taking in the parking lot sounded like they were right at the window. Air wouldn't stay on, it would come on for 5 mins then off for 5 mins. Never really got cool on the room so we couldn't really fall asleep and get a good night rest. We stayed here after a concert and this was the only thing really left close to where we're going. Seems they raised the prices as well for the night we stayed since there was a game and a concert the same night. Would not pay $120 a night for this hotel again. Would expect more from a hotel for this price.More</t>
-  </si>
-  <si>
-    <t>Jessica H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109520-r272771467-Extended_Stay_America_Arlington_Six_Flags-Arlington_Texas.html</t>
@@ -2966,1163 +2941,1025 @@
       <c r="A2" t="n">
         <v>33927</v>
       </c>
-      <c r="B2" t="n">
-        <v>135975</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
         <v>54</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33927</v>
       </c>
-      <c r="B3" t="n">
-        <v>135976</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
         <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33927</v>
       </c>
-      <c r="B4" t="n">
-        <v>135977</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="X4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
+      <c r="Y4" t="s">
         <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
-      <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33927</v>
       </c>
-      <c r="B5" t="n">
-        <v>135978</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
       <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33927</v>
       </c>
-      <c r="B6" t="n">
-        <v>135979</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33927</v>
       </c>
-      <c r="B7" t="n">
-        <v>135980</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>103</v>
-      </c>
-      <c r="X7" t="s">
-        <v>104</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33927</v>
       </c>
-      <c r="B8" t="n">
-        <v>135981</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="X8" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33927</v>
       </c>
-      <c r="B9" t="n">
-        <v>11155</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Y9" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33927</v>
       </c>
-      <c r="B10" t="n">
-        <v>135982</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="X10" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="Y10" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33927</v>
       </c>
-      <c r="B11" t="n">
-        <v>135983</v>
-      </c>
-      <c r="C11" t="s">
-        <v>133</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="X11" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Y11" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33927</v>
       </c>
-      <c r="B12" t="n">
-        <v>135984</v>
-      </c>
-      <c r="C12" t="s">
-        <v>143</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33927</v>
       </c>
-      <c r="B13" t="n">
-        <v>135985</v>
-      </c>
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
       <c r="R13" t="n">
         <v>4</v>
       </c>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="X13" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33927</v>
       </c>
-      <c r="B14" t="n">
-        <v>135986</v>
-      </c>
-      <c r="C14" t="s">
-        <v>161</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
         <v>2</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="X14" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="Y14" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33927</v>
       </c>
-      <c r="B15" t="n">
-        <v>33223</v>
-      </c>
-      <c r="C15" t="s">
-        <v>170</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
         <v>3</v>
       </c>
-      <c r="N15" t="s">
-        <v>139</v>
-      </c>
-      <c r="O15" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="X15" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33927</v>
       </c>
-      <c r="B16" t="n">
-        <v>135987</v>
-      </c>
-      <c r="C16" t="s">
-        <v>179</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
         <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="X16" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33927</v>
       </c>
-      <c r="B17" t="n">
-        <v>135988</v>
-      </c>
-      <c r="C17" t="s">
-        <v>188</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
       <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>1</v>
@@ -4131,1174 +3968,1108 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="X17" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="Y17" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33927</v>
       </c>
-      <c r="B18" t="n">
-        <v>34943</v>
-      </c>
-      <c r="C18" t="s">
-        <v>198</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="X18" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Y18" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33927</v>
       </c>
-      <c r="B19" t="n">
-        <v>135989</v>
-      </c>
-      <c r="C19" t="s">
-        <v>206</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J19" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
         <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="X19" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="Y19" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33927</v>
       </c>
-      <c r="B20" t="n">
-        <v>135990</v>
-      </c>
-      <c r="C20" t="s">
-        <v>216</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33927</v>
       </c>
-      <c r="B21" t="n">
-        <v>135991</v>
-      </c>
-      <c r="C21" t="s">
-        <v>226</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="X21" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33927</v>
       </c>
-      <c r="B22" t="n">
-        <v>135992</v>
-      </c>
-      <c r="C22" t="s">
-        <v>235</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="O22" t="s">
-        <v>92</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="X22" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="Y22" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33927</v>
       </c>
-      <c r="B23" t="n">
-        <v>135993</v>
-      </c>
-      <c r="C23" t="s">
-        <v>244</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="X23" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="Y23" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33927</v>
       </c>
-      <c r="B24" t="n">
-        <v>135994</v>
-      </c>
-      <c r="C24" t="s">
-        <v>253</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="O24" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="X24" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="Y24" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33927</v>
       </c>
-      <c r="B25" t="n">
-        <v>135995</v>
-      </c>
-      <c r="C25" t="s">
-        <v>263</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="J25" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
         <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="X25" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="Y25" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33927</v>
       </c>
-      <c r="B26" t="n">
-        <v>135996</v>
-      </c>
-      <c r="C26" t="s">
-        <v>272</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="J26" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="K26" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R26" t="n">
         <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="X26" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="Y26" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33927</v>
       </c>
-      <c r="B27" t="n">
-        <v>135997</v>
-      </c>
-      <c r="C27" t="s">
-        <v>281</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="O27" t="s">
-        <v>259</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="n">
         <v>3</v>
       </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="X27" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="Y27" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33927</v>
       </c>
-      <c r="B28" t="n">
-        <v>135998</v>
-      </c>
-      <c r="C28" t="s">
-        <v>290</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s">
-        <v>92</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="X28" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="Y28" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33927</v>
       </c>
-      <c r="B29" t="n">
-        <v>135999</v>
-      </c>
-      <c r="C29" t="s">
-        <v>300</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="J29" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="X29" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="Y29" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33927</v>
       </c>
-      <c r="B30" t="n">
-        <v>136000</v>
-      </c>
-      <c r="C30" t="s">
-        <v>309</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="J30" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="X30" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33927</v>
       </c>
-      <c r="B31" t="n">
-        <v>136001</v>
-      </c>
-      <c r="C31" t="s">
-        <v>315</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="J31" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="X31" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="Y31" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33927</v>
       </c>
-      <c r="B32" t="n">
-        <v>136002</v>
-      </c>
-      <c r="C32" t="s">
-        <v>324</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="J32" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>5</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="X32" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="Y32" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33927</v>
       </c>
-      <c r="B33" t="n">
-        <v>136003</v>
-      </c>
-      <c r="C33" t="s">
-        <v>333</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="J33" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
         <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
@@ -5311,447 +5082,413 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="X33" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="Y33" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33927</v>
       </c>
-      <c r="B34" t="n">
-        <v>136004</v>
-      </c>
-      <c r="C34" t="s">
-        <v>342</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="J34" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="K34" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="O34" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
       </c>
       <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
         <v>4</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="X34" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="Y34" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33927</v>
       </c>
-      <c r="B35" t="n">
-        <v>136005</v>
-      </c>
-      <c r="C35" t="s">
-        <v>348</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="J35" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="K35" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="O35" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>3</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="X35" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="Y35" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33927</v>
       </c>
-      <c r="B36" t="n">
-        <v>136006</v>
-      </c>
-      <c r="C36" t="s">
-        <v>357</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="J36" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
         <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="X36" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33927</v>
       </c>
-      <c r="B37" t="n">
-        <v>136007</v>
-      </c>
-      <c r="C37" t="s">
-        <v>366</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="X37" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="Y37" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33927</v>
       </c>
-      <c r="B38" t="n">
-        <v>136008</v>
-      </c>
-      <c r="C38" t="s">
-        <v>375</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="J38" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="K38" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="O38" t="s">
-        <v>259</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>3</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="X38" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="Y38" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33927</v>
       </c>
-      <c r="B39" t="n">
-        <v>136009</v>
-      </c>
-      <c r="C39" t="s">
-        <v>384</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="J39" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="K39" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>4</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -5761,66 +5498,68 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="X39" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="Y39" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33927</v>
       </c>
-      <c r="B40" t="n">
-        <v>136010</v>
-      </c>
-      <c r="C40" t="s">
-        <v>393</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="J40" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
-      </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -5830,996 +5569,1016 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="X40" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="Y40" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33927</v>
       </c>
-      <c r="B41" t="n">
-        <v>136011</v>
-      </c>
-      <c r="C41" t="s">
-        <v>402</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="J41" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="K41" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>407</v>
+        <v>255</v>
       </c>
       <c r="O41" t="s">
-        <v>259</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="X41" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="Y41" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33927</v>
       </c>
-      <c r="B42" t="n">
-        <v>136012</v>
-      </c>
-      <c r="C42" t="s">
-        <v>411</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="J42" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="K42" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>407</v>
+        <v>345</v>
       </c>
       <c r="O42" t="s">
-        <v>73</v>
-      </c>
-      <c r="P42" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
       <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="X42" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="Y42" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33927</v>
       </c>
-      <c r="B43" t="n">
-        <v>12473</v>
-      </c>
-      <c r="C43" t="s">
-        <v>420</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="J43" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="K43" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>407</v>
+        <v>345</v>
       </c>
       <c r="O43" t="s">
-        <v>92</v>
-      </c>
-      <c r="P43" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="X43" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="Y43" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33927</v>
       </c>
-      <c r="B44" t="n">
-        <v>136013</v>
-      </c>
-      <c r="C44" t="s">
-        <v>429</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="J44" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="K44" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>435</v>
+        <v>345</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
       <c r="R44" t="n">
         <v>3</v>
       </c>
-      <c r="S44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="X44" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="Y44" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33927</v>
       </c>
-      <c r="B45" t="n">
-        <v>42054</v>
-      </c>
-      <c r="C45" t="s">
-        <v>439</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="J45" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="K45" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="L45" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="O45" t="s">
-        <v>259</v>
-      </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="X45" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="Y45" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33927</v>
       </c>
-      <c r="B46" t="n">
-        <v>136014</v>
-      </c>
-      <c r="C46" t="s">
-        <v>449</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="J46" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="K46" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="L46" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>455</v>
+        <v>345</v>
       </c>
       <c r="O46" t="s">
-        <v>259</v>
-      </c>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="X46" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="Y46" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33927</v>
       </c>
-      <c r="B47" t="n">
-        <v>44500</v>
-      </c>
-      <c r="C47" t="s">
-        <v>459</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="J47" t="s">
-        <v>452</v>
+        <v>409</v>
       </c>
       <c r="K47" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="L47" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="O47" t="s">
-        <v>92</v>
-      </c>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="X47" t="s">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="Y47" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33927</v>
       </c>
-      <c r="B48" t="n">
-        <v>136015</v>
-      </c>
-      <c r="C48" t="s">
-        <v>467</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="J48" t="s">
-        <v>470</v>
+        <v>417</v>
       </c>
       <c r="K48" t="s">
-        <v>471</v>
+        <v>418</v>
       </c>
       <c r="L48" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>473</v>
+        <v>345</v>
       </c>
       <c r="O48" t="s">
-        <v>92</v>
-      </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>474</v>
+        <v>420</v>
       </c>
       <c r="X48" t="s">
-        <v>475</v>
+        <v>421</v>
       </c>
       <c r="Y48" t="s">
-        <v>476</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33927</v>
       </c>
-      <c r="B49" t="n">
-        <v>136016</v>
-      </c>
-      <c r="C49" t="s">
-        <v>477</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="J49" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="K49" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="L49" t="s">
-        <v>482</v>
+        <v>427</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>483</v>
+        <v>428</v>
       </c>
       <c r="X49" t="s">
-        <v>484</v>
+        <v>429</v>
       </c>
       <c r="Y49" t="s">
-        <v>485</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33927</v>
       </c>
-      <c r="B50" t="n">
-        <v>35935</v>
-      </c>
-      <c r="C50" t="s">
-        <v>486</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="J50" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="K50" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="L50" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>345</v>
+      </c>
+      <c r="O50" t="s">
+        <v>78</v>
+      </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="X50" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="Y50" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33927</v>
       </c>
-      <c r="B51" t="n">
-        <v>136017</v>
-      </c>
-      <c r="C51" t="s">
-        <v>495</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>496</v>
+        <v>439</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="J51" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="K51" t="s">
-        <v>499</v>
+        <v>388</v>
       </c>
       <c r="L51" t="s">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="O51" t="s">
-        <v>73</v>
-      </c>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
       <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>501</v>
+        <v>444</v>
       </c>
       <c r="X51" t="s">
-        <v>502</v>
+        <v>445</v>
       </c>
       <c r="Y51" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33927</v>
       </c>
-      <c r="B52" t="n">
-        <v>136018</v>
-      </c>
-      <c r="C52" t="s">
-        <v>504</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="J52" t="s">
-        <v>507</v>
+        <v>449</v>
       </c>
       <c r="K52" t="s">
-        <v>508</v>
+        <v>450</v>
       </c>
       <c r="L52" t="s">
-        <v>509</v>
+        <v>451</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="O52" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="X52" t="s">
-        <v>511</v>
+        <v>453</v>
       </c>
       <c r="Y52" t="s">
-        <v>512</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33927</v>
       </c>
-      <c r="B53" t="n">
-        <v>48920</v>
-      </c>
-      <c r="C53" t="s">
-        <v>513</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>514</v>
+        <v>455</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>515</v>
+        <v>456</v>
       </c>
       <c r="J53" t="s">
-        <v>516</v>
+        <v>457</v>
       </c>
       <c r="K53" t="s">
-        <v>517</v>
+        <v>458</v>
       </c>
       <c r="L53" t="s">
-        <v>518</v>
+        <v>459</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>519</v>
+        <v>443</v>
       </c>
       <c r="O53" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>2</v>
-      </c>
-      <c r="R53" t="s"/>
-      <c r="S53" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="X53" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="Y53" t="s">
-        <v>522</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33927</v>
       </c>
-      <c r="B54" t="n">
-        <v>16623</v>
-      </c>
-      <c r="C54" t="s">
-        <v>523</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>524</v>
+        <v>463</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>525</v>
+        <v>464</v>
       </c>
       <c r="J54" t="s">
-        <v>526</v>
+        <v>465</v>
       </c>
       <c r="K54" t="s">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="L54" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="O54" t="s">
-        <v>92</v>
-      </c>
-      <c r="P54" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
       <c r="Q54" t="s"/>
       <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>529</v>
+        <v>469</v>
       </c>
       <c r="X54" t="s">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="Y54" t="s">
-        <v>531</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33927</v>
       </c>
-      <c r="B55" t="n">
-        <v>37111</v>
-      </c>
-      <c r="C55" t="s">
-        <v>532</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>534</v>
+        <v>473</v>
       </c>
       <c r="J55" t="s">
-        <v>535</v>
+        <v>474</v>
       </c>
       <c r="K55" t="s">
-        <v>536</v>
+        <v>475</v>
       </c>
       <c r="L55" t="s">
-        <v>537</v>
+        <v>476</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="O55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6831,200 +6590,178 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>538</v>
+        <v>478</v>
       </c>
       <c r="X55" t="s">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="Y55" t="s">
-        <v>540</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33927</v>
       </c>
-      <c r="B56" t="n">
-        <v>136019</v>
-      </c>
-      <c r="C56" t="s">
-        <v>541</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>542</v>
+        <v>481</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>543</v>
+        <v>482</v>
       </c>
       <c r="J56" t="s">
-        <v>544</v>
+        <v>483</v>
       </c>
       <c r="K56" t="s">
-        <v>545</v>
+        <v>484</v>
       </c>
       <c r="L56" t="s">
-        <v>546</v>
+        <v>485</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="O56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P56" t="s"/>
-      <c r="Q56" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>1</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="X56" t="s">
-        <v>548</v>
+        <v>488</v>
       </c>
       <c r="Y56" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33927</v>
       </c>
-      <c r="B57" t="n">
-        <v>8113</v>
-      </c>
-      <c r="C57" t="s">
-        <v>550</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>551</v>
+        <v>490</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="J57" t="s">
-        <v>553</v>
+        <v>483</v>
       </c>
       <c r="K57" t="s">
-        <v>554</v>
+        <v>492</v>
       </c>
       <c r="L57" t="s">
-        <v>555</v>
+        <v>493</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="O57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P57" t="s"/>
-      <c r="Q57" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>1</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>556</v>
+        <v>494</v>
       </c>
       <c r="X57" t="s">
-        <v>557</v>
+        <v>495</v>
       </c>
       <c r="Y57" t="s">
-        <v>558</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33927</v>
       </c>
-      <c r="B58" t="n">
-        <v>136020</v>
-      </c>
-      <c r="C58" t="s">
-        <v>559</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>560</v>
+        <v>497</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>561</v>
+        <v>498</v>
       </c>
       <c r="J58" t="s">
-        <v>562</v>
+        <v>499</v>
       </c>
       <c r="K58" t="s">
-        <v>563</v>
+        <v>500</v>
       </c>
       <c r="L58" t="s">
-        <v>564</v>
+        <v>501</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="O58" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -7036,130 +6773,110 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>565</v>
+        <v>503</v>
       </c>
       <c r="X58" t="s">
-        <v>566</v>
+        <v>504</v>
       </c>
       <c r="Y58" t="s">
-        <v>567</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33927</v>
       </c>
-      <c r="B59" t="n">
-        <v>56550</v>
-      </c>
-      <c r="C59" t="s">
-        <v>568</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>569</v>
+        <v>506</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>570</v>
+        <v>507</v>
       </c>
       <c r="J59" t="s">
-        <v>571</v>
+        <v>508</v>
       </c>
       <c r="K59" t="s">
-        <v>572</v>
+        <v>509</v>
       </c>
       <c r="L59" t="s">
-        <v>573</v>
+        <v>510</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
-      <c r="N59" t="s">
-        <v>455</v>
-      </c>
-      <c r="O59" t="s">
-        <v>259</v>
-      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
       <c r="P59" t="s"/>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q59" t="s"/>
       <c r="R59" t="s"/>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>5</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>574</v>
+        <v>511</v>
       </c>
       <c r="X59" t="s">
-        <v>575</v>
+        <v>512</v>
       </c>
       <c r="Y59" t="s">
-        <v>576</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33927</v>
       </c>
-      <c r="B60" t="n">
-        <v>136021</v>
-      </c>
-      <c r="C60" t="s">
-        <v>577</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>578</v>
+        <v>514</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>579</v>
+        <v>515</v>
       </c>
       <c r="J60" t="s">
-        <v>580</v>
+        <v>516</v>
       </c>
       <c r="K60" t="s">
-        <v>581</v>
+        <v>517</v>
       </c>
       <c r="L60" t="s">
-        <v>582</v>
+        <v>518</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
-      <c r="N60" t="s">
-        <v>455</v>
-      </c>
-      <c r="O60" t="s">
-        <v>92</v>
-      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
@@ -7170,131 +6887,117 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>583</v>
+        <v>519</v>
       </c>
       <c r="X60" t="s">
-        <v>584</v>
+        <v>520</v>
       </c>
       <c r="Y60" t="s">
-        <v>585</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33927</v>
       </c>
-      <c r="B61" t="n">
-        <v>488</v>
-      </c>
-      <c r="C61" t="s">
-        <v>586</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>587</v>
+        <v>522</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>588</v>
+        <v>523</v>
       </c>
       <c r="J61" t="s">
-        <v>589</v>
+        <v>524</v>
       </c>
       <c r="K61" t="s">
-        <v>345</v>
+        <v>525</v>
       </c>
       <c r="L61" t="s">
-        <v>590</v>
+        <v>526</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="O61" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="P61" t="s"/>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q61" t="s"/>
       <c r="R61" t="s"/>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>592</v>
+        <v>527</v>
       </c>
       <c r="X61" t="s">
-        <v>593</v>
+        <v>528</v>
       </c>
       <c r="Y61" t="s">
-        <v>594</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33927</v>
       </c>
-      <c r="B62" t="n">
-        <v>136022</v>
-      </c>
-      <c r="C62" t="s">
-        <v>595</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>597</v>
+        <v>531</v>
       </c>
       <c r="J62" t="s">
-        <v>598</v>
+        <v>532</v>
       </c>
       <c r="K62" t="s">
-        <v>599</v>
+        <v>533</v>
       </c>
       <c r="L62" t="s">
-        <v>600</v>
+        <v>534</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="O62" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -7306,190 +7009,190 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>601</v>
+        <v>535</v>
       </c>
       <c r="X62" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="Y62" t="s">
-        <v>602</v>
+        <v>537</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33927</v>
       </c>
-      <c r="B63" t="n">
-        <v>27776</v>
-      </c>
-      <c r="C63" t="s">
-        <v>603</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>605</v>
+        <v>539</v>
       </c>
       <c r="J63" t="s">
-        <v>606</v>
+        <v>540</v>
       </c>
       <c r="K63" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="L63" t="s">
-        <v>608</v>
+        <v>542</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>455</v>
+        <v>543</v>
       </c>
       <c r="O63" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="P63" t="s"/>
-      <c r="Q63" t="s"/>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
       <c r="R63" t="s"/>
-      <c r="S63" t="s"/>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
       <c r="T63" t="s"/>
-      <c r="U63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>609</v>
+        <v>544</v>
       </c>
       <c r="X63" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
       <c r="Y63" t="s">
-        <v>611</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33927</v>
       </c>
-      <c r="B64" t="n">
-        <v>136023</v>
-      </c>
-      <c r="C64" t="s">
-        <v>612</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>613</v>
+        <v>547</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
       <c r="J64" t="s">
-        <v>615</v>
+        <v>549</v>
       </c>
       <c r="K64" t="s">
-        <v>616</v>
+        <v>550</v>
       </c>
       <c r="L64" t="s">
-        <v>617</v>
+        <v>551</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>455</v>
+        <v>543</v>
       </c>
       <c r="O64" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
-      <c r="S64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
       <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>618</v>
+        <v>552</v>
       </c>
       <c r="X64" t="s">
-        <v>619</v>
+        <v>553</v>
       </c>
       <c r="Y64" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33927</v>
       </c>
-      <c r="B65" t="n">
-        <v>3904</v>
-      </c>
-      <c r="C65" t="s">
-        <v>621</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>622</v>
+        <v>555</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>623</v>
+        <v>556</v>
       </c>
       <c r="J65" t="s">
-        <v>624</v>
+        <v>557</v>
       </c>
       <c r="K65" t="s">
-        <v>625</v>
+        <v>558</v>
       </c>
       <c r="L65" t="s">
-        <v>626</v>
+        <v>559</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="O65" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7501,190 +7204,188 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>627</v>
+        <v>560</v>
       </c>
       <c r="X65" t="s">
-        <v>628</v>
+        <v>561</v>
       </c>
       <c r="Y65" t="s">
-        <v>629</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33927</v>
       </c>
-      <c r="B66" t="n">
-        <v>71426</v>
-      </c>
-      <c r="C66" t="s">
-        <v>630</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>631</v>
+        <v>563</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>632</v>
+        <v>564</v>
       </c>
       <c r="J66" t="s">
-        <v>633</v>
+        <v>565</v>
       </c>
       <c r="K66" t="s">
-        <v>634</v>
+        <v>566</v>
       </c>
       <c r="L66" t="s">
-        <v>635</v>
+        <v>567</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="O66" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P66" t="s"/>
-      <c r="Q66" t="s"/>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
       <c r="R66" t="s"/>
-      <c r="S66" t="s"/>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
       <c r="T66" t="s"/>
-      <c r="U66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>636</v>
+        <v>568</v>
       </c>
       <c r="X66" t="s">
-        <v>637</v>
+        <v>569</v>
       </c>
       <c r="Y66" t="s">
-        <v>638</v>
+        <v>570</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33927</v>
       </c>
-      <c r="B67" t="n">
-        <v>2379</v>
-      </c>
-      <c r="C67" t="s">
-        <v>639</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>640</v>
+        <v>571</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>641</v>
+        <v>572</v>
       </c>
       <c r="J67" t="s">
-        <v>642</v>
+        <v>573</v>
       </c>
       <c r="K67" t="s">
-        <v>643</v>
+        <v>574</v>
       </c>
       <c r="L67" t="s">
-        <v>644</v>
+        <v>575</v>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="O67" t="s">
-        <v>645</v>
+        <v>148</v>
       </c>
       <c r="P67" t="s"/>
-      <c r="Q67" t="s"/>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
       <c r="R67" t="s"/>
       <c r="S67" t="s"/>
       <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>646</v>
+        <v>576</v>
       </c>
       <c r="X67" t="s">
-        <v>647</v>
+        <v>577</v>
       </c>
       <c r="Y67" t="s">
-        <v>648</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33927</v>
       </c>
-      <c r="B68" t="n">
-        <v>136024</v>
-      </c>
-      <c r="C68" t="s">
-        <v>649</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>650</v>
+        <v>579</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>651</v>
+        <v>580</v>
       </c>
       <c r="J68" t="s">
-        <v>652</v>
+        <v>581</v>
       </c>
       <c r="K68" t="s">
-        <v>653</v>
+        <v>582</v>
       </c>
       <c r="L68" t="s">
-        <v>654</v>
+        <v>583</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="O68" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7696,129 +7397,121 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>655</v>
+        <v>584</v>
       </c>
       <c r="X68" t="s">
-        <v>656</v>
+        <v>585</v>
       </c>
       <c r="Y68" t="s">
-        <v>657</v>
+        <v>586</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>33927</v>
       </c>
-      <c r="B69" t="n">
-        <v>136025</v>
-      </c>
-      <c r="C69" t="s">
-        <v>658</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>659</v>
+        <v>587</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>660</v>
+        <v>588</v>
       </c>
       <c r="J69" t="s">
-        <v>661</v>
+        <v>589</v>
       </c>
       <c r="K69" t="s">
-        <v>662</v>
+        <v>590</v>
       </c>
       <c r="L69" t="s">
-        <v>663</v>
+        <v>591</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>591</v>
+        <v>486</v>
       </c>
       <c r="O69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P69" t="s"/>
-      <c r="Q69" t="s"/>
-      <c r="R69" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="s"/>
       <c r="S69" t="s"/>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>664</v>
+        <v>592</v>
       </c>
       <c r="X69" t="s">
-        <v>665</v>
+        <v>593</v>
       </c>
       <c r="Y69" t="s">
-        <v>666</v>
+        <v>594</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>33927</v>
       </c>
-      <c r="B70" t="n">
-        <v>457</v>
-      </c>
-      <c r="C70" t="s">
-        <v>667</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>668</v>
+        <v>595</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>669</v>
+        <v>596</v>
       </c>
       <c r="J70" t="s">
-        <v>670</v>
+        <v>597</v>
       </c>
       <c r="K70" t="s">
-        <v>671</v>
+        <v>598</v>
       </c>
       <c r="L70" t="s">
-        <v>672</v>
+        <v>599</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>673</v>
+        <v>486</v>
       </c>
       <c r="O70" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7830,129 +7523,123 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>674</v>
+        <v>600</v>
       </c>
       <c r="X70" t="s">
-        <v>675</v>
+        <v>601</v>
       </c>
       <c r="Y70" t="s">
-        <v>676</v>
+        <v>602</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>33927</v>
       </c>
-      <c r="B71" t="n">
-        <v>136026</v>
-      </c>
-      <c r="C71" t="s">
-        <v>677</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>678</v>
+        <v>603</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>679</v>
+        <v>604</v>
       </c>
       <c r="J71" t="s">
-        <v>680</v>
+        <v>605</v>
       </c>
       <c r="K71" t="s">
-        <v>681</v>
+        <v>388</v>
       </c>
       <c r="L71" t="s">
-        <v>682</v>
+        <v>606</v>
       </c>
       <c r="M71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>683</v>
+        <v>607</v>
       </c>
       <c r="O71" t="s">
-        <v>645</v>
+        <v>68</v>
       </c>
       <c r="P71" t="s"/>
-      <c r="Q71" t="s"/>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
       <c r="R71" t="s"/>
       <c r="S71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>684</v>
+        <v>608</v>
       </c>
       <c r="X71" t="s">
-        <v>685</v>
+        <v>609</v>
       </c>
       <c r="Y71" t="s">
-        <v>686</v>
+        <v>610</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>33927</v>
       </c>
-      <c r="B72" t="n">
-        <v>136027</v>
-      </c>
-      <c r="C72" t="s">
-        <v>687</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>688</v>
+        <v>611</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>689</v>
+        <v>612</v>
       </c>
       <c r="J72" t="s">
-        <v>690</v>
+        <v>613</v>
       </c>
       <c r="K72" t="s">
-        <v>691</v>
+        <v>614</v>
       </c>
       <c r="L72" t="s">
-        <v>692</v>
+        <v>615</v>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>693</v>
+        <v>486</v>
       </c>
       <c r="O72" t="s">
-        <v>645</v>
+        <v>53</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7964,123 +7651,117 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>694</v>
+        <v>616</v>
       </c>
       <c r="X72" t="s">
-        <v>695</v>
+        <v>609</v>
       </c>
       <c r="Y72" t="s">
-        <v>696</v>
+        <v>617</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>33927</v>
       </c>
-      <c r="B73" t="n">
-        <v>23406</v>
-      </c>
-      <c r="C73" t="s">
-        <v>697</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>698</v>
+        <v>618</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>699</v>
+        <v>619</v>
       </c>
       <c r="J73" t="s">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="K73" t="s">
-        <v>701</v>
+        <v>621</v>
       </c>
       <c r="L73" t="s">
-        <v>702</v>
+        <v>622</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>693</v>
+        <v>486</v>
       </c>
       <c r="O73" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
-      <c r="R73" t="n">
-        <v>4</v>
-      </c>
+      <c r="R73" t="s"/>
       <c r="S73" t="s"/>
       <c r="T73" t="s"/>
       <c r="U73" t="s"/>
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
+      <c r="W73" t="s">
+        <v>623</v>
+      </c>
+      <c r="X73" t="s">
+        <v>624</v>
+      </c>
       <c r="Y73" t="s">
-        <v>703</v>
+        <v>625</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>33927</v>
       </c>
-      <c r="B74" t="n">
-        <v>136028</v>
-      </c>
-      <c r="C74" t="s">
-        <v>704</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>705</v>
+        <v>626</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>706</v>
+        <v>627</v>
       </c>
       <c r="J74" t="s">
-        <v>707</v>
+        <v>628</v>
       </c>
       <c r="K74" t="s">
-        <v>708</v>
+        <v>629</v>
       </c>
       <c r="L74" t="s">
-        <v>709</v>
+        <v>630</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>710</v>
+        <v>486</v>
       </c>
       <c r="O74" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -8091,57 +7772,57 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
+      <c r="W74" t="s">
+        <v>631</v>
+      </c>
+      <c r="X74" t="s">
+        <v>632</v>
+      </c>
       <c r="Y74" t="s">
-        <v>709</v>
+        <v>633</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>33927</v>
       </c>
-      <c r="B75" t="n">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>711</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>712</v>
+        <v>634</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>713</v>
+        <v>635</v>
       </c>
       <c r="J75" t="s">
-        <v>714</v>
+        <v>636</v>
       </c>
       <c r="K75" t="s">
-        <v>715</v>
+        <v>637</v>
       </c>
       <c r="L75" t="s">
-        <v>716</v>
+        <v>638</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>717</v>
+        <v>607</v>
       </c>
       <c r="O75" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -8153,192 +7834,178 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>718</v>
+        <v>639</v>
       </c>
       <c r="X75" t="s">
-        <v>719</v>
+        <v>640</v>
       </c>
       <c r="Y75" t="s">
-        <v>720</v>
+        <v>641</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>33927</v>
       </c>
-      <c r="B76" t="n">
-        <v>127627</v>
-      </c>
-      <c r="C76" t="s">
-        <v>721</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>722</v>
+        <v>642</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>723</v>
+        <v>643</v>
       </c>
       <c r="J76" t="s">
-        <v>724</v>
+        <v>644</v>
       </c>
       <c r="K76" t="s">
-        <v>725</v>
+        <v>645</v>
       </c>
       <c r="L76" t="s">
-        <v>726</v>
+        <v>646</v>
       </c>
       <c r="M76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>717</v>
+        <v>607</v>
       </c>
       <c r="O76" t="s">
-        <v>259</v>
-      </c>
-      <c r="P76" t="n">
-        <v>3</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
-      <c r="R76" t="n">
-        <v>4</v>
-      </c>
+      <c r="R76" t="s"/>
       <c r="S76" t="s"/>
       <c r="T76" t="s"/>
-      <c r="U76" t="n">
-        <v>2</v>
-      </c>
+      <c r="U76" t="s"/>
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
+      <c r="W76" t="s">
+        <v>647</v>
+      </c>
+      <c r="X76" t="s">
+        <v>648</v>
+      </c>
       <c r="Y76" t="s">
-        <v>727</v>
+        <v>649</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>33927</v>
       </c>
-      <c r="B77" t="n">
-        <v>22459</v>
-      </c>
-      <c r="C77" t="s">
-        <v>728</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>729</v>
+        <v>650</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>730</v>
+        <v>651</v>
       </c>
       <c r="J77" t="s">
-        <v>731</v>
+        <v>652</v>
       </c>
       <c r="K77" t="s">
-        <v>732</v>
+        <v>653</v>
       </c>
       <c r="L77" t="s">
-        <v>733</v>
+        <v>654</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>717</v>
+        <v>607</v>
       </c>
       <c r="O77" t="s">
-        <v>92</v>
-      </c>
-      <c r="P77" t="n">
-        <v>1</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
       <c r="R77" t="s"/>
       <c r="S77" t="s"/>
       <c r="T77" t="s"/>
-      <c r="U77" t="n">
-        <v>1</v>
-      </c>
+      <c r="U77" t="s"/>
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
+      <c r="W77" t="s">
+        <v>656</v>
+      </c>
+      <c r="X77" t="s">
+        <v>657</v>
+      </c>
       <c r="Y77" t="s">
-        <v>733</v>
+        <v>658</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>33927</v>
       </c>
-      <c r="B78" t="n">
-        <v>136029</v>
-      </c>
-      <c r="C78" t="s">
-        <v>734</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>735</v>
+        <v>659</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>736</v>
+        <v>660</v>
       </c>
       <c r="J78" t="s">
-        <v>737</v>
+        <v>661</v>
       </c>
       <c r="K78" t="s">
-        <v>738</v>
+        <v>662</v>
       </c>
       <c r="L78" t="s">
-        <v>739</v>
+        <v>663</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>740</v>
+        <v>607</v>
       </c>
       <c r="O78" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -8350,66 +8017,62 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>741</v>
+        <v>664</v>
       </c>
       <c r="X78" t="s">
-        <v>742</v>
+        <v>665</v>
       </c>
       <c r="Y78" t="s">
-        <v>743</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>33927</v>
       </c>
-      <c r="B79" t="n">
-        <v>48008</v>
-      </c>
-      <c r="C79" t="s">
-        <v>744</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>745</v>
+        <v>667</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>746</v>
+        <v>668</v>
       </c>
       <c r="J79" t="s">
-        <v>747</v>
+        <v>669</v>
       </c>
       <c r="K79" t="s">
-        <v>748</v>
+        <v>670</v>
       </c>
       <c r="L79" t="s">
-        <v>749</v>
+        <v>671</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>750</v>
+        <v>607</v>
       </c>
       <c r="O79" t="s">
-        <v>54</v>
-      </c>
-      <c r="P79" t="n">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
-      <c r="R79" t="s"/>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
       <c r="S79" t="s"/>
       <c r="T79" t="s"/>
       <c r="U79" t="n">
@@ -8418,386 +8081,360 @@
       <c r="V79" t="n">
         <v>0</v>
       </c>
-      <c r="W79" t="s"/>
-      <c r="X79" t="s"/>
+      <c r="W79" t="s">
+        <v>672</v>
+      </c>
+      <c r="X79" t="s">
+        <v>673</v>
+      </c>
       <c r="Y79" t="s">
-        <v>749</v>
+        <v>674</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>33927</v>
       </c>
-      <c r="B80" t="n">
-        <v>53135</v>
-      </c>
-      <c r="C80" t="s">
-        <v>751</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>752</v>
+        <v>675</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>753</v>
+        <v>676</v>
       </c>
       <c r="J80" t="s">
-        <v>754</v>
+        <v>677</v>
       </c>
       <c r="K80" t="s">
-        <v>755</v>
+        <v>678</v>
       </c>
       <c r="L80" t="s">
-        <v>756</v>
+        <v>679</v>
       </c>
       <c r="M80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="O80" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="P80" t="s"/>
-      <c r="Q80" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q80" t="s"/>
       <c r="R80" t="s"/>
       <c r="S80" t="s"/>
       <c r="T80" t="s"/>
-      <c r="U80" t="n">
-        <v>5</v>
-      </c>
+      <c r="U80" t="s"/>
       <c r="V80" t="n">
         <v>0</v>
       </c>
-      <c r="W80" t="s"/>
-      <c r="X80" t="s"/>
+      <c r="W80" t="s">
+        <v>681</v>
+      </c>
+      <c r="X80" t="s">
+        <v>682</v>
+      </c>
       <c r="Y80" t="s">
-        <v>756</v>
+        <v>683</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>33927</v>
       </c>
-      <c r="B81" t="n">
-        <v>136030</v>
-      </c>
-      <c r="C81" t="s">
-        <v>757</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>758</v>
+        <v>684</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>759</v>
+        <v>685</v>
       </c>
       <c r="J81" t="s">
-        <v>760</v>
+        <v>686</v>
       </c>
       <c r="K81" t="s">
-        <v>761</v>
+        <v>687</v>
       </c>
       <c r="L81" t="s">
-        <v>762</v>
+        <v>688</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>763</v>
+        <v>689</v>
       </c>
       <c r="O81" t="s">
-        <v>54</v>
+        <v>655</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
       <c r="R81" t="s"/>
-      <c r="S81" t="s"/>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
       <c r="T81" t="s"/>
-      <c r="U81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
       <c r="V81" t="n">
         <v>0</v>
       </c>
-      <c r="W81" t="s"/>
-      <c r="X81" t="s"/>
+      <c r="W81" t="s">
+        <v>690</v>
+      </c>
+      <c r="X81" t="s">
+        <v>691</v>
+      </c>
       <c r="Y81" t="s">
-        <v>764</v>
+        <v>692</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>33927</v>
       </c>
-      <c r="B82" t="n">
-        <v>136031</v>
-      </c>
-      <c r="C82" t="s">
-        <v>765</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>766</v>
+        <v>693</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
       <c r="J82" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
       <c r="K82" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
       <c r="L82" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
       <c r="M82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>740</v>
+        <v>698</v>
       </c>
       <c r="O82" t="s">
-        <v>54</v>
+        <v>655</v>
       </c>
       <c r="P82" t="s"/>
-      <c r="Q82" t="n">
-        <v>3</v>
-      </c>
-      <c r="R82" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
       <c r="S82" t="s"/>
       <c r="T82" t="s"/>
-      <c r="U82" t="n">
-        <v>4</v>
-      </c>
+      <c r="U82" t="s"/>
       <c r="V82" t="n">
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>771</v>
+        <v>699</v>
       </c>
       <c r="X82" t="s">
-        <v>772</v>
+        <v>700</v>
       </c>
       <c r="Y82" t="s">
-        <v>773</v>
+        <v>701</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>33927</v>
       </c>
-      <c r="B83" t="n">
-        <v>136032</v>
-      </c>
-      <c r="C83" t="s">
-        <v>774</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>775</v>
+        <v>702</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>776</v>
+        <v>703</v>
       </c>
       <c r="J83" t="s">
-        <v>777</v>
+        <v>704</v>
       </c>
       <c r="K83" t="s">
-        <v>778</v>
+        <v>705</v>
       </c>
       <c r="L83" t="s">
-        <v>779</v>
+        <v>706</v>
       </c>
       <c r="M83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>763</v>
+        <v>698</v>
       </c>
       <c r="O83" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
-      <c r="R83" t="s"/>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
       <c r="S83" t="s"/>
       <c r="T83" t="s"/>
       <c r="U83" t="s"/>
       <c r="V83" t="n">
         <v>0</v>
       </c>
-      <c r="W83" t="s">
-        <v>780</v>
-      </c>
-      <c r="X83" t="s">
-        <v>781</v>
-      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>782</v>
+        <v>707</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>33927</v>
       </c>
-      <c r="B84" t="n">
-        <v>136033</v>
-      </c>
-      <c r="C84" t="s">
-        <v>783</v>
-      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>784</v>
+        <v>708</v>
       </c>
       <c r="G84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>785</v>
+        <v>709</v>
       </c>
       <c r="J84" t="s">
-        <v>786</v>
+        <v>710</v>
       </c>
       <c r="K84" t="s">
-        <v>787</v>
+        <v>711</v>
       </c>
       <c r="L84" t="s">
-        <v>788</v>
+        <v>712</v>
       </c>
       <c r="M84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>789</v>
+        <v>713</v>
       </c>
       <c r="O84" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="P84" t="s"/>
-      <c r="Q84" t="n">
-        <v>3</v>
-      </c>
-      <c r="R84" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
       <c r="S84" t="s"/>
       <c r="T84" t="s"/>
-      <c r="U84" t="n">
-        <v>3</v>
-      </c>
+      <c r="U84" t="s"/>
       <c r="V84" t="n">
         <v>0</v>
       </c>
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>790</v>
+        <v>712</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>33927</v>
       </c>
-      <c r="B85" t="n">
-        <v>29874</v>
-      </c>
-      <c r="C85" t="s">
-        <v>791</v>
-      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>792</v>
+        <v>714</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>793</v>
+        <v>715</v>
       </c>
       <c r="J85" t="s">
-        <v>794</v>
+        <v>716</v>
       </c>
       <c r="K85" t="s">
-        <v>795</v>
+        <v>717</v>
       </c>
       <c r="L85" t="s">
-        <v>796</v>
+        <v>718</v>
       </c>
       <c r="M85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>797</v>
+        <v>719</v>
       </c>
       <c r="O85" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8808,67 +8445,69 @@
       <c r="V85" t="n">
         <v>0</v>
       </c>
-      <c r="W85" t="s"/>
-      <c r="X85" t="s"/>
+      <c r="W85" t="s">
+        <v>720</v>
+      </c>
+      <c r="X85" t="s">
+        <v>721</v>
+      </c>
       <c r="Y85" t="s">
-        <v>798</v>
+        <v>722</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>33927</v>
       </c>
-      <c r="B86" t="n">
-        <v>4146</v>
-      </c>
-      <c r="C86" t="s">
-        <v>799</v>
-      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>800</v>
+        <v>723</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>801</v>
+        <v>724</v>
       </c>
       <c r="J86" t="s">
-        <v>802</v>
+        <v>725</v>
       </c>
       <c r="K86" t="s">
-        <v>803</v>
+        <v>726</v>
       </c>
       <c r="L86" t="s">
-        <v>804</v>
+        <v>727</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>797</v>
+        <v>719</v>
       </c>
       <c r="O86" t="s">
-        <v>73</v>
-      </c>
-      <c r="P86" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
       <c r="Q86" t="s"/>
       <c r="R86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S86" t="s"/>
       <c r="T86" t="s"/>
       <c r="U86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -8876,7 +8515,617 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>805</v>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>33927</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>729</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>730</v>
+      </c>
+      <c r="J87" t="s">
+        <v>731</v>
+      </c>
+      <c r="K87" t="s">
+        <v>732</v>
+      </c>
+      <c r="L87" t="s">
+        <v>733</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>719</v>
+      </c>
+      <c r="O87" t="s">
+        <v>68</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>33927</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>734</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>735</v>
+      </c>
+      <c r="J88" t="s">
+        <v>736</v>
+      </c>
+      <c r="K88" t="s">
+        <v>737</v>
+      </c>
+      <c r="L88" t="s">
+        <v>738</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>739</v>
+      </c>
+      <c r="O88" t="s">
+        <v>78</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>740</v>
+      </c>
+      <c r="X88" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>33927</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>743</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>744</v>
+      </c>
+      <c r="J89" t="s">
+        <v>745</v>
+      </c>
+      <c r="K89" t="s">
+        <v>746</v>
+      </c>
+      <c r="L89" t="s">
+        <v>747</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>748</v>
+      </c>
+      <c r="O89" t="s">
+        <v>78</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>33927</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>749</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>750</v>
+      </c>
+      <c r="J90" t="s">
+        <v>751</v>
+      </c>
+      <c r="K90" t="s">
+        <v>752</v>
+      </c>
+      <c r="L90" t="s">
+        <v>753</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>739</v>
+      </c>
+      <c r="O90" t="s">
+        <v>68</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>33927</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>754</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>755</v>
+      </c>
+      <c r="J91" t="s">
+        <v>756</v>
+      </c>
+      <c r="K91" t="s">
+        <v>757</v>
+      </c>
+      <c r="L91" t="s">
+        <v>758</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>759</v>
+      </c>
+      <c r="O91" t="s">
+        <v>78</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>33927</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>761</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>762</v>
+      </c>
+      <c r="J92" t="s">
+        <v>763</v>
+      </c>
+      <c r="K92" t="s">
+        <v>764</v>
+      </c>
+      <c r="L92" t="s">
+        <v>765</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>739</v>
+      </c>
+      <c r="O92" t="s">
+        <v>78</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>766</v>
+      </c>
+      <c r="X92" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>33927</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>769</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>770</v>
+      </c>
+      <c r="J93" t="s">
+        <v>771</v>
+      </c>
+      <c r="K93" t="s">
+        <v>772</v>
+      </c>
+      <c r="L93" t="s">
+        <v>773</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>759</v>
+      </c>
+      <c r="O93" t="s">
+        <v>78</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>774</v>
+      </c>
+      <c r="X93" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>33927</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>777</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>778</v>
+      </c>
+      <c r="J94" t="s">
+        <v>779</v>
+      </c>
+      <c r="K94" t="s">
+        <v>780</v>
+      </c>
+      <c r="L94" t="s">
+        <v>781</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>782</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>33927</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>784</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>785</v>
+      </c>
+      <c r="J95" t="s">
+        <v>786</v>
+      </c>
+      <c r="K95" t="s">
+        <v>787</v>
+      </c>
+      <c r="L95" t="s">
+        <v>788</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>789</v>
+      </c>
+      <c r="O95" t="s">
+        <v>148</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>33927</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>791</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>792</v>
+      </c>
+      <c r="J96" t="s">
+        <v>793</v>
+      </c>
+      <c r="K96" t="s">
+        <v>794</v>
+      </c>
+      <c r="L96" t="s">
+        <v>795</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>789</v>
+      </c>
+      <c r="O96" t="s">
+        <v>148</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>
